--- a/Query Base de datos.xlsx
+++ b/Query Base de datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\unificacion_proyecto_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBF6E92-C809-4C7F-85AD-1707E876928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2843ED7B-6729-460E-AA5C-6AEA5110498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2A26BEC3-3C8D-473A-BF84-89C24DF24433}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="257">
   <si>
     <t>Codigo_producto</t>
   </si>
@@ -360,9 +360,6 @@
     <t>materiales</t>
   </si>
   <si>
-    <t>INSERT INTO productos2 (codigo, nombre, descripcion, precio, url_imagen, colores, materiales)</t>
-  </si>
-  <si>
     <t>salas</t>
   </si>
   <si>
@@ -414,33 +411,6 @@
     <t>salas20</t>
   </si>
   <si>
-    <t>1. Sofá Oslo</t>
-  </si>
-  <si>
-    <t>2. Sillón Aurora</t>
-  </si>
-  <si>
-    <t>3. Sillón Ibiza</t>
-  </si>
-  <si>
-    <t>4. Sofá Nórdico</t>
-  </si>
-  <si>
-    <t>5. Sillón Valentina</t>
-  </si>
-  <si>
-    <t>6. Sofá Roma</t>
-  </si>
-  <si>
-    <t>7. Chaise Longue Ginebra</t>
-  </si>
-  <si>
-    <t>8. Sofá Milán</t>
-  </si>
-  <si>
-    <t>9. Sillón Chester</t>
-  </si>
-  <si>
     <t>10. Sofá Capri</t>
   </si>
   <si>
@@ -658,6 +628,186 @@
   </si>
   <si>
     <t>Beige , Azul , Gris</t>
+  </si>
+  <si>
+    <t>Blanco</t>
+  </si>
+  <si>
+    <t>Beige , Azul , Gris , Blanco</t>
+  </si>
+  <si>
+    <t>Beige  , Gris , Blanco , Caoba</t>
+  </si>
+  <si>
+    <t>Wengue , Caoba</t>
+  </si>
+  <si>
+    <t>Gris , Blanco , Beige</t>
+  </si>
+  <si>
+    <t>Plata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plata , Blanco </t>
+  </si>
+  <si>
+    <t>Creación tabla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beige , Blanco , Gris </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blanco , Gris </t>
+  </si>
+  <si>
+    <t>CREATE TABLE salas (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera , Espuma de alta densidad </t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>ID INT (11) NOT NULL AUTO_INCREMENT PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t>colores SET (' Beige ',' Azul ',' Wengue ',' Gris ',' Caoba ',' Blanco ',' Plata ') NOT NULL,</t>
+  </si>
+  <si>
+    <t>materiales SET (' Madera ',' Espuma de alta densidad ') NOT NULL</t>
+  </si>
+  <si>
+    <t>codigo VARCHAR (50) NOT NULL,</t>
+  </si>
+  <si>
+    <t>nombre VARCHAR (100) NOT NULL,</t>
+  </si>
+  <si>
+    <t>descripcion VARCHAR (255) NOT NULL,</t>
+  </si>
+  <si>
+    <t>precio VARCHAR (50) NOT NULL,</t>
+  </si>
+  <si>
+    <t>url_imagen LONGBLOB,</t>
+  </si>
+  <si>
+    <t>('PRU_001','Pru_alta_carpinteria','Descripcion prueba alta carpineteria',4.000.000,00,'C:\xampp\htdocs\PruebaBD_PryAlt\Imagenes seccion\alta carpinteria.png','Azul,Blanco,Negro','Material3,Material4,Material5')</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>INSERT INTO salas (codigo, nombre, descripcion, precio, url_imagen, colores, materiales)</t>
+  </si>
+  <si>
+    <t>$ 3.250.000</t>
+  </si>
+  <si>
+    <t>$ 1.800.000</t>
+  </si>
+  <si>
+    <t>$ 2.700.000</t>
+  </si>
+  <si>
+    <t>$ 3.850.000</t>
+  </si>
+  <si>
+    <t>$ 2.750.000</t>
+  </si>
+  <si>
+    <t>$ 3.550.000</t>
+  </si>
+  <si>
+    <t>$ 2.250.000</t>
+  </si>
+  <si>
+    <t>$ 2.960.000</t>
+  </si>
+  <si>
+    <t>$ 4.340.000</t>
+  </si>
+  <si>
+    <t>$ 4.250.000</t>
+  </si>
+  <si>
+    <t>$ 3.440.000</t>
+  </si>
+  <si>
+    <t>$ 2.450.000</t>
+  </si>
+  <si>
+    <t>$ 3.990.000</t>
+  </si>
+  <si>
+    <t>$ 1.970.000</t>
+  </si>
+  <si>
+    <t>('salas1','Sofá Ámsterdam','N/A','$ 3.250.000','Imagenes/salas/salas1.png','Beige , Azul , Gris','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>('salas2','Sillón Berlín','N/A','$ 1.800.000','Imagenes/salas/salas2.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>('salas3','Sofá Bruselas','N/A','$ 2.700.000','Imagenes/salas/salas3.png','Beige  , Gris , Blanco , Caoba','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>('salas4','Sofá Capri','N/A','$ 3.850.000','Imagenes/salas/salas4.png','Wengue , Caoba','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>('salas5','Sofá París','N/A','$ 2.750.000','Imagenes/salas/salas5.png','Gris , Blanco , Beige','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>('salas7','Sofá Nórdico','N/A','$ 3.550.000','Imagenes/salas/salas7.png','Plata , Blanco ','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>('salas9','Sillón Dublín','N/A','$ 2.250.000','Imagenes/salas/salas9.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>('salas10','Sillón Oxford','N/A','$ 2.960.000','Imagenes/salas/salas10.png','Wengue , Caoba','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>('salas11','Sillón Toulouse','N/A','$ 4.340.000','Imagenes/salas/salas11.png','Beige , Blanco , Gris ','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>('salas13','Sofá Chicago','N/A','$ 4.250.000','Imagenes/salas/salas13.png','Beige , Blanco , Gris ','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>('salas14','Sofá Florencia','N/A','$ 3.440.000','Imagenes/salas/salas14.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>('salas15','Sillón Londres','N/A','$ 2.450.000','Imagenes/salas/salas15.png','Gris , Blanco , Beige','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>('salas17','Sofá Sevilla','N/A','$ 3.990.000','Imagenes/salas/salas17.png','Blanco , Gris ','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>('salas19','Sillón Savoy','N/A','$ 2.750.000','Imagenes/salas/salas19.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>('salas20','Sillón Marsella','N/A','$ 1.970.000','Imagenes/salas/salas20.png','Beige , Azul , Gris','Madera , Espuma de alta densidad '),</t>
+  </si>
+  <si>
+    <t>UPDATE salas</t>
+  </si>
+  <si>
+    <t>SET precio =</t>
+  </si>
+  <si>
+    <t>CASE codigo</t>
+  </si>
+  <si>
+    <t>WHEN 'salas1' THEN '$ 3.500.000'</t>
+  </si>
+  <si>
+    <t>ELSE precio</t>
   </si>
 </sst>
 </file>
@@ -711,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -721,7 +871,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467A2FFE-2E48-41E5-8C10-D293866D1E4B}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA30AA2-9880-4D41-820C-F91482830A46}">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,1008 +1876,1316 @@
     <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" t="str">
+        <f>$H$19&amp;$H$21&amp;I21&amp;$J$21</f>
+        <v>Imagenes/salas/salas1.png</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:L30" si="0">+$H$21&amp;I21</f>
+        <v>salas1</v>
+      </c>
+      <c r="M21" t="str">
+        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
+        <v>('salas1','Sofá Ámsterdam','N/A','$ 3.250.000','Imagenes/salas/salas1.png','Beige , Azul , Gris','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" t="str">
-        <f>$H$5&amp;$H$7&amp;I7&amp;$J$7</f>
-        <v>Imagenes/salas/salas1.png</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" ref="L7:L16" si="0">+$H$7&amp;I7</f>
-        <v>salas1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="I8">
+      <c r="B22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I22">
         <v>2</v>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" ref="K8:K16" si="1">$H$5&amp;$H$7&amp;I8&amp;$J$7</f>
+      <c r="K22" t="str">
+        <f t="shared" ref="K22:K30" si="1">$H$19&amp;$H$21&amp;I22&amp;$J$21</f>
         <v>Imagenes/salas/salas2.png</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v>salas2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="I9">
+      <c r="M22" s="1" t="str">
+        <f t="shared" ref="M22:M35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
+        <v>('salas2','Sillón Berlín','N/A','$ 1.800.000','Imagenes/salas/salas2.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I23">
         <v>3</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K23" t="str">
         <f t="shared" si="1"/>
         <v>Imagenes/salas/salas3.png</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v>salas3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="I10">
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>('salas3','Sofá Bruselas','N/A','$ 2.700.000','Imagenes/salas/salas3.png','Beige  , Gris , Blanco , Caoba','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I24">
         <v>4</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K24" t="str">
         <f t="shared" si="1"/>
         <v>Imagenes/salas/salas4.png</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v>salas4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="I11">
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>('salas4','Sofá Capri','N/A','$ 3.850.000','Imagenes/salas/salas4.png','Wengue , Caoba','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I25">
         <v>5</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K25" t="str">
         <f t="shared" si="1"/>
         <v>Imagenes/salas/salas5.png</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v>salas5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="I12">
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>('salas5','Sofá París','N/A','$ 2.750.000','Imagenes/salas/salas5.png','Gris , Blanco , Beige','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I26">
         <v>7</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K26" t="str">
         <f t="shared" si="1"/>
         <v>Imagenes/salas/salas7.png</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v>salas7</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="I13">
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>('salas7','Sofá Nórdico','N/A','$ 3.550.000','Imagenes/salas/salas7.png','Plata , Blanco ','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I27">
         <v>9</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K27" t="str">
         <f t="shared" si="1"/>
         <v>Imagenes/salas/salas9.png</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v>salas9</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="I14">
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>('salas9','Sillón Dublín','N/A','$ 2.250.000','Imagenes/salas/salas9.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I28">
         <v>10</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K28" t="str">
         <f t="shared" si="1"/>
         <v>Imagenes/salas/salas10.png</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v>salas10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="I15">
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>('salas10','Sillón Oxford','N/A','$ 2.960.000','Imagenes/salas/salas10.png','Wengue , Caoba','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I29">
         <v>11</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K29" t="str">
         <f t="shared" si="1"/>
         <v>Imagenes/salas/salas11.png</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v>salas11</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="I16">
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>('salas11','Sillón Toulouse','N/A','$ 4.340.000','Imagenes/salas/salas11.png','Beige , Blanco , Gris ','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30">
         <v>13</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K30" t="str">
         <f t="shared" si="1"/>
         <v>Imagenes/salas/salas13.png</v>
       </c>
-      <c r="L16" t="str">
+      <c r="L30" t="str">
         <f t="shared" si="0"/>
         <v>salas13</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>('salas13','Sofá Chicago','N/A','$ 4.250.000','Imagenes/salas/salas13.png','Beige , Blanco , Gris ','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I31">
+        <v>14</v>
+      </c>
+      <c r="K31" t="str">
+        <f>$H$19&amp;$H$21&amp;I31&amp;$J$21</f>
+        <v>Imagenes/salas/salas14.png</v>
+      </c>
+      <c r="L31" t="str">
+        <f>+$H$21&amp;I31</f>
+        <v>salas14</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>('salas14','Sofá Florencia','N/A','$ 3.440.000','Imagenes/salas/salas14.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I32">
+        <v>15</v>
+      </c>
+      <c r="K32" t="str">
+        <f>$H$19&amp;$H$21&amp;I32&amp;$J$21</f>
+        <v>Imagenes/salas/salas15.png</v>
+      </c>
+      <c r="L32" t="str">
+        <f>+$H$21&amp;I32</f>
+        <v>salas15</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>('salas15','Sillón Londres','N/A','$ 2.450.000','Imagenes/salas/salas15.png','Gris , Blanco , Beige','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I33">
+        <v>17</v>
+      </c>
+      <c r="K33" t="str">
+        <f>$H$19&amp;$H$21&amp;I33&amp;$J$21</f>
+        <v>Imagenes/salas/salas17.png</v>
+      </c>
+      <c r="L33" t="str">
+        <f>+$H$21&amp;I33</f>
+        <v>salas17</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>('salas17','Sofá Sevilla','N/A','$ 3.990.000','Imagenes/salas/salas17.png','Blanco , Gris ','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I34">
+        <v>19</v>
+      </c>
+      <c r="K34" t="str">
+        <f>$H$19&amp;$H$21&amp;I34&amp;$J$21</f>
+        <v>Imagenes/salas/salas19.png</v>
+      </c>
+      <c r="L34" t="str">
+        <f>+$H$21&amp;I34</f>
+        <v>salas19</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>('salas19','Sillón Savoy','N/A','$ 2.750.000','Imagenes/salas/salas19.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="I17">
-        <v>14</v>
-      </c>
-      <c r="K17" t="str">
-        <f>$H$5&amp;$H$7&amp;I17&amp;$J$7</f>
-        <v>Imagenes/salas/salas14.png</v>
-      </c>
-      <c r="L17" t="str">
-        <f>+$H$7&amp;I17</f>
-        <v>salas14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="G35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I35">
+        <v>20</v>
+      </c>
+      <c r="K35" t="str">
+        <f>$H$19&amp;$H$21&amp;I35&amp;$J$21</f>
+        <v>Imagenes/salas/salas20.png</v>
+      </c>
+      <c r="L35" t="str">
+        <f>+$H$21&amp;I35</f>
+        <v>salas20</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>('salas20','Sillón Marsella','N/A','$ 1.970.000','Imagenes/salas/salas20.png','Beige , Azul , Gris','Madera , Espuma de alta densidad '),</v>
+      </c>
+      <c r="N35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="I18">
-        <v>15</v>
-      </c>
-      <c r="K18" t="str">
-        <f>$H$5&amp;$H$7&amp;I18&amp;$J$7</f>
-        <v>Imagenes/salas/salas15.png</v>
-      </c>
-      <c r="L18" t="str">
-        <f>+$H$7&amp;I18</f>
-        <v>salas15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="I19">
-        <v>17</v>
-      </c>
-      <c r="K19" t="str">
-        <f>$H$5&amp;$H$7&amp;I19&amp;$J$7</f>
-        <v>Imagenes/salas/salas17.png</v>
-      </c>
-      <c r="L19" t="str">
-        <f>+$H$7&amp;I19</f>
-        <v>salas17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="I20">
-        <v>19</v>
-      </c>
-      <c r="K20" t="str">
-        <f>$H$5&amp;$H$7&amp;I20&amp;$J$7</f>
-        <v>Imagenes/salas/salas19.png</v>
-      </c>
-      <c r="L20" t="str">
-        <f>+$H$7&amp;I20</f>
-        <v>salas19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="I21">
-        <v>20</v>
-      </c>
-      <c r="K21" t="str">
-        <f>$H$5&amp;$H$7&amp;I21&amp;$J$7</f>
-        <v>Imagenes/salas/salas20.png</v>
-      </c>
-      <c r="L21" t="str">
-        <f>+$H$7&amp;I21</f>
-        <v>salas20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H25" t="s">
-        <v>203</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29">
-        <f>+LEN(D29)</f>
-        <v>12</v>
-      </c>
-      <c r="F29" s="9" t="str">
-        <f>+RIGHT(D29,(E29-3))</f>
-        <v>Sofá Oslo</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ref="E30:E58" si="2">+LEN(D30)</f>
-        <v>16</v>
-      </c>
-      <c r="F30" s="9" t="str">
-        <f t="shared" ref="F30:F58" si="3">+RIGHT(D30,(E30-3))</f>
-        <v>Sillón Aurora</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="F31" s="9" t="str">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="L43" t="str">
+        <f>+F42&amp;G42&amp;H42&amp;I42&amp;J42&amp;K42&amp;L42</f>
+        <v>BeigeAzulWengueGrisCaobaBlancoPlata</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f>+LEN(D46)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" t="e">
+        <f>+RIGHT(D46,(E46-3))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47:E75" si="3">+LEN(D47)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" t="e">
+        <f t="shared" ref="F47:F75" si="4">+RIGHT(D47,(E47-3))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="3"/>
-        <v>Sillón Ibiza</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="F32" s="9" t="str">
+        <v>0</v>
+      </c>
+      <c r="F48" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E49">
         <f t="shared" si="3"/>
-        <v>Sofá Nórdico</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="F33" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>Sillón Valentina</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="F34" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>Sofá Roma</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="F35" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>Chaise Longue Ginebra</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="F36" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>Sofá Milán</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F37" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>Sillón Chester</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="F38" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sofá Capri</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="F39" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sillón Victoria</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F40" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sofá Valencia</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>137</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F41" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sillón Dublín</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F42" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sofá Chicago</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F43" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sillón Berlín</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F44" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sofá Venecia</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F45" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sillón Savoy</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="F46" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sofá París</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>143</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="F47" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sillón Duke</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="F48" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sofá Florencia</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F49" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sillón Oxford</v>
+        <v>0</v>
+      </c>
+      <c r="F49" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="F50" s="9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sofá Barcelona</v>
+        <v>0</v>
+      </c>
+      <c r="F50" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" t="s">
-        <v>147</v>
-      </c>
       <c r="E51">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="F51" s="9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sillón Marsella</v>
+        <v>0</v>
+      </c>
+      <c r="F51" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>163</v>
-      </c>
-      <c r="D52" t="s">
-        <v>148</v>
-      </c>
       <c r="E52">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F52" s="9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sofá Londres</v>
+        <v>0</v>
+      </c>
+      <c r="F52" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" t="s">
-        <v>149</v>
-      </c>
       <c r="E53">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F53" s="9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sillón Zurich</v>
+        <v>0</v>
+      </c>
+      <c r="F53" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F54" s="9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sofá Sevilla</v>
+        <v>0</v>
+      </c>
+      <c r="F54" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="F55" s="9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sillón Toulouse</v>
+        <v>14</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sofá Capri</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F56" s="9" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> Sofá Bruselas</v>
+        <v>19</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sillón Victoria</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sofá Valencia</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sillón Dublín</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sofá Chicago</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sillón Berlín</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sofá Venecia</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sillón Savoy</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sofá París</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sillón Duke</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>155</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sofá Florencia</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sillón Oxford</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sofá Barcelona</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sillón Marsella</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>153</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="2"/>
+      <c r="D69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sofá Londres</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F57" s="9" t="str">
+      <c r="F70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sillón Zurich</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sofá Sevilla</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sillón Toulouse</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> Sofá Bruselas</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> Sillón Mónaco</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="2"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F58" s="9" t="str">
-        <f t="shared" si="3"/>
+      <c r="F75" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> Sofá Ámsterdam</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D62" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:A58">
-    <sortCondition ref="A29:A58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A46:A75">
+    <sortCondition ref="A46:A75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Query Base de datos.xlsx
+++ b/Query Base de datos.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\unificacion_proyecto_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2843ED7B-6729-460E-AA5C-6AEA5110498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD650EF3-9FDD-4C8B-9A03-6C0767ED104E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2A26BEC3-3C8D-473A-BF84-89C24DF24433}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2A26BEC3-3C8D-473A-BF84-89C24DF24433}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Query_salas" sheetId="2" r:id="rId2"/>
+    <sheet name="Query_comedores" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="336">
   <si>
     <t>Codigo_producto</t>
   </si>
@@ -808,6 +809,243 @@
   </si>
   <si>
     <t>ELSE precio</t>
+  </si>
+  <si>
+    <t>CREATE TABLE comedores (</t>
+  </si>
+  <si>
+    <t>materiales SET (' Madera ',' Vidrio ',' Metal ') NOT NULL</t>
+  </si>
+  <si>
+    <t>comedores</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/</t>
+  </si>
+  <si>
+    <t>colores SET (' Natural ',' Wengue ', ' Caoba ') NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natural , Wengue ,  Caoba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madera , Vidrio , Metal </t>
+  </si>
+  <si>
+    <t>$ 2.350.000</t>
+  </si>
+  <si>
+    <t>$ 2.830.000</t>
+  </si>
+  <si>
+    <t>$ 3.330.000</t>
+  </si>
+  <si>
+    <t>comedores1</t>
+  </si>
+  <si>
+    <t>comedores2</t>
+  </si>
+  <si>
+    <t>comedores3</t>
+  </si>
+  <si>
+    <t>comedores4</t>
+  </si>
+  <si>
+    <t>comedores5</t>
+  </si>
+  <si>
+    <t>comedores6</t>
+  </si>
+  <si>
+    <t>comedores7</t>
+  </si>
+  <si>
+    <t>comedores8</t>
+  </si>
+  <si>
+    <t>comedores9</t>
+  </si>
+  <si>
+    <t>comedores10</t>
+  </si>
+  <si>
+    <t>comedores11</t>
+  </si>
+  <si>
+    <t>comedores12</t>
+  </si>
+  <si>
+    <t>comedores13</t>
+  </si>
+  <si>
+    <t>comedores14</t>
+  </si>
+  <si>
+    <t>comedores15</t>
+  </si>
+  <si>
+    <t>$ 2.650.000</t>
+  </si>
+  <si>
+    <t>$ 3.350.000</t>
+  </si>
+  <si>
+    <t>$ 2.240.000</t>
+  </si>
+  <si>
+    <t>$ 2.640.000</t>
+  </si>
+  <si>
+    <t>$ 1.750.000</t>
+  </si>
+  <si>
+    <t>$ 2.040.000</t>
+  </si>
+  <si>
+    <t>$ 3.150.000</t>
+  </si>
+  <si>
+    <t>$ 4.990.000</t>
+  </si>
+  <si>
+    <t>Comedor 6 puestos Valenciano</t>
+  </si>
+  <si>
+    <t>Comedor 6 puestos Alaska</t>
+  </si>
+  <si>
+    <t>Comedor 6 puestos Sevilla</t>
+  </si>
+  <si>
+    <t>Comedor 6 puestos Underground</t>
+  </si>
+  <si>
+    <t>Comedor 4 puestos Marsella</t>
+  </si>
+  <si>
+    <t>Comedor 4 puestos Suburbios</t>
+  </si>
+  <si>
+    <t>Comedor 6 puestos Manchester</t>
+  </si>
+  <si>
+    <t>Comedor 4 puestos Mediterraneo</t>
+  </si>
+  <si>
+    <t>Comedor 4 puestos New York</t>
+  </si>
+  <si>
+    <t>Comedor 4 puestos Simple</t>
+  </si>
+  <si>
+    <t>Comedor 4 puestos Ceniza</t>
+  </si>
+  <si>
+    <t>Comedor 6 puestos Europeo</t>
+  </si>
+  <si>
+    <t>Comedor 8 puestos Industrial</t>
+  </si>
+  <si>
+    <t>Comedor 6 puestos Minimalista</t>
+  </si>
+  <si>
+    <t>Comedor 6 puestos Valenciano plus</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores1.png</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores2.png</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores3.png</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores4.png</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores5.png</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores6.png</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores7.png</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores8.png</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores9.png</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores10.png</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores11.png</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores12.png</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores13.png</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores14.png</t>
+  </si>
+  <si>
+    <t>Imagenes/comedores/comedores15.png</t>
+  </si>
+  <si>
+    <t>INSERT INTO comedores (codigo, nombre, descripcion, precio, url_imagen, colores, materiales)</t>
+  </si>
+  <si>
+    <t>('comedores1','Comedor 6 puestos Alaska','N/A','$ 3.330.000','Imagenes/comedores/comedores1.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t>('comedores2','Comedor 6 puestos Sevilla','N/A','$ 2.830.000','Imagenes/comedores/comedores2.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t>('comedores3','Comedor 6 puestos Underground','N/A','$ 2.350.000','Imagenes/comedores/comedores3.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t>('comedores4','Comedor 4 puestos Marsella','N/A','$ 3.550.000','Imagenes/comedores/comedores4.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t>('comedores5','Comedor 6 puestos Valenciano','N/A','$ 4.250.000','Imagenes/comedores/comedores5.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t>('comedores6','Comedor 4 puestos Suburbios','N/A','$ 2.650.000','Imagenes/comedores/comedores6.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t>('comedores7','Comedor 6 puestos Manchester','N/A','$ 3.350.000','Imagenes/comedores/comedores7.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t>('comedores8','Comedor 4 puestos Mediterraneo','N/A','$ 2.240.000','Imagenes/comedores/comedores8.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t>('comedores9','Comedor 4 puestos New York','N/A','$ 2.640.000','Imagenes/comedores/comedores9.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t>('comedores10','Comedor 4 puestos Simple','N/A','$ 1.750.000','Imagenes/comedores/comedores10.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t>('comedores11','Comedor 4 puestos Ceniza','N/A','$ 2.040.000','Imagenes/comedores/comedores11.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t>('comedores12','Comedor 6 puestos Europeo','N/A','$ 3.150.000','Imagenes/comedores/comedores12.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t>('comedores13','Comedor 8 puestos Industrial','N/A','$ 4.990.000','Imagenes/comedores/comedores13.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t>('comedores14','Comedor 6 puestos Minimalista','N/A','$ 2.750.000','Imagenes/comedores/comedores14.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t>('comedores15','Comedor 6 puestos Valenciano plus','N/A','$ 4.250.000','Imagenes/comedores/comedores15.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
   </si>
 </sst>
 </file>
@@ -1187,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467A2FFE-2E48-41E5-8C10-D293866D1E4B}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A45"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA30AA2-9880-4D41-820C-F91482830A46}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,4 +3428,1389 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2239FE3-6675-4F43-8E17-8F9AABEB3097}">
+  <dimension ref="A1:N104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>260</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H21" t="s">
+        <v>259</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" t="str">
+        <f>$H$19&amp;$H$21&amp;I21&amp;$J$21</f>
+        <v>Imagenes/comedores/comedores1.png</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:L30" si="0">+$H$21&amp;I21</f>
+        <v>comedores1</v>
+      </c>
+      <c r="M21" t="str">
+        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
+        <v>('comedores1','Comedor 6 puestos Alaska','N/A','$ 3.330.000','Imagenes/comedores/comedores1.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ref="K22:K30" si="1">$H$19&amp;$H$21&amp;I22&amp;$J$21</f>
+        <v>Imagenes/comedores/comedores2.png</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>comedores2</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" ref="M22:M35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
+        <v>('comedores2','Comedor 6 puestos Sevilla','N/A','$ 2.830.000','Imagenes/comedores/comedores2.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/comedores/comedores3.png</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>comedores3</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>('comedores3','Comedor 6 puestos Underground','N/A','$ 2.350.000','Imagenes/comedores/comedores3.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/comedores/comedores4.png</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>comedores4</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>('comedores4','Comedor 4 puestos Marsella','N/A','$ 3.550.000','Imagenes/comedores/comedores4.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/comedores/comedores5.png</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>comedores5</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>('comedores5','Comedor 6 puestos Valenciano','N/A','$ 4.250.000','Imagenes/comedores/comedores5.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/comedores/comedores6.png</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>comedores6</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>('comedores6','Comedor 4 puestos Suburbios','N/A','$ 2.650.000','Imagenes/comedores/comedores6.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/comedores/comedores7.png</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>comedores7</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>('comedores7','Comedor 6 puestos Manchester','N/A','$ 3.350.000','Imagenes/comedores/comedores7.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/comedores/comedores8.png</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>comedores8</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>('comedores8','Comedor 4 puestos Mediterraneo','N/A','$ 2.240.000','Imagenes/comedores/comedores8.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" t="s">
+        <v>298</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/comedores/comedores9.png</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>comedores9</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>('comedores9','Comedor 4 puestos New York','N/A','$ 2.640.000','Imagenes/comedores/comedores9.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/comedores/comedores10.png</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>comedores10</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>('comedores10','Comedor 4 puestos Simple','N/A','$ 1.750.000','Imagenes/comedores/comedores10.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N30" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="K31" t="str">
+        <f>$H$19&amp;$H$21&amp;I31&amp;$J$21</f>
+        <v>Imagenes/comedores/comedores11.png</v>
+      </c>
+      <c r="L31" t="str">
+        <f>+$H$21&amp;I31</f>
+        <v>comedores11</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>('comedores11','Comedor 4 puestos Ceniza','N/A','$ 2.040.000','Imagenes/comedores/comedores11.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="K32" t="str">
+        <f>$H$19&amp;$H$21&amp;I32&amp;$J$21</f>
+        <v>Imagenes/comedores/comedores12.png</v>
+      </c>
+      <c r="L32" t="str">
+        <f>+$H$21&amp;I32</f>
+        <v>comedores12</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>('comedores12','Comedor 6 puestos Europeo','N/A','$ 3.150.000','Imagenes/comedores/comedores12.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I33">
+        <v>13</v>
+      </c>
+      <c r="K33" t="str">
+        <f>$H$19&amp;$H$21&amp;I33&amp;$J$21</f>
+        <v>Imagenes/comedores/comedores13.png</v>
+      </c>
+      <c r="L33" t="str">
+        <f>+$H$21&amp;I33</f>
+        <v>comedores13</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>('comedores13','Comedor 8 puestos Industrial','N/A','$ 4.990.000','Imagenes/comedores/comedores13.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N33" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+      <c r="K34" t="str">
+        <f>$H$19&amp;$H$21&amp;I34&amp;$J$21</f>
+        <v>Imagenes/comedores/comedores14.png</v>
+      </c>
+      <c r="L34" t="str">
+        <f>+$H$21&amp;I34</f>
+        <v>comedores14</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>('comedores14','Comedor 6 puestos Minimalista','N/A','$ 2.750.000','Imagenes/comedores/comedores14.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+      <c r="K35" t="str">
+        <f>$H$19&amp;$H$21&amp;I35&amp;$J$21</f>
+        <v>Imagenes/comedores/comedores15.png</v>
+      </c>
+      <c r="L35" t="str">
+        <f>+$H$21&amp;I35</f>
+        <v>comedores15</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>('comedores15','Comedor 6 puestos Valenciano plus','N/A','$ 4.250.000','Imagenes/comedores/comedores15.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      </c>
+      <c r="N35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="K37" t="str">
+        <f>+$H$21&amp;I21</f>
+        <v>comedores1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="K38" t="str">
+        <f t="shared" ref="K38:K51" si="3">+$H$21&amp;I22</f>
+        <v>comedores2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="K39" t="str">
+        <f t="shared" si="3"/>
+        <v>comedores3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="K40" t="str">
+        <f t="shared" si="3"/>
+        <v>comedores4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="K41" t="str">
+        <f t="shared" si="3"/>
+        <v>comedores5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="3"/>
+        <v>comedores6</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="K43" t="str">
+        <f t="shared" si="3"/>
+        <v>comedores7</v>
+      </c>
+      <c r="L43" t="str">
+        <f>+F42&amp;G42&amp;H42&amp;I42&amp;J42&amp;K42&amp;L42</f>
+        <v>BeigeAzulWengueGrisCaobacomedores6Plata</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="K44" t="str">
+        <f t="shared" si="3"/>
+        <v>comedores8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+      <c r="K45" t="str">
+        <f t="shared" si="3"/>
+        <v>comedores9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f>+LEN(D46)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" t="e">
+        <f>+RIGHT(D46,(E46-3))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="3"/>
+        <v>comedores10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47:E75" si="4">+LEN(D47)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" t="e">
+        <f t="shared" ref="F47:F75" si="5">+RIGHT(D47,(E47-3))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="3"/>
+        <v>comedores11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F48" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="3"/>
+        <v>comedores12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F49" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="3"/>
+        <v>comedores13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F50" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="3"/>
+        <v>comedores14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F51" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="3"/>
+        <v>comedores15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F52" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F53" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F54" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sofá Capri</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sillón Victoria</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sofá Valencia</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sillón Dublín</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sofá Chicago</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sillón Berlín</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sofá Venecia</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sillón Savoy</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sofá París</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sillón Duke</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sofá Florencia</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sillón Oxford</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sofá Barcelona</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sillón Marsella</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sofá Londres</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sillón Zurich</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sofá Sevilla</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sillón Toulouse</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sofá Bruselas</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sillón Mónaco</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Sofá Ámsterdam</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Query Base de datos.xlsx
+++ b/Query Base de datos.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\unificacion_proyecto_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD650EF3-9FDD-4C8B-9A03-6C0767ED104E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93139F67-D0BF-4BA5-B7D7-449B83F160F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2A26BEC3-3C8D-473A-BF84-89C24DF24433}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{2A26BEC3-3C8D-473A-BF84-89C24DF24433}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Query_salas" sheetId="2" r:id="rId2"/>
     <sheet name="Query_comedores" sheetId="4" r:id="rId3"/>
+    <sheet name="Query_alcobas" sheetId="5" r:id="rId4"/>
+    <sheet name="Query_cocinas" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="477">
   <si>
     <t>Codigo_producto</t>
   </si>
@@ -1046,6 +1048,429 @@
   </si>
   <si>
     <t>('comedores15','Comedor 6 puestos Valenciano plus','N/A','$ 4.250.000','Imagenes/comedores/comedores15.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madera , Espuma de alta densidad</t>
+  </si>
+  <si>
+    <t>alcobas</t>
+  </si>
+  <si>
+    <t>alcobas1</t>
+  </si>
+  <si>
+    <t>alcobas2</t>
+  </si>
+  <si>
+    <t>alcobas3</t>
+  </si>
+  <si>
+    <t>alcobas4</t>
+  </si>
+  <si>
+    <t>alcobas5</t>
+  </si>
+  <si>
+    <t>alcobas6</t>
+  </si>
+  <si>
+    <t>alcobas7</t>
+  </si>
+  <si>
+    <t>alcobas8</t>
+  </si>
+  <si>
+    <t>alcobas9</t>
+  </si>
+  <si>
+    <t>alcobas10</t>
+  </si>
+  <si>
+    <t>alcobas11</t>
+  </si>
+  <si>
+    <t>alcobas12</t>
+  </si>
+  <si>
+    <t>alcobas13</t>
+  </si>
+  <si>
+    <t>alcobas14</t>
+  </si>
+  <si>
+    <t>alcobas15</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/</t>
+  </si>
+  <si>
+    <t>Juego alcoba Midas</t>
+  </si>
+  <si>
+    <t>Juego alcoba Sahara</t>
+  </si>
+  <si>
+    <t>Juego alcoba Obsidiana</t>
+  </si>
+  <si>
+    <t>Juego alcoba Yakutsk</t>
+  </si>
+  <si>
+    <t>Juego alcoba Quebec</t>
+  </si>
+  <si>
+    <t>Juego alcoba Brooklyn</t>
+  </si>
+  <si>
+    <t>Juego alcoba Osaka</t>
+  </si>
+  <si>
+    <t>Juego alcoba Vegas</t>
+  </si>
+  <si>
+    <t>Juego alcoba Beijing</t>
+  </si>
+  <si>
+    <t>Juego alcoba Bloomsbury</t>
+  </si>
+  <si>
+    <t>Juego alcoba Terracota</t>
+  </si>
+  <si>
+    <t>Juego alcoba Tebas</t>
+  </si>
+  <si>
+    <t>Juego alcoba Cairo</t>
+  </si>
+  <si>
+    <t>Juego alcoba Salonica</t>
+  </si>
+  <si>
+    <t>Juego alcoba Opera</t>
+  </si>
+  <si>
+    <t>$ 2.990.000</t>
+  </si>
+  <si>
+    <t>$ 3.160.000</t>
+  </si>
+  <si>
+    <t>$ 4.750.000</t>
+  </si>
+  <si>
+    <t>$ 4.660.000</t>
+  </si>
+  <si>
+    <t>$ 3.560.000</t>
+  </si>
+  <si>
+    <t>$ 3.450.000</t>
+  </si>
+  <si>
+    <t>$ 3.100.000</t>
+  </si>
+  <si>
+    <t>$ 4.040.000</t>
+  </si>
+  <si>
+    <t>$ 4.690.000</t>
+  </si>
+  <si>
+    <t>$ 4.890.000</t>
+  </si>
+  <si>
+    <t>$ 4.290.000</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas1.png</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas2.png</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas3.png</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas4.png</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas5.png</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas6.png</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas7.png</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas8.png</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas9.png</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas10.png</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas11.png</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas12.png</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas13.png</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas14.png</t>
+  </si>
+  <si>
+    <t>Imagenes/alcobas/alcobas15.png</t>
+  </si>
+  <si>
+    <t>('alcobas1','Juego alcoba Osaka','N/A','$ 4.750.000','Imagenes/alcobas/alcobas1.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>('alcobas2','Juego alcoba Brooklyn','N/A','$ 2.990.000','Imagenes/alcobas/alcobas2.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>('alcobas3','Juego alcoba Quebec','N/A','$ 2.650.000','Imagenes/alcobas/alcobas3.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>('alcobas4','Juego alcoba Yakutsk','N/A','$ 3.160.000','Imagenes/alcobas/alcobas4.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>('alcobas5','Juego alcoba Obsidiana','N/A','$ 4.660.000','Imagenes/alcobas/alcobas5.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>('alcobas6','Juego alcoba Sahara','N/A','$ 3.560.000','Imagenes/alcobas/alcobas6.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>('alcobas7','Juego alcoba Midas','N/A','$ 3.450.000','Imagenes/alcobas/alcobas7.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>('alcobas8','Juego alcoba Vegas','N/A','$ 2.990.000','Imagenes/alcobas/alcobas8.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>('alcobas9','Juego alcoba Beijing','N/A','$ 3.100.000','Imagenes/alcobas/alcobas9.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>('alcobas10','Juego alcoba Bloomsbury','N/A','$ 2.750.000','Imagenes/alcobas/alcobas10.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>('alcobas11','Juego alcoba Terracota','N/A','$ 4.040.000','Imagenes/alcobas/alcobas11.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>('alcobas12','Juego alcoba Tebas','N/A','$ 4.890.000','Imagenes/alcobas/alcobas12.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>('alcobas13','Juego alcoba Cairo','N/A','$ 4.690.000','Imagenes/alcobas/alcobas13.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>('alcobas14','Juego alcoba Salonica','N/A','$ 4.290.000','Imagenes/alcobas/alcobas14.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>('alcobas15','Juego alcoba Opera','N/A','$ 3.450.000','Imagenes/alcobas/alcobas15.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
+  </si>
+  <si>
+    <t>CREATE TABLE alcobas (</t>
+  </si>
+  <si>
+    <t>INSERT INTO alcobas (codigo, nombre, descripcion, precio, url_imagen, colores, materiales)</t>
+  </si>
+  <si>
+    <t>materiales SET (' Madera ' ,' Espuma de alta densidad ') NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natural , Wengue , Caoba </t>
+  </si>
+  <si>
+    <t>colores SET (' Natural , Wengue , Caoba ') NOT NULL,</t>
+  </si>
+  <si>
+    <t>CREATE TABLE cocinas (</t>
+  </si>
+  <si>
+    <t>materiales SET (' Madera ',' MDF ','Diferentes tipos de mesones') NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madera , MDF , Diferentes tipos de mesones</t>
+  </si>
+  <si>
+    <t>colores SET (' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ') NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' </t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/</t>
+  </si>
+  <si>
+    <t>cocina</t>
+  </si>
+  <si>
+    <t>cocina1</t>
+  </si>
+  <si>
+    <t>cocina2</t>
+  </si>
+  <si>
+    <t>cocina3</t>
+  </si>
+  <si>
+    <t>cocina4</t>
+  </si>
+  <si>
+    <t>cocina5</t>
+  </si>
+  <si>
+    <t>cocina6</t>
+  </si>
+  <si>
+    <t>cocina7</t>
+  </si>
+  <si>
+    <t>cocina8</t>
+  </si>
+  <si>
+    <t>cocina9</t>
+  </si>
+  <si>
+    <t>cocina10</t>
+  </si>
+  <si>
+    <t>cocina11</t>
+  </si>
+  <si>
+    <t>cocina12</t>
+  </si>
+  <si>
+    <t>cocina13</t>
+  </si>
+  <si>
+    <t>cocina14</t>
+  </si>
+  <si>
+    <t>cocina15</t>
+  </si>
+  <si>
+    <t>Cocina Celeste clasica</t>
+  </si>
+  <si>
+    <t>Cocina Volcanica 2 fases</t>
+  </si>
+  <si>
+    <t>Cocina Meditarrenea 2 fases</t>
+  </si>
+  <si>
+    <t>Cocina Natural con isla</t>
+  </si>
+  <si>
+    <t>Cocina Cobrizo con isla</t>
+  </si>
+  <si>
+    <t>Cocina 90´s Madera</t>
+  </si>
+  <si>
+    <t>Cocina Vintage con bar</t>
+  </si>
+  <si>
+    <t>Cocina Duna con isla</t>
+  </si>
+  <si>
+    <t>Cocina basic beige en L dos mubles</t>
+  </si>
+  <si>
+    <t>Cocina Nevada en L</t>
+  </si>
+  <si>
+    <t>Cocina sombra con isla comedor</t>
+  </si>
+  <si>
+    <t>Cocina minimalista white 2 fases</t>
+  </si>
+  <si>
+    <t>Cocina Artiko en L</t>
+  </si>
+  <si>
+    <t>Cocina Basic white</t>
+  </si>
+  <si>
+    <t>Cocina Basic muebles inferior</t>
+  </si>
+  <si>
+    <t>Desde $4.500.000</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina1.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina2.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina3.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina4.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina5.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina6.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina7.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina8.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina9.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina10.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina11.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina12.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina13.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina14.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cocinas/cocina15.png</t>
+  </si>
+  <si>
+    <t>Desde $6.500.000</t>
+  </si>
+  <si>
+    <t>Desde $5.500.000</t>
+  </si>
+  <si>
+    <t>Desde $4.000.000</t>
+  </si>
+  <si>
+    <t>Desde $7.000.000</t>
+  </si>
+  <si>
+    <t>Desde $ 4.500.000</t>
+  </si>
+  <si>
+    <t>Desde $ 6.500.000</t>
+  </si>
+  <si>
+    <t>Desde $7.500.000</t>
+  </si>
+  <si>
+    <t>Desde $6.000.000</t>
+  </si>
+  <si>
+    <t>INSERT INTO cocinas (codigo, nombre, descripcion, precio, url_imagen, colores, materiales)</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1109,6 +1534,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2104,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA30AA2-9880-4D41-820C-F91482830A46}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:M33"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2239FE3-6675-4F43-8E17-8F9AABEB3097}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4813,4 +5239,1983 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC58163A-2559-4EE5-A9EC-0003788318F2}">
+  <dimension ref="A1:N104"/>
+  <sheetViews>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>353</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H21" t="s">
+        <v>337</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" t="str">
+        <f>$H$19&amp;$H$21&amp;I21&amp;$J$21</f>
+        <v>Imagenes/alcobas/alcobas1.png</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:M30" si="0">+$H$21&amp;I21</f>
+        <v>alcobas1</v>
+      </c>
+      <c r="M21" t="str">
+        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
+        <v>('alcobas1','Juego alcoba Osaka','N/A','$ 4.750.000','Imagenes/alcobas/alcobas1.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ref="K22:K30" si="1">$H$19&amp;$H$21&amp;I22&amp;$J$21</f>
+        <v>Imagenes/alcobas/alcobas2.png</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>alcobas2</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
+        <v>('alcobas2','Juego alcoba Brooklyn','N/A','$ 2.990.000','Imagenes/alcobas/alcobas2.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" t="s">
+        <v>358</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/alcobas/alcobas3.png</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>alcobas3</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>('alcobas3','Juego alcoba Quebec','N/A','$ 2.650.000','Imagenes/alcobas/alcobas3.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" t="s">
+        <v>357</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/alcobas/alcobas4.png</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>alcobas4</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>('alcobas4','Juego alcoba Yakutsk','N/A','$ 3.160.000','Imagenes/alcobas/alcobas4.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/alcobas/alcobas5.png</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>alcobas5</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>('alcobas5','Juego alcoba Obsidiana','N/A','$ 4.660.000','Imagenes/alcobas/alcobas5.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/alcobas/alcobas6.png</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>alcobas6</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>('alcobas6','Juego alcoba Sahara','N/A','$ 3.560.000','Imagenes/alcobas/alcobas6.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N26" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B27" t="s">
+        <v>354</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/alcobas/alcobas7.png</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>alcobas7</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>('alcobas7','Juego alcoba Midas','N/A','$ 3.450.000','Imagenes/alcobas/alcobas7.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/alcobas/alcobas8.png</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>alcobas8</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>('alcobas8','Juego alcoba Vegas','N/A','$ 2.990.000','Imagenes/alcobas/alcobas8.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B29" t="s">
+        <v>362</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/alcobas/alcobas9.png</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>alcobas9</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>('alcobas9','Juego alcoba Beijing','N/A','$ 3.100.000','Imagenes/alcobas/alcobas9.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/alcobas/alcobas10.png</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>alcobas10</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>('alcobas10','Juego alcoba Bloomsbury','N/A','$ 2.750.000','Imagenes/alcobas/alcobas10.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N30" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="K31" t="str">
+        <f>$H$19&amp;$H$21&amp;I31&amp;$J$21</f>
+        <v>Imagenes/alcobas/alcobas11.png</v>
+      </c>
+      <c r="L31" t="str">
+        <f>+$H$21&amp;I31</f>
+        <v>alcobas11</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>('alcobas11','Juego alcoba Terracota','N/A','$ 4.040.000','Imagenes/alcobas/alcobas11.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B32" t="s">
+        <v>365</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="K32" t="str">
+        <f>$H$19&amp;$H$21&amp;I32&amp;$J$21</f>
+        <v>Imagenes/alcobas/alcobas12.png</v>
+      </c>
+      <c r="L32" t="str">
+        <f>+$H$21&amp;I32</f>
+        <v>alcobas12</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>('alcobas12','Juego alcoba Tebas','N/A','$ 4.890.000','Imagenes/alcobas/alcobas12.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I33">
+        <v>13</v>
+      </c>
+      <c r="K33" t="str">
+        <f>$H$19&amp;$H$21&amp;I33&amp;$J$21</f>
+        <v>Imagenes/alcobas/alcobas13.png</v>
+      </c>
+      <c r="L33" t="str">
+        <f>+$H$21&amp;I33</f>
+        <v>alcobas13</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>('alcobas13','Juego alcoba Cairo','N/A','$ 4.690.000','Imagenes/alcobas/alcobas13.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B34" t="s">
+        <v>367</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+      <c r="K34" t="str">
+        <f>$H$19&amp;$H$21&amp;I34&amp;$J$21</f>
+        <v>Imagenes/alcobas/alcobas14.png</v>
+      </c>
+      <c r="L34" t="str">
+        <f>+$H$21&amp;I34</f>
+        <v>alcobas14</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>('alcobas14','Juego alcoba Salonica','N/A','$ 4.290.000','Imagenes/alcobas/alcobas14.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N34" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>352</v>
+      </c>
+      <c r="B35" t="s">
+        <v>368</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+      <c r="K35" t="str">
+        <f>$H$19&amp;$H$21&amp;I35&amp;$J$21</f>
+        <v>Imagenes/alcobas/alcobas15.png</v>
+      </c>
+      <c r="L35" t="str">
+        <f>+$H$21&amp;I35</f>
+        <v>alcobas15</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>('alcobas15','Juego alcoba Opera','N/A','$ 3.450.000','Imagenes/alcobas/alcobas15.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      </c>
+      <c r="N35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="K37" t="str">
+        <f>+$H$21&amp;I21</f>
+        <v>alcobas1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="K38" t="str">
+        <f t="shared" ref="K38:K51" si="3">+$H$21&amp;I22</f>
+        <v>alcobas2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="K39" t="str">
+        <f t="shared" si="3"/>
+        <v>alcobas3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="K40" t="str">
+        <f t="shared" si="3"/>
+        <v>alcobas4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="K41" t="str">
+        <f t="shared" si="3"/>
+        <v>alcobas5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="3"/>
+        <v>alcobas6</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="K43" t="str">
+        <f t="shared" si="3"/>
+        <v>alcobas7</v>
+      </c>
+      <c r="L43" t="str">
+        <f>+F42&amp;G42&amp;H42&amp;I42&amp;J42&amp;K42&amp;L42</f>
+        <v>BeigeAzulWengueGrisCaobaalcobas6Plata</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="K44" t="str">
+        <f t="shared" si="3"/>
+        <v>alcobas8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+      <c r="K45" t="str">
+        <f t="shared" si="3"/>
+        <v>alcobas9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K46" t="str">
+        <f t="shared" si="3"/>
+        <v>alcobas10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K47" t="str">
+        <f t="shared" si="3"/>
+        <v>alcobas11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K48" t="str">
+        <f t="shared" si="3"/>
+        <v>alcobas12</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" t="str">
+        <f t="shared" si="3"/>
+        <v>alcobas13</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" t="str">
+        <f t="shared" si="3"/>
+        <v>alcobas14</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" t="str">
+        <f t="shared" si="3"/>
+        <v>alcobas15</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D2AFDE-052B-4313-BBBF-C2DEBDB7D439}">
+  <dimension ref="A1:N104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21:N35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>420</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B21" t="s">
+        <v>445</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H21" t="s">
+        <v>421</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" t="str">
+        <f>$H$19&amp;$H$21&amp;I21&amp;$J$21</f>
+        <v>Imagenes/cocinas/cocina1.png</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:L30" si="0">+$H$21&amp;I21</f>
+        <v>cocina1</v>
+      </c>
+      <c r="M21" t="str">
+        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
+        <v>('cocina1','Cocina basic beige en L dos mubles','N/A','Desde $ 4.500.000','Imagenes/cocinas/cocina1.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B22" t="s">
+        <v>446</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ref="K22:K30" si="1">$H$19&amp;$H$21&amp;I22&amp;$J$21</f>
+        <v>Imagenes/cocinas/cocina2.png</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>cocina2</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" ref="M22:M35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
+        <v>('cocina2','Cocina Nevada en L','N/A','Desde $ 6.500.000','Imagenes/cocinas/cocina2.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B23" t="s">
+        <v>447</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cocinas/cocina3.png</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>cocina3</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina3','Cocina sombra con isla comedor','N/A','Desde $5.500.000','Imagenes/cocinas/cocina3.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cocinas/cocina4.png</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>cocina4</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina4','Cocina minimalista white 2 fases','N/A','Desde $6.500.000','Imagenes/cocinas/cocina4.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N24" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B25" t="s">
+        <v>450</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cocinas/cocina5.png</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>cocina5</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina5','Cocina Basic white','N/A','Desde $4.500.000','Imagenes/cocinas/cocina5.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B26" t="s">
+        <v>437</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cocinas/cocina6.png</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>cocina6</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina6','Cocina Celeste clasica','N/A','Desde $4.000.000','Imagenes/cocinas/cocina6.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N26" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cocinas/cocina7.png</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>cocina7</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina7','Cocina Volcanica 2 fases','N/A','Desde $7.000.000','Imagenes/cocinas/cocina7.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cocinas/cocina8.png</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>cocina8</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina8','Cocina Meditarrenea 2 fases','N/A','Desde $5.500.000','Imagenes/cocinas/cocina8.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N28" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B29" t="s">
+        <v>440</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cocinas/cocina9.png</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>cocina9</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina9','Cocina Natural con isla','N/A','Desde $4.500.000','Imagenes/cocinas/cocina9.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B30" t="s">
+        <v>449</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cocinas/cocina10.png</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>cocina10</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina10','Cocina Artiko en L','N/A','Desde $7.500.000','Imagenes/cocinas/cocina10.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N30" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B31" t="s">
+        <v>442</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="K31" t="str">
+        <f>$H$19&amp;$H$21&amp;I31&amp;$J$21</f>
+        <v>Imagenes/cocinas/cocina11.png</v>
+      </c>
+      <c r="L31" t="str">
+        <f>+$H$21&amp;I31</f>
+        <v>cocina11</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina11','Cocina 90´s Madera','N/A','Desde $7.500.000','Imagenes/cocinas/cocina11.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B32" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="K32" t="str">
+        <f>$H$19&amp;$H$21&amp;I32&amp;$J$21</f>
+        <v>Imagenes/cocinas/cocina12.png</v>
+      </c>
+      <c r="L32" t="str">
+        <f>+$H$21&amp;I32</f>
+        <v>cocina12</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina12','Cocina Cobrizo con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina12.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B33" t="s">
+        <v>443</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I33">
+        <v>13</v>
+      </c>
+      <c r="K33" t="str">
+        <f>$H$19&amp;$H$21&amp;I33&amp;$J$21</f>
+        <v>Imagenes/cocinas/cocina13.png</v>
+      </c>
+      <c r="L33" t="str">
+        <f>+$H$21&amp;I33</f>
+        <v>cocina13</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina13','Cocina Vintage con bar','N/A','Desde $6.000.000','Imagenes/cocinas/cocina13.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B34" t="s">
+        <v>451</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+      <c r="K34" t="str">
+        <f>$H$19&amp;$H$21&amp;I34&amp;$J$21</f>
+        <v>Imagenes/cocinas/cocina14.png</v>
+      </c>
+      <c r="L34" t="str">
+        <f>+$H$21&amp;I34</f>
+        <v>cocina14</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina14','Cocina Basic muebles inferior','N/A','Desde $4.000.000','Imagenes/cocinas/cocina14.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N34" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>436</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+      <c r="K35" t="str">
+        <f>$H$19&amp;$H$21&amp;I35&amp;$J$21</f>
+        <v>Imagenes/cocinas/cocina15.png</v>
+      </c>
+      <c r="L35" t="str">
+        <f>+$H$21&amp;I35</f>
+        <v>cocina15</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina15','Cocina Duna con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina15.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="K37" t="str">
+        <f>+$H$21&amp;I21</f>
+        <v>cocina1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="K38" t="str">
+        <f t="shared" ref="K38:K51" si="3">+$H$21&amp;I22</f>
+        <v>cocina2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="K39" t="str">
+        <f t="shared" si="3"/>
+        <v>cocina3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="K40" t="str">
+        <f t="shared" si="3"/>
+        <v>cocina4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="K41" t="str">
+        <f t="shared" si="3"/>
+        <v>cocina5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="3"/>
+        <v>cocina6</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="K43" t="str">
+        <f t="shared" si="3"/>
+        <v>cocina7</v>
+      </c>
+      <c r="L43" t="str">
+        <f>+F42&amp;G42&amp;H42&amp;I42&amp;J42&amp;K42&amp;L42</f>
+        <v>BeigeAzulWengueGrisCaobacocina6Plata</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="K44" t="str">
+        <f t="shared" si="3"/>
+        <v>cocina8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+      <c r="K45" t="str">
+        <f t="shared" si="3"/>
+        <v>cocina9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K46" t="str">
+        <f t="shared" si="3"/>
+        <v>cocina10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K47" t="str">
+        <f t="shared" si="3"/>
+        <v>cocina11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K48" t="str">
+        <f t="shared" si="3"/>
+        <v>cocina12</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" t="str">
+        <f t="shared" si="3"/>
+        <v>cocina13</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" t="str">
+        <f t="shared" si="3"/>
+        <v>cocina14</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" t="str">
+        <f t="shared" si="3"/>
+        <v>cocina15</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Query Base de datos.xlsx
+++ b/Query Base de datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\unificacion_proyecto_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93139F67-D0BF-4BA5-B7D7-449B83F160F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B673C1F-A24B-4113-B1C8-797F6F1CAB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{2A26BEC3-3C8D-473A-BF84-89C24DF24433}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{2A26BEC3-3C8D-473A-BF84-89C24DF24433}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Query_comedores" sheetId="4" r:id="rId3"/>
     <sheet name="Query_alcobas" sheetId="5" r:id="rId4"/>
     <sheet name="Query_cocinas" sheetId="6" r:id="rId5"/>
+    <sheet name="Query_estudios" sheetId="7" r:id="rId6"/>
+    <sheet name="Query_bibliotecas" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="641">
   <si>
     <t>Codigo_producto</t>
   </si>
@@ -1299,9 +1301,6 @@
     <t>colores SET (' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ') NOT NULL,</t>
   </si>
   <si>
-    <t xml:space="preserve"> Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' </t>
-  </si>
-  <si>
     <t>Imagenes/cocinas/</t>
   </si>
   <si>
@@ -1471,6 +1470,501 @@
   </si>
   <si>
     <t>INSERT INTO cocinas (codigo, nombre, descripcion, precio, url_imagen, colores, materiales)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natural , Wengue , Caoba ,  Diferentes estilos prediseñados</t>
+  </si>
+  <si>
+    <t>('cocina1','Cocina basic beige en L dos mubles','N/A','Desde $ 4.500.000','Imagenes/cocinas/cocina1.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>('cocina2','Cocina Nevada en L','N/A','Desde $ 6.500.000','Imagenes/cocinas/cocina2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>('cocina3','Cocina sombra con isla comedor','N/A','Desde $5.500.000','Imagenes/cocinas/cocina3.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>('cocina4','Cocina minimalista white 2 fases','N/A','Desde $6.500.000','Imagenes/cocinas/cocina4.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>('cocina5','Cocina Basic white','N/A','Desde $4.500.000','Imagenes/cocinas/cocina5.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>('cocina6','Cocina Celeste clasica','N/A','Desde $4.000.000','Imagenes/cocinas/cocina6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>('cocina7','Cocina Volcanica 2 fases','N/A','Desde $7.000.000','Imagenes/cocinas/cocina7.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>('cocina8','Cocina Meditarrenea 2 fases','N/A','Desde $5.500.000','Imagenes/cocinas/cocina8.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>('cocina9','Cocina Natural con isla','N/A','Desde $4.500.000','Imagenes/cocinas/cocina9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>('cocina10','Cocina Artiko en L','N/A','Desde $7.500.000','Imagenes/cocinas/cocina10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>('cocina11','Cocina 90´s Madera','N/A','Desde $7.500.000','Imagenes/cocinas/cocina11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>('cocina12','Cocina Cobrizo con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina12.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>('cocina13','Cocina Vintage con bar','N/A','Desde $6.000.000','Imagenes/cocinas/cocina13.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>('cocina14','Cocina Basic muebles inferior','N/A','Desde $4.000.000','Imagenes/cocinas/cocina14.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>('cocina15','Cocina Duna con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina15.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/</t>
+  </si>
+  <si>
+    <t>estudio</t>
+  </si>
+  <si>
+    <t>estudio1</t>
+  </si>
+  <si>
+    <t>estudio2</t>
+  </si>
+  <si>
+    <t>estudio3</t>
+  </si>
+  <si>
+    <t>estudio4</t>
+  </si>
+  <si>
+    <t>estudio5</t>
+  </si>
+  <si>
+    <t>estudio6</t>
+  </si>
+  <si>
+    <t>estudio7</t>
+  </si>
+  <si>
+    <t>estudio8</t>
+  </si>
+  <si>
+    <t>estudio9</t>
+  </si>
+  <si>
+    <t>estudio10</t>
+  </si>
+  <si>
+    <t>estudio11</t>
+  </si>
+  <si>
+    <t>estudio12</t>
+  </si>
+  <si>
+    <t>estudio13</t>
+  </si>
+  <si>
+    <t>estudio14</t>
+  </si>
+  <si>
+    <t>estudio15</t>
+  </si>
+  <si>
+    <t>Escritorio Caoba ejecutivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madera , MDF </t>
+  </si>
+  <si>
+    <t>materiales SET (' Madera ',' MDF ') NOT NULL</t>
+  </si>
+  <si>
+    <t>CREATE TABLE cuartos_estudios (</t>
+  </si>
+  <si>
+    <t>INSERT INTO cuartos_estudios (codigo, nombre, descripcion, precio, url_imagen, colores, materiales)</t>
+  </si>
+  <si>
+    <t>Desde $ 2.000.000</t>
+  </si>
+  <si>
+    <t>Escritorio empotrado y mueble superior Alaska</t>
+  </si>
+  <si>
+    <t>Desde $ 3.500.000</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio1.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio2.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio3.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio4.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio5.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio6.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio7.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio8.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio9.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio10.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio11.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio12.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio13.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio14.png</t>
+  </si>
+  <si>
+    <t>Imagenes/cuartos_de_estudio/estudio15.png</t>
+  </si>
+  <si>
+    <t>Escritorio y silla Fresno Sencillo</t>
+  </si>
+  <si>
+    <t>Escritorio Ejecutivo Obsidiana y muebles auxiliar</t>
+  </si>
+  <si>
+    <t>Desde $ 3.700.000</t>
+  </si>
+  <si>
+    <t>Desde $ 3.900.000</t>
+  </si>
+  <si>
+    <t>Escritorio Basic lineal Abedul</t>
+  </si>
+  <si>
+    <t>Escritorio y estanteria Spring Basic</t>
+  </si>
+  <si>
+    <t>Desde $ 3.800.000</t>
+  </si>
+  <si>
+    <t>Desde $ 3.200.000</t>
+  </si>
+  <si>
+    <t>Desde $ 1.500.000</t>
+  </si>
+  <si>
+    <t>Escritorio lineal Roble claro</t>
+  </si>
+  <si>
+    <t>Escritorio lineal White flotante</t>
+  </si>
+  <si>
+    <t>Escritorio sencillo Vintage</t>
+  </si>
+  <si>
+    <t>Desde $ 1.300.000</t>
+  </si>
+  <si>
+    <t>Desde $ 1.800.000</t>
+  </si>
+  <si>
+    <t>Escritorio y silla Industry Roble Rojo</t>
+  </si>
+  <si>
+    <t>Escritorio double Ceniza</t>
+  </si>
+  <si>
+    <t>Desde $ 2.100.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escritorio Mediterraneo </t>
+  </si>
+  <si>
+    <t>Escritorio small float</t>
+  </si>
+  <si>
+    <t>Desde $ 1.000.000</t>
+  </si>
+  <si>
+    <t>Escritorio y biblioteca individual bone</t>
+  </si>
+  <si>
+    <t>Desde $ 2.400.000</t>
+  </si>
+  <si>
+    <t>Escritorio double ejecutivo Jatoba</t>
+  </si>
+  <si>
+    <t>Desde $ 4.700.000</t>
+  </si>
+  <si>
+    <t>('estudio1','Escritorio Caoba ejecutivo','N/A','Desde $ 2.000.000','Imagenes/cuartos_de_estudio/estudio1.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('estudio2','Escritorio empotrado y mueble superior Alaska','N/A','Desde $ 3.500.000','Imagenes/cuartos_de_estudio/estudio2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('estudio3','Escritorio y silla Fresno Sencillo','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio3.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('estudio4','Escritorio Ejecutivo Obsidiana y muebles auxiliar','N/A','Desde $ 3.900.000','Imagenes/cuartos_de_estudio/estudio4.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('estudio5','Escritorio Basic lineal Abedul','N/A','Desde $ 3.200.000','Imagenes/cuartos_de_estudio/estudio5.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('estudio6','Escritorio y estanteria Spring Basic','N/A','Desde $ 3.800.000','Imagenes/cuartos_de_estudio/estudio6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('estudio7','Escritorio lineal Roble claro','N/A','Desde $ 1.800.000','Imagenes/cuartos_de_estudio/estudio7.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('estudio8','Escritorio lineal White flotante','N/A','Desde $ 1.300.000','Imagenes/cuartos_de_estudio/estudio8.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('estudio9','Escritorio sencillo Vintage','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('estudio10','Escritorio y silla Industry Roble Rojo','N/A','Desde $ 2.100.000','Imagenes/cuartos_de_estudio/estudio10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('estudio11','Escritorio double Ceniza','N/A','Desde $ 4.500.000','Imagenes/cuartos_de_estudio/estudio11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('estudio12','Escritorio Mediterraneo ','N/A','Desde $ 3.500.000','Imagenes/cuartos_de_estudio/estudio12.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('estudio13','Escritorio small float','N/A','Desde $ 1.000.000','Imagenes/cuartos_de_estudio/estudio13.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('estudio14','Escritorio y biblioteca individual bone','N/A','Desde $ 2.400.000','Imagenes/cuartos_de_estudio/estudio14.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('estudio15','Escritorio double ejecutivo Jatoba','N/A','Desde $ 4.700.000','Imagenes/cuartos_de_estudio/estudio15.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>biblioteca</t>
+  </si>
+  <si>
+    <t>biblioteca1</t>
+  </si>
+  <si>
+    <t>biblioteca2</t>
+  </si>
+  <si>
+    <t>biblioteca3</t>
+  </si>
+  <si>
+    <t>biblioteca4</t>
+  </si>
+  <si>
+    <t>biblioteca5</t>
+  </si>
+  <si>
+    <t>biblioteca6</t>
+  </si>
+  <si>
+    <t>biblioteca7</t>
+  </si>
+  <si>
+    <t>biblioteca8</t>
+  </si>
+  <si>
+    <t>biblioteca9</t>
+  </si>
+  <si>
+    <t>biblioteca10</t>
+  </si>
+  <si>
+    <t>biblioteca11</t>
+  </si>
+  <si>
+    <t>biblioteca12</t>
+  </si>
+  <si>
+    <t>biblioteca13</t>
+  </si>
+  <si>
+    <t>biblioteca14</t>
+  </si>
+  <si>
+    <t>biblioteca15</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/</t>
+  </si>
+  <si>
+    <t>CREATE TABLE bibliotecas (</t>
+  </si>
+  <si>
+    <t>INSERT INTO bibliotecas (codigo, nombre, descripcion, precio, url_imagen, colores, materiales)</t>
+  </si>
+  <si>
+    <t>Biblioteca espiral white</t>
+  </si>
+  <si>
+    <t>Biblioteca Ceniza Basic</t>
+  </si>
+  <si>
+    <t>Biblioteca en L pino flotante</t>
+  </si>
+  <si>
+    <t>Biblioteca Obsidina ejecutiva</t>
+  </si>
+  <si>
+    <t>Desde $ 5.200.000</t>
+  </si>
+  <si>
+    <t>Biblioteca clasic beige</t>
+  </si>
+  <si>
+    <t>Desde $ 2.800.000</t>
+  </si>
+  <si>
+    <t>Biblioteca Cerezo a la medida</t>
+  </si>
+  <si>
+    <t>Desde $ 6.700.000</t>
+  </si>
+  <si>
+    <t>Biblioteca Nogal dos partes L</t>
+  </si>
+  <si>
+    <t>Biblioteca Alaska</t>
+  </si>
+  <si>
+    <t>Desde $ 4.100.000</t>
+  </si>
+  <si>
+    <t>Biblioteca Burgues Clasic</t>
+  </si>
+  <si>
+    <t>Biblioteca Rustic clasic</t>
+  </si>
+  <si>
+    <t>Desde $ 3.100.000</t>
+  </si>
+  <si>
+    <t>Bibloteca a medida en L flotante Fresno</t>
+  </si>
+  <si>
+    <t>Bibloteca Ice contemporanea a la medida</t>
+  </si>
+  <si>
+    <t>Biblioteca circular Olivo</t>
+  </si>
+  <si>
+    <t>Desde $ 5.700.000</t>
+  </si>
+  <si>
+    <t>Biblioteca Space gray</t>
+  </si>
+  <si>
+    <t>Desde $ 4.400.000</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca1.png</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca2.png</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca3.png</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca4.png</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca5.png</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca6.png</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca7.png</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca8.png</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca9.png</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca10.png</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca11.png</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca12.png</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca13.png</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca14.png</t>
+  </si>
+  <si>
+    <t>Imagenes/bibliotecas/biblioteca15.png</t>
+  </si>
+  <si>
+    <t>('biblioteca1','Biblioteca espiral white','N/A','Desde $ 4.700.000','Imagenes/bibliotecas/biblioteca1.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('biblioteca2','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('biblioteca3','Biblioteca en L pino flotante','N/A','Desde $ 4.500.000','Imagenes/bibliotecas/biblioteca3.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('biblioteca4','Biblioteca Obsidina ejecutiva','N/A','Desde $ 5.200.000','Imagenes/bibliotecas/biblioteca4.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('biblioteca5','Biblioteca clasic beige','N/A','Desde $ 2.800.000','Imagenes/bibliotecas/biblioteca5.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('biblioteca6','Biblioteca Cerezo a la medida','N/A','Desde $ 6.700.000','Imagenes/bibliotecas/biblioteca6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('biblioteca7','Biblioteca Nogal dos partes L','N/A','Desde $ 2.100.000','Imagenes/bibliotecas/biblioteca7.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('biblioteca8','Biblioteca Alaska','N/A','Desde $ 3.900.000','Imagenes/bibliotecas/biblioteca8.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('biblioteca9','Biblioteca Burgues Clasic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('biblioteca10','Biblioteca Rustic clasic','N/A','Desde $ 3.100.000','Imagenes/bibliotecas/biblioteca10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('biblioteca11','Bibloteca a medida en L flotante Fresno','N/A','Desde $ 3.500.000','Imagenes/bibliotecas/biblioteca11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('biblioteca12','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca12.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('biblioteca13','Bibloteca Ice contemporanea a la medida','N/A','Desde $ 4.100.000','Imagenes/bibliotecas/biblioteca13.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('biblioteca14','Biblioteca Space gray','N/A','Desde $ 4.400.000','Imagenes/bibliotecas/biblioteca14.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>('biblioteca15','Biblioteca circular Olivo','N/A','Desde $ 5.700.000','Imagenes/bibliotecas/biblioteca15.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +2018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1534,7 +2028,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5245,14 +5738,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC58163A-2559-4EE5-A9EC-0003788318F2}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5399,7 +5894,7 @@
         <v>Imagenes/alcobas/alcobas1.png</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" ref="L21:M30" si="0">+$H$21&amp;I21</f>
+        <f t="shared" ref="L21:L30" si="0">+$H$21&amp;I21</f>
         <v>alcobas1</v>
       </c>
       <c r="M21" t="str">
@@ -5444,7 +5939,7 @@
         <v>alcobas2</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
+        <f t="shared" ref="M22:M35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
         <v>('alcobas2','Juego alcoba Brooklyn','N/A','$ 2.990.000','Imagenes/alcobas/alcobas2.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
       </c>
       <c r="N22" t="s">
@@ -6234,8 +6729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D2AFDE-052B-4313-BBBF-C2DEBDB7D439}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21:N35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6243,7 +6738,10 @@
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6308,7 +6806,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -6318,7 +6816,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>220</v>
@@ -6355,28 +6853,28 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>417</v>
       </c>
       <c r="H21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -6394,30 +6892,30 @@
       </c>
       <c r="M21" t="str">
         <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
-        <v>('cocina1','Cocina basic beige en L dos mubles','N/A','Desde $ 4.500.000','Imagenes/cocinas/cocina1.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina1','Cocina basic beige en L dos mubles','N/A','Desde $ 4.500.000','Imagenes/cocinas/cocina1.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N21" t="s">
-        <v>395</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>417</v>
@@ -6434,31 +6932,31 @@
         <v>cocina2</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f t="shared" ref="M22:M35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
-        <v>('cocina2','Cocina Nevada en L','N/A','Desde $ 6.500.000','Imagenes/cocinas/cocina2.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
+        <v>('cocina2','Cocina Nevada en L','N/A','Desde $ 6.500.000','Imagenes/cocinas/cocina2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N22" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>417</v>
@@ -6476,30 +6974,30 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina3','Cocina sombra con isla comedor','N/A','Desde $5.500.000','Imagenes/cocinas/cocina3.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina3','Cocina sombra con isla comedor','N/A','Desde $5.500.000','Imagenes/cocinas/cocina3.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N23" t="s">
-        <v>397</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>417</v>
@@ -6517,30 +7015,30 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina4','Cocina minimalista white 2 fases','N/A','Desde $6.500.000','Imagenes/cocinas/cocina4.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina4','Cocina minimalista white 2 fases','N/A','Desde $6.500.000','Imagenes/cocinas/cocina4.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N24" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>417</v>
@@ -6558,30 +7056,30 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina5','Cocina Basic white','N/A','Desde $4.500.000','Imagenes/cocinas/cocina5.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina5','Cocina Basic white','N/A','Desde $4.500.000','Imagenes/cocinas/cocina5.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N25" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>417</v>
@@ -6599,30 +7097,30 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina6','Cocina Celeste clasica','N/A','Desde $4.000.000','Imagenes/cocinas/cocina6.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina6','Cocina Celeste clasica','N/A','Desde $4.000.000','Imagenes/cocinas/cocina6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N26" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>438</v>
+        <v>427</v>
+      </c>
+      <c r="B27" t="s">
+        <v>437</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>417</v>
@@ -6640,30 +7138,30 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina7','Cocina Volcanica 2 fases','N/A','Desde $7.000.000','Imagenes/cocinas/cocina7.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina7','Cocina Volcanica 2 fases','N/A','Desde $7.000.000','Imagenes/cocinas/cocina7.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N27" t="s">
-        <v>401</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>439</v>
+        <v>428</v>
+      </c>
+      <c r="B28" t="s">
+        <v>438</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>417</v>
@@ -6681,30 +7179,30 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina8','Cocina Meditarrenea 2 fases','N/A','Desde $5.500.000','Imagenes/cocinas/cocina8.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina8','Cocina Meditarrenea 2 fases','N/A','Desde $5.500.000','Imagenes/cocinas/cocina8.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N28" t="s">
-        <v>402</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>417</v>
@@ -6722,30 +7220,30 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina9','Cocina Natural con isla','N/A','Desde $4.500.000','Imagenes/cocinas/cocina9.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina9','Cocina Natural con isla','N/A','Desde $4.500.000','Imagenes/cocinas/cocina9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N29" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>417</v>
@@ -6763,30 +7261,30 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina10','Cocina Artiko en L','N/A','Desde $7.500.000','Imagenes/cocinas/cocina10.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina10','Cocina Artiko en L','N/A','Desde $7.500.000','Imagenes/cocinas/cocina10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N30" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>417</v>
@@ -6804,30 +7302,30 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina11','Cocina 90´s Madera','N/A','Desde $7.500.000','Imagenes/cocinas/cocina11.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina11','Cocina 90´s Madera','N/A','Desde $7.500.000','Imagenes/cocinas/cocina11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N31" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>417</v>
@@ -6845,30 +7343,30 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina12','Cocina Cobrizo con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina12.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina12','Cocina Cobrizo con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina12.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N32" t="s">
-        <v>406</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>417</v>
@@ -6886,30 +7384,30 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina13','Cocina Vintage con bar','N/A','Desde $6.000.000','Imagenes/cocinas/cocina13.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina13','Cocina Vintage con bar','N/A','Desde $6.000.000','Imagenes/cocinas/cocina13.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N33" t="s">
-        <v>407</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B34" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>417</v>
@@ -6927,30 +7425,30 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina14','Cocina Basic muebles inferior','N/A','Desde $4.000.000','Imagenes/cocinas/cocina14.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina14','Cocina Basic muebles inferior','N/A','Desde $4.000.000','Imagenes/cocinas/cocina14.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N34" t="s">
-        <v>408</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>436</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>444</v>
+        <v>435</v>
+      </c>
+      <c r="B35" t="s">
+        <v>443</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>417</v>
@@ -6967,11 +7465,11 @@
         <v>cocina15</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="2"/>
-        <v>('cocina15','Cocina Duna con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina15.png',' Natural ',' Wengue ',' Caoba ', ' Diferentes estilos prediseñados ' ',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <f>+"('"&amp;A35&amp;"'"&amp;$L$20&amp;"'"&amp;B35&amp;"'"&amp;$L$20&amp;"'"&amp;C35&amp;"'"&amp;$L$20&amp;"'"&amp;D35&amp;"'"&amp;$L$20&amp;"'"&amp;E35&amp;"'"&amp;$L$20&amp;"'"&amp;F35&amp;"'"&amp;$L$20&amp;"'"&amp;G35&amp;"'),"</f>
+        <v>('cocina15','Cocina Duna con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina15.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N35" t="s">
-        <v>409</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -6995,6 +7493,9 @@
         <f>+$H$21&amp;I21</f>
         <v>cocina1</v>
       </c>
+      <c r="N37" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7218,4 +7719,1996 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC5B581-CCAF-4916-A022-714B3B4B516D}">
+  <dimension ref="A1:N104"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>492</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B21" t="s">
+        <v>509</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H21" t="s">
+        <v>493</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" t="str">
+        <f>$H$19&amp;$H$21&amp;I21&amp;$J$21</f>
+        <v>Imagenes/cuartos_de_estudio/estudio1.png</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:L30" si="0">+$H$21&amp;I21</f>
+        <v>estudio1</v>
+      </c>
+      <c r="M21" t="str">
+        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
+        <v>('estudio1','Escritorio Caoba ejecutivo','N/A','Desde $ 2.000.000','Imagenes/cuartos_de_estudio/estudio1.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N21" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B22" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ref="K22:K30" si="1">$H$19&amp;$H$21&amp;I22&amp;$J$21</f>
+        <v>Imagenes/cuartos_de_estudio/estudio2.png</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>estudio2</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
+        <v>('estudio2','Escritorio empotrado y mueble superior Alaska','N/A','Desde $ 3.500.000','Imagenes/cuartos_de_estudio/estudio2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N22" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B23" t="s">
+        <v>532</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cuartos_de_estudio/estudio3.png</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>estudio3</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>('estudio3','Escritorio y silla Fresno Sencillo','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio3.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N23" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B24" t="s">
+        <v>533</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cuartos_de_estudio/estudio4.png</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>estudio4</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>('estudio4','Escritorio Ejecutivo Obsidiana y muebles auxiliar','N/A','Desde $ 3.900.000','Imagenes/cuartos_de_estudio/estudio4.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N24" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B25" t="s">
+        <v>536</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cuartos_de_estudio/estudio5.png</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>estudio5</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>('estudio5','Escritorio Basic lineal Abedul','N/A','Desde $ 3.200.000','Imagenes/cuartos_de_estudio/estudio5.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N25" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B26" t="s">
+        <v>537</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cuartos_de_estudio/estudio6.png</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>estudio6</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>('estudio6','Escritorio y estanteria Spring Basic','N/A','Desde $ 3.800.000','Imagenes/cuartos_de_estudio/estudio6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N26" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B27" t="s">
+        <v>541</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cuartos_de_estudio/estudio7.png</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>estudio7</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>('estudio7','Escritorio lineal Roble claro','N/A','Desde $ 1.800.000','Imagenes/cuartos_de_estudio/estudio7.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B28" t="s">
+        <v>542</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cuartos_de_estudio/estudio8.png</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>estudio8</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>('estudio8','Escritorio lineal White flotante','N/A','Desde $ 1.300.000','Imagenes/cuartos_de_estudio/estudio8.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B29" t="s">
+        <v>543</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cuartos_de_estudio/estudio9.png</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>estudio9</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>('estudio9','Escritorio sencillo Vintage','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N29" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B30" t="s">
+        <v>546</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/cuartos_de_estudio/estudio10.png</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>estudio10</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>('estudio10','Escritorio y silla Industry Roble Rojo','N/A','Desde $ 2.100.000','Imagenes/cuartos_de_estudio/estudio10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N30" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B31" t="s">
+        <v>547</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="K31" t="str">
+        <f>$H$19&amp;$H$21&amp;I31&amp;$J$21</f>
+        <v>Imagenes/cuartos_de_estudio/estudio11.png</v>
+      </c>
+      <c r="L31" t="str">
+        <f>+$H$21&amp;I31</f>
+        <v>estudio11</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>('estudio11','Escritorio double Ceniza','N/A','Desde $ 4.500.000','Imagenes/cuartos_de_estudio/estudio11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N31" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B32" t="s">
+        <v>549</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="K32" t="str">
+        <f>$H$19&amp;$H$21&amp;I32&amp;$J$21</f>
+        <v>Imagenes/cuartos_de_estudio/estudio12.png</v>
+      </c>
+      <c r="L32" t="str">
+        <f>+$H$21&amp;I32</f>
+        <v>estudio12</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>('estudio12','Escritorio Mediterraneo ','N/A','Desde $ 3.500.000','Imagenes/cuartos_de_estudio/estudio12.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N32" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B33" t="s">
+        <v>550</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I33">
+        <v>13</v>
+      </c>
+      <c r="K33" t="str">
+        <f>$H$19&amp;$H$21&amp;I33&amp;$J$21</f>
+        <v>Imagenes/cuartos_de_estudio/estudio13.png</v>
+      </c>
+      <c r="L33" t="str">
+        <f>+$H$21&amp;I33</f>
+        <v>estudio13</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>('estudio13','Escritorio small float','N/A','Desde $ 1.000.000','Imagenes/cuartos_de_estudio/estudio13.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N33" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B34" t="s">
+        <v>552</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+      <c r="K34" t="str">
+        <f>$H$19&amp;$H$21&amp;I34&amp;$J$21</f>
+        <v>Imagenes/cuartos_de_estudio/estudio14.png</v>
+      </c>
+      <c r="L34" t="str">
+        <f>+$H$21&amp;I34</f>
+        <v>estudio14</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>('estudio14','Escritorio y biblioteca individual bone','N/A','Desde $ 2.400.000','Imagenes/cuartos_de_estudio/estudio14.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N34" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>508</v>
+      </c>
+      <c r="B35" t="s">
+        <v>554</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+      <c r="K35" t="str">
+        <f>$H$19&amp;$H$21&amp;I35&amp;$J$21</f>
+        <v>Imagenes/cuartos_de_estudio/estudio15.png</v>
+      </c>
+      <c r="L35" t="str">
+        <f>+$H$21&amp;I35</f>
+        <v>estudio15</v>
+      </c>
+      <c r="M35" t="str">
+        <f>+"('"&amp;A35&amp;"'"&amp;$L$20&amp;"'"&amp;B35&amp;"'"&amp;$L$20&amp;"'"&amp;C35&amp;"'"&amp;$L$20&amp;"'"&amp;D35&amp;"'"&amp;$L$20&amp;"'"&amp;E35&amp;"'"&amp;$L$20&amp;"'"&amp;F35&amp;"'"&amp;$L$20&amp;"'"&amp;G35&amp;"'),"</f>
+        <v>('estudio15','Escritorio double ejecutivo Jatoba','N/A','Desde $ 4.700.000','Imagenes/cuartos_de_estudio/estudio15.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N35" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="K37" t="str">
+        <f>+$H$21&amp;I21</f>
+        <v>estudio1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="K38" t="str">
+        <f t="shared" ref="K38:K51" si="3">+$H$21&amp;I22</f>
+        <v>estudio2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="K39" t="str">
+        <f t="shared" si="3"/>
+        <v>estudio3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="K40" t="str">
+        <f t="shared" si="3"/>
+        <v>estudio4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="K41" t="str">
+        <f t="shared" si="3"/>
+        <v>estudio5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="3"/>
+        <v>estudio6</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="K43" t="str">
+        <f t="shared" si="3"/>
+        <v>estudio7</v>
+      </c>
+      <c r="L43" t="str">
+        <f>+F42&amp;G42&amp;H42&amp;I42&amp;J42&amp;K42&amp;L42</f>
+        <v>BeigeAzulWengueGrisCaobaestudio6Plata</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="K44" t="str">
+        <f t="shared" si="3"/>
+        <v>estudio8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+      <c r="K45" t="str">
+        <f t="shared" si="3"/>
+        <v>estudio9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K46" t="str">
+        <f t="shared" si="3"/>
+        <v>estudio10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K47" t="str">
+        <f t="shared" si="3"/>
+        <v>estudio11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K48" t="str">
+        <f t="shared" si="3"/>
+        <v>estudio12</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" t="str">
+        <f t="shared" si="3"/>
+        <v>estudio13</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" t="str">
+        <f t="shared" si="3"/>
+        <v>estudio14</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" t="str">
+        <f t="shared" si="3"/>
+        <v>estudio15</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DDB6CC-EF93-4C6E-84C0-5A889DCC109D}">
+  <dimension ref="A1:N104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" customWidth="1"/>
+    <col min="6" max="6" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>587</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B21" t="s">
+        <v>590</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H21" t="s">
+        <v>571</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" t="str">
+        <f>$H$19&amp;$H$21&amp;I21&amp;$J$21</f>
+        <v>Imagenes/bibliotecas/biblioteca1.png</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:L30" si="0">+$H$21&amp;I21</f>
+        <v>biblioteca1</v>
+      </c>
+      <c r="M21" t="str">
+        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
+        <v>('biblioteca1','Biblioteca espiral white','N/A','Desde $ 4.700.000','Imagenes/bibliotecas/biblioteca1.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N21" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B22" t="s">
+        <v>591</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ref="K22:K30" si="1">$H$19&amp;$H$21&amp;I22&amp;$J$21</f>
+        <v>Imagenes/bibliotecas/biblioteca2.png</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca2</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
+        <v>('biblioteca2','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N22" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B23" t="s">
+        <v>592</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca3.png</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca3</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca3','Biblioteca en L pino flotante','N/A','Desde $ 4.500.000','Imagenes/bibliotecas/biblioteca3.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N23" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B24" t="s">
+        <v>593</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca4.png</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca4</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca4','Biblioteca Obsidina ejecutiva','N/A','Desde $ 5.200.000','Imagenes/bibliotecas/biblioteca4.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B25" t="s">
+        <v>595</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca5.png</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca5</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca5','Biblioteca clasic beige','N/A','Desde $ 2.800.000','Imagenes/bibliotecas/biblioteca5.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N25" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B26" t="s">
+        <v>597</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca6.png</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca6</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca6','Biblioteca Cerezo a la medida','N/A','Desde $ 6.700.000','Imagenes/bibliotecas/biblioteca6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N26" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B27" t="s">
+        <v>599</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca7.png</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca7</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca7','Biblioteca Nogal dos partes L','N/A','Desde $ 2.100.000','Imagenes/bibliotecas/biblioteca7.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N27" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B28" t="s">
+        <v>600</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca8.png</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca8</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca8','Biblioteca Alaska','N/A','Desde $ 3.900.000','Imagenes/bibliotecas/biblioteca8.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N28" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B29" t="s">
+        <v>602</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca9.png</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca9</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca9','Biblioteca Burgues Clasic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N29" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B30" t="s">
+        <v>603</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca10.png</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca10</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca10','Biblioteca Rustic clasic','N/A','Desde $ 3.100.000','Imagenes/bibliotecas/biblioteca10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N30" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B31" t="s">
+        <v>605</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="K31" t="str">
+        <f>$H$19&amp;$H$21&amp;I31&amp;$J$21</f>
+        <v>Imagenes/bibliotecas/biblioteca11.png</v>
+      </c>
+      <c r="L31" t="str">
+        <f>+$H$21&amp;I31</f>
+        <v>biblioteca11</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca11','Bibloteca a medida en L flotante Fresno','N/A','Desde $ 3.500.000','Imagenes/bibliotecas/biblioteca11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N31" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B32" t="s">
+        <v>591</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="K32" t="str">
+        <f>$H$19&amp;$H$21&amp;I32&amp;$J$21</f>
+        <v>Imagenes/bibliotecas/biblioteca12.png</v>
+      </c>
+      <c r="L32" t="str">
+        <f>+$H$21&amp;I32</f>
+        <v>biblioteca12</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca12','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca12.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N32" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B33" t="s">
+        <v>606</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I33">
+        <v>13</v>
+      </c>
+      <c r="K33" t="str">
+        <f>$H$19&amp;$H$21&amp;I33&amp;$J$21</f>
+        <v>Imagenes/bibliotecas/biblioteca13.png</v>
+      </c>
+      <c r="L33" t="str">
+        <f>+$H$21&amp;I33</f>
+        <v>biblioteca13</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca13','Bibloteca Ice contemporanea a la medida','N/A','Desde $ 4.100.000','Imagenes/bibliotecas/biblioteca13.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N33" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B34" t="s">
+        <v>609</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+      <c r="K34" t="str">
+        <f>$H$19&amp;$H$21&amp;I34&amp;$J$21</f>
+        <v>Imagenes/bibliotecas/biblioteca14.png</v>
+      </c>
+      <c r="L34" t="str">
+        <f>+$H$21&amp;I34</f>
+        <v>biblioteca14</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca14','Biblioteca Space gray','N/A','Desde $ 4.400.000','Imagenes/bibliotecas/biblioteca14.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N34" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>586</v>
+      </c>
+      <c r="B35" t="s">
+        <v>607</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+      <c r="K35" t="str">
+        <f>$H$19&amp;$H$21&amp;I35&amp;$J$21</f>
+        <v>Imagenes/bibliotecas/biblioteca15.png</v>
+      </c>
+      <c r="L35" t="str">
+        <f>+$H$21&amp;I35</f>
+        <v>biblioteca15</v>
+      </c>
+      <c r="M35" t="str">
+        <f>+"('"&amp;A35&amp;"'"&amp;$L$20&amp;"'"&amp;B35&amp;"'"&amp;$L$20&amp;"'"&amp;C35&amp;"'"&amp;$L$20&amp;"'"&amp;D35&amp;"'"&amp;$L$20&amp;"'"&amp;E35&amp;"'"&amp;$L$20&amp;"'"&amp;F35&amp;"'"&amp;$L$20&amp;"'"&amp;G35&amp;"'),"</f>
+        <v>('biblioteca15','Biblioteca circular Olivo','N/A','Desde $ 5.700.000','Imagenes/bibliotecas/biblioteca15.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N35" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="K37" t="str">
+        <f>+$H$21&amp;I21</f>
+        <v>biblioteca1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="K38" t="str">
+        <f t="shared" ref="K38:K51" si="3">+$H$21&amp;I22</f>
+        <v>biblioteca2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="K39" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="K40" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="K41" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca6</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="K43" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca7</v>
+      </c>
+      <c r="L43" t="str">
+        <f>+F42&amp;G42&amp;H42&amp;I42&amp;J42&amp;K42&amp;L42</f>
+        <v>BeigeAzulWengueGrisCaobabiblioteca6Plata</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="K44" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+      <c r="K45" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K46" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K47" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K48" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca12</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca13</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca14</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca15</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Query Base de datos.xlsx
+++ b/Query Base de datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\unificacion_proyecto_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B673C1F-A24B-4113-B1C8-797F6F1CAB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02592D85-6DA2-4A95-A66D-0E7FA8783BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{2A26BEC3-3C8D-473A-BF84-89C24DF24433}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{2A26BEC3-3C8D-473A-BF84-89C24DF24433}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Query_cocinas" sheetId="6" r:id="rId5"/>
     <sheet name="Query_estudios" sheetId="7" r:id="rId6"/>
     <sheet name="Query_bibliotecas" sheetId="8" r:id="rId7"/>
+    <sheet name="Query_Alta_carpinteria" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="643">
   <si>
     <t>Codigo_producto</t>
   </si>
@@ -1965,6 +1966,12 @@
   </si>
   <si>
     <t>('biblioteca15','Biblioteca circular Olivo','N/A','Desde $ 5.700.000','Imagenes/bibliotecas/biblioteca15.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
+  </si>
+  <si>
+    <t>CREATE TABLE alta_carpinteria (</t>
+  </si>
+  <si>
+    <t>INSERT INTO alta_carpinteria (codigo, nombre, descripcion, precio, url_imagen, colores, materiales)</t>
   </si>
 </sst>
 </file>
@@ -6730,7 +6737,7 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="A31" sqref="A31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6932,7 +6939,7 @@
         <v>cocina2</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
+        <f t="shared" ref="M22:M34" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
         <v>('cocina2','Cocina Nevada en L','N/A','Desde $ 6.500.000','Imagenes/cocinas/cocina2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
       </c>
       <c r="N22" t="s">
@@ -7725,8 +7732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC5B581-CCAF-4916-A022-714B3B4B516D}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7928,7 +7935,7 @@
         <v>estudio2</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
+        <f t="shared" ref="M22:M34" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
         <v>('estudio2','Escritorio empotrado y mueble superior Alaska','N/A','Desde $ 3.500.000','Imagenes/cuartos_de_estudio/estudio2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
       </c>
       <c r="N22" t="s">
@@ -8721,8 +8728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DDB6CC-EF93-4C6E-84C0-5A889DCC109D}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8924,7 +8931,7 @@
         <v>biblioteca2</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
+        <f t="shared" ref="M22:M34" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
         <v>('biblioteca2','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
       </c>
       <c r="N22" t="s">
@@ -9711,4 +9718,1000 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698C7D6-D365-46C9-A959-8B3DAC310AB3}">
+  <dimension ref="A1:N104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" customWidth="1"/>
+    <col min="6" max="6" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>587</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B21" t="s">
+        <v>597</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H21" t="s">
+        <v>571</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" t="str">
+        <f>$H$19&amp;$H$21&amp;I21&amp;$J$21</f>
+        <v>Imagenes/bibliotecas/biblioteca1.png</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:L30" si="0">+$H$21&amp;I21</f>
+        <v>biblioteca1</v>
+      </c>
+      <c r="M21" t="str">
+        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
+        <v>('biblioteca6','Biblioteca Cerezo a la medida','N/A','Desde $ 6.700.000','Imagenes/bibliotecas/biblioteca6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N21" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B22" t="s">
+        <v>543</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ref="K22:K30" si="1">$H$19&amp;$H$21&amp;I22&amp;$J$21</f>
+        <v>Imagenes/bibliotecas/biblioteca2.png</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca2</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" ref="M22:M34" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
+        <v>('estudio9','Escritorio sencillo Vintage','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N22" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B23" t="s">
+        <v>436</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca3.png</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca3</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina6','Cocina Celeste clasica','N/A','Desde $4.000.000','Imagenes/cocinas/cocina6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B24" t="s">
+        <v>602</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca4.png</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca4</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca9','Biblioteca Burgues Clasic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N24" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B25" t="s">
+        <v>590</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca5.png</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca5</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca1','Biblioteca espiral white','N/A','Desde $ 4.700.000','Imagenes/bibliotecas/biblioteca1.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N25" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B26" t="s">
+        <v>546</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca6.png</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca6</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>('estudio10','Escritorio y silla Industry Roble Rojo','N/A','Desde $ 2.100.000','Imagenes/cuartos_de_estudio/estudio10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N26" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B27" t="s">
+        <v>593</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca7.png</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca7</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca4','Biblioteca Obsidina ejecutiva','N/A','Desde $ 5.200.000','Imagenes/bibliotecas/biblioteca4.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N27" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B28" t="s">
+        <v>605</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca8.png</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca8</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca11','Bibloteca a medida en L flotante Fresno','N/A','Desde $ 3.500.000','Imagenes/bibliotecas/biblioteca11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N28" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B29" t="s">
+        <v>448</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca9.png</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca9</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina10','Cocina Artiko en L','N/A','Desde $7.500.000','Imagenes/cocinas/cocina10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N29" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B30" t="s">
+        <v>592</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>Imagenes/bibliotecas/biblioteca10.png</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>biblioteca10</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca3','Biblioteca en L pino flotante','N/A','Desde $ 4.500.000','Imagenes/bibliotecas/biblioteca3.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N30" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B31" t="s">
+        <v>609</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="K31" t="str">
+        <f>$H$19&amp;$H$21&amp;I31&amp;$J$21</f>
+        <v>Imagenes/bibliotecas/biblioteca11.png</v>
+      </c>
+      <c r="L31" t="str">
+        <f>+$H$21&amp;I31</f>
+        <v>biblioteca11</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca14','Biblioteca Space gray','N/A','Desde $ 4.400.000','Imagenes/bibliotecas/biblioteca14.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N31" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B32" t="s">
+        <v>591</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="K32" t="str">
+        <f>$H$19&amp;$H$21&amp;I32&amp;$J$21</f>
+        <v>Imagenes/bibliotecas/biblioteca12.png</v>
+      </c>
+      <c r="L32" t="str">
+        <f>+$H$21&amp;I32</f>
+        <v>biblioteca12</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca2','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N32" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B33" t="s">
+        <v>600</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I33">
+        <v>13</v>
+      </c>
+      <c r="K33" t="str">
+        <f>$H$19&amp;$H$21&amp;I33&amp;$J$21</f>
+        <v>Imagenes/bibliotecas/biblioteca13.png</v>
+      </c>
+      <c r="L33" t="str">
+        <f>+$H$21&amp;I33</f>
+        <v>biblioteca13</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>('biblioteca8','Biblioteca Alaska','N/A','Desde $ 3.900.000','Imagenes/bibliotecas/biblioteca8.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N33" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B34" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+      <c r="K34" t="str">
+        <f>$H$19&amp;$H$21&amp;I34&amp;$J$21</f>
+        <v>Imagenes/bibliotecas/biblioteca14.png</v>
+      </c>
+      <c r="L34" t="str">
+        <f>+$H$21&amp;I34</f>
+        <v>biblioteca14</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>('cocina11','Cocina 90´s Madera','N/A','Desde $7.500.000','Imagenes/cocinas/cocina11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      </c>
+      <c r="N34" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B35" t="s">
+        <v>547</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+      <c r="K35" t="str">
+        <f>$H$19&amp;$H$21&amp;I35&amp;$J$21</f>
+        <v>Imagenes/bibliotecas/biblioteca15.png</v>
+      </c>
+      <c r="L35" t="str">
+        <f>+$H$21&amp;I35</f>
+        <v>biblioteca15</v>
+      </c>
+      <c r="M35" t="str">
+        <f>+"('"&amp;A35&amp;"'"&amp;$L$20&amp;"'"&amp;B35&amp;"'"&amp;$L$20&amp;"'"&amp;C35&amp;"'"&amp;$L$20&amp;"'"&amp;D35&amp;"'"&amp;$L$20&amp;"'"&amp;E35&amp;"'"&amp;$L$20&amp;"'"&amp;F35&amp;"'"&amp;$L$20&amp;"'"&amp;G35&amp;"'),"</f>
+        <v>('estudio11','Escritorio double Ceniza','N/A','Desde $ 4.500.000','Imagenes/cuartos_de_estudio/estudio11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      </c>
+      <c r="N35" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="K37" t="str">
+        <f>+$H$21&amp;I21</f>
+        <v>biblioteca1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="K38" t="str">
+        <f t="shared" ref="K38:K51" si="3">+$H$21&amp;I22</f>
+        <v>biblioteca2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="K39" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="K40" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="K41" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca6</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="K43" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca7</v>
+      </c>
+      <c r="L43" t="str">
+        <f>+F42&amp;G42&amp;H42&amp;I42&amp;J42&amp;K42&amp;L42</f>
+        <v>BeigeAzulWengueGrisCaobabiblioteca6Plata</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="K44" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+      <c r="K45" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K46" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K47" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K48" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca12</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca13</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca14</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" t="str">
+        <f t="shared" si="3"/>
+        <v>biblioteca15</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Query Base de datos.xlsx
+++ b/Query Base de datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\unificacion_proyecto_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02592D85-6DA2-4A95-A66D-0E7FA8783BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A499E8DD-41D5-4743-8BD5-CBA84F6F1A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{2A26BEC3-3C8D-473A-BF84-89C24DF24433}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="647">
   <si>
     <t>Codigo_producto</t>
   </si>
@@ -696,9 +696,6 @@
     <t>precio VARCHAR (50) NOT NULL,</t>
   </si>
   <si>
-    <t>url_imagen LONGBLOB,</t>
-  </si>
-  <si>
     <t>('PRU_001','Pru_alta_carpinteria','Descripcion prueba alta carpineteria',4.000.000,00,'C:\xampp\htdocs\PruebaBD_PryAlt\Imagenes seccion\alta carpinteria.png','Azul,Blanco,Negro','Material3,Material4,Material5')</t>
   </si>
   <si>
@@ -756,51 +753,6 @@
     <t>$ 1.970.000</t>
   </si>
   <si>
-    <t>('salas1','Sofá Ámsterdam','N/A','$ 3.250.000','Imagenes/salas/salas1.png','Beige , Azul , Gris','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
-    <t>('salas2','Sillón Berlín','N/A','$ 1.800.000','Imagenes/salas/salas2.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
-    <t>('salas3','Sofá Bruselas','N/A','$ 2.700.000','Imagenes/salas/salas3.png','Beige  , Gris , Blanco , Caoba','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
-    <t>('salas4','Sofá Capri','N/A','$ 3.850.000','Imagenes/salas/salas4.png','Wengue , Caoba','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
-    <t>('salas5','Sofá París','N/A','$ 2.750.000','Imagenes/salas/salas5.png','Gris , Blanco , Beige','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
-    <t>('salas7','Sofá Nórdico','N/A','$ 3.550.000','Imagenes/salas/salas7.png','Plata , Blanco ','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
-    <t>('salas9','Sillón Dublín','N/A','$ 2.250.000','Imagenes/salas/salas9.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
-    <t>('salas10','Sillón Oxford','N/A','$ 2.960.000','Imagenes/salas/salas10.png','Wengue , Caoba','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
-    <t>('salas11','Sillón Toulouse','N/A','$ 4.340.000','Imagenes/salas/salas11.png','Beige , Blanco , Gris ','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
-    <t>('salas13','Sofá Chicago','N/A','$ 4.250.000','Imagenes/salas/salas13.png','Beige , Blanco , Gris ','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
-    <t>('salas14','Sofá Florencia','N/A','$ 3.440.000','Imagenes/salas/salas14.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
-    <t>('salas15','Sillón Londres','N/A','$ 2.450.000','Imagenes/salas/salas15.png','Gris , Blanco , Beige','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
-    <t>('salas17','Sofá Sevilla','N/A','$ 3.990.000','Imagenes/salas/salas17.png','Blanco , Gris ','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
-    <t>('salas19','Sillón Savoy','N/A','$ 2.750.000','Imagenes/salas/salas19.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
-    <t>('salas20','Sillón Marsella','N/A','$ 1.970.000','Imagenes/salas/salas20.png','Beige , Azul , Gris','Madera , Espuma de alta densidad '),</t>
-  </si>
-  <si>
     <t>UPDATE salas</t>
   </si>
   <si>
@@ -1008,51 +960,6 @@
     <t>INSERT INTO comedores (codigo, nombre, descripcion, precio, url_imagen, colores, materiales)</t>
   </si>
   <si>
-    <t>('comedores1','Comedor 6 puestos Alaska','N/A','$ 3.330.000','Imagenes/comedores/comedores1.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
-    <t>('comedores2','Comedor 6 puestos Sevilla','N/A','$ 2.830.000','Imagenes/comedores/comedores2.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
-    <t>('comedores3','Comedor 6 puestos Underground','N/A','$ 2.350.000','Imagenes/comedores/comedores3.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
-    <t>('comedores4','Comedor 4 puestos Marsella','N/A','$ 3.550.000','Imagenes/comedores/comedores4.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
-    <t>('comedores5','Comedor 6 puestos Valenciano','N/A','$ 4.250.000','Imagenes/comedores/comedores5.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
-    <t>('comedores6','Comedor 4 puestos Suburbios','N/A','$ 2.650.000','Imagenes/comedores/comedores6.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
-    <t>('comedores7','Comedor 6 puestos Manchester','N/A','$ 3.350.000','Imagenes/comedores/comedores7.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
-    <t>('comedores8','Comedor 4 puestos Mediterraneo','N/A','$ 2.240.000','Imagenes/comedores/comedores8.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
-    <t>('comedores9','Comedor 4 puestos New York','N/A','$ 2.640.000','Imagenes/comedores/comedores9.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
-    <t>('comedores10','Comedor 4 puestos Simple','N/A','$ 1.750.000','Imagenes/comedores/comedores10.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
-    <t>('comedores11','Comedor 4 puestos Ceniza','N/A','$ 2.040.000','Imagenes/comedores/comedores11.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
-    <t>('comedores12','Comedor 6 puestos Europeo','N/A','$ 3.150.000','Imagenes/comedores/comedores12.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
-    <t>('comedores13','Comedor 8 puestos Industrial','N/A','$ 4.990.000','Imagenes/comedores/comedores13.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
-    <t>('comedores14','Comedor 6 puestos Minimalista','N/A','$ 2.750.000','Imagenes/comedores/comedores14.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
-    <t>('comedores15','Comedor 6 puestos Valenciano plus','N/A','$ 4.250.000','Imagenes/comedores/comedores15.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Madera , Espuma de alta densidad</t>
   </si>
   <si>
@@ -1233,54 +1140,9 @@
     <t>('alcobas1','Juego alcoba Osaka','N/A','$ 4.750.000','Imagenes/alcobas/alcobas1.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
   </si>
   <si>
-    <t>('alcobas2','Juego alcoba Brooklyn','N/A','$ 2.990.000','Imagenes/alcobas/alcobas2.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
-  </si>
-  <si>
-    <t>('alcobas3','Juego alcoba Quebec','N/A','$ 2.650.000','Imagenes/alcobas/alcobas3.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
-  </si>
-  <si>
-    <t>('alcobas4','Juego alcoba Yakutsk','N/A','$ 3.160.000','Imagenes/alcobas/alcobas4.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
-  </si>
-  <si>
-    <t>('alcobas5','Juego alcoba Obsidiana','N/A','$ 4.660.000','Imagenes/alcobas/alcobas5.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
-  </si>
-  <si>
-    <t>('alcobas6','Juego alcoba Sahara','N/A','$ 3.560.000','Imagenes/alcobas/alcobas6.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
-  </si>
-  <si>
-    <t>('alcobas7','Juego alcoba Midas','N/A','$ 3.450.000','Imagenes/alcobas/alcobas7.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
-  </si>
-  <si>
-    <t>('alcobas8','Juego alcoba Vegas','N/A','$ 2.990.000','Imagenes/alcobas/alcobas8.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
-  </si>
-  <si>
-    <t>('alcobas9','Juego alcoba Beijing','N/A','$ 3.100.000','Imagenes/alcobas/alcobas9.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
-  </si>
-  <si>
-    <t>('alcobas10','Juego alcoba Bloomsbury','N/A','$ 2.750.000','Imagenes/alcobas/alcobas10.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
-  </si>
-  <si>
-    <t>('alcobas11','Juego alcoba Terracota','N/A','$ 4.040.000','Imagenes/alcobas/alcobas11.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
-  </si>
-  <si>
-    <t>('alcobas12','Juego alcoba Tebas','N/A','$ 4.890.000','Imagenes/alcobas/alcobas12.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
-  </si>
-  <si>
-    <t>('alcobas13','Juego alcoba Cairo','N/A','$ 4.690.000','Imagenes/alcobas/alcobas13.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
-  </si>
-  <si>
-    <t>('alcobas14','Juego alcoba Salonica','N/A','$ 4.290.000','Imagenes/alcobas/alcobas14.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
-  </si>
-  <si>
-    <t>('alcobas15','Juego alcoba Opera','N/A','$ 3.450.000','Imagenes/alcobas/alcobas15.png',' Natural , Wengue ,  Caoba',' Madera , Espuma de alta densidad'),</t>
-  </si>
-  <si>
     <t>CREATE TABLE alcobas (</t>
   </si>
   <si>
-    <t>INSERT INTO alcobas (codigo, nombre, descripcion, precio, url_imagen, colores, materiales)</t>
-  </si>
-  <si>
     <t>materiales SET (' Madera ' ,' Espuma de alta densidad ') NOT NULL</t>
   </si>
   <si>
@@ -1476,51 +1338,6 @@
     <t xml:space="preserve"> Natural , Wengue , Caoba ,  Diferentes estilos prediseñados</t>
   </si>
   <si>
-    <t>('cocina1','Cocina basic beige en L dos mubles','N/A','Desde $ 4.500.000','Imagenes/cocinas/cocina1.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
-    <t>('cocina2','Cocina Nevada en L','N/A','Desde $ 6.500.000','Imagenes/cocinas/cocina2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
-    <t>('cocina3','Cocina sombra con isla comedor','N/A','Desde $5.500.000','Imagenes/cocinas/cocina3.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
-    <t>('cocina4','Cocina minimalista white 2 fases','N/A','Desde $6.500.000','Imagenes/cocinas/cocina4.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
-    <t>('cocina5','Cocina Basic white','N/A','Desde $4.500.000','Imagenes/cocinas/cocina5.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
-    <t>('cocina6','Cocina Celeste clasica','N/A','Desde $4.000.000','Imagenes/cocinas/cocina6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
-    <t>('cocina7','Cocina Volcanica 2 fases','N/A','Desde $7.000.000','Imagenes/cocinas/cocina7.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
-    <t>('cocina8','Cocina Meditarrenea 2 fases','N/A','Desde $5.500.000','Imagenes/cocinas/cocina8.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
-    <t>('cocina9','Cocina Natural con isla','N/A','Desde $4.500.000','Imagenes/cocinas/cocina9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
-    <t>('cocina10','Cocina Artiko en L','N/A','Desde $7.500.000','Imagenes/cocinas/cocina10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
-    <t>('cocina11','Cocina 90´s Madera','N/A','Desde $7.500.000','Imagenes/cocinas/cocina11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
-    <t>('cocina12','Cocina Cobrizo con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina12.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
-    <t>('cocina13','Cocina Vintage con bar','N/A','Desde $6.000.000','Imagenes/cocinas/cocina13.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
-    <t>('cocina14','Cocina Basic muebles inferior','N/A','Desde $4.000.000','Imagenes/cocinas/cocina14.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
-    <t>('cocina15','Cocina Duna con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina15.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</t>
-  </si>
-  <si>
     <t>Imagenes/cuartos_de_estudio/</t>
   </si>
   <si>
@@ -1584,9 +1401,6 @@
     <t>CREATE TABLE cuartos_estudios (</t>
   </si>
   <si>
-    <t>INSERT INTO cuartos_estudios (codigo, nombre, descripcion, precio, url_imagen, colores, materiales)</t>
-  </si>
-  <si>
     <t>Desde $ 2.000.000</t>
   </si>
   <si>
@@ -1713,51 +1527,6 @@
     <t>Desde $ 4.700.000</t>
   </si>
   <si>
-    <t>('estudio1','Escritorio Caoba ejecutivo','N/A','Desde $ 2.000.000','Imagenes/cuartos_de_estudio/estudio1.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('estudio2','Escritorio empotrado y mueble superior Alaska','N/A','Desde $ 3.500.000','Imagenes/cuartos_de_estudio/estudio2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('estudio3','Escritorio y silla Fresno Sencillo','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio3.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('estudio4','Escritorio Ejecutivo Obsidiana y muebles auxiliar','N/A','Desde $ 3.900.000','Imagenes/cuartos_de_estudio/estudio4.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('estudio5','Escritorio Basic lineal Abedul','N/A','Desde $ 3.200.000','Imagenes/cuartos_de_estudio/estudio5.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('estudio6','Escritorio y estanteria Spring Basic','N/A','Desde $ 3.800.000','Imagenes/cuartos_de_estudio/estudio6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('estudio7','Escritorio lineal Roble claro','N/A','Desde $ 1.800.000','Imagenes/cuartos_de_estudio/estudio7.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('estudio8','Escritorio lineal White flotante','N/A','Desde $ 1.300.000','Imagenes/cuartos_de_estudio/estudio8.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('estudio9','Escritorio sencillo Vintage','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('estudio10','Escritorio y silla Industry Roble Rojo','N/A','Desde $ 2.100.000','Imagenes/cuartos_de_estudio/estudio10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('estudio11','Escritorio double Ceniza','N/A','Desde $ 4.500.000','Imagenes/cuartos_de_estudio/estudio11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('estudio12','Escritorio Mediterraneo ','N/A','Desde $ 3.500.000','Imagenes/cuartos_de_estudio/estudio12.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('estudio13','Escritorio small float','N/A','Desde $ 1.000.000','Imagenes/cuartos_de_estudio/estudio13.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('estudio14','Escritorio y biblioteca individual bone','N/A','Desde $ 2.400.000','Imagenes/cuartos_de_estudio/estudio14.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('estudio15','Escritorio double ejecutivo Jatoba','N/A','Desde $ 4.700.000','Imagenes/cuartos_de_estudio/estudio15.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
     <t>biblioteca</t>
   </si>
   <si>
@@ -1812,9 +1581,6 @@
     <t>CREATE TABLE bibliotecas (</t>
   </si>
   <si>
-    <t>INSERT INTO bibliotecas (codigo, nombre, descripcion, precio, url_imagen, colores, materiales)</t>
-  </si>
-  <si>
     <t>Biblioteca espiral white</t>
   </si>
   <si>
@@ -1923,55 +1689,301 @@
     <t>Imagenes/bibliotecas/biblioteca15.png</t>
   </si>
   <si>
-    <t>('biblioteca1','Biblioteca espiral white','N/A','Desde $ 4.700.000','Imagenes/bibliotecas/biblioteca1.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('biblioteca2','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('biblioteca3','Biblioteca en L pino flotante','N/A','Desde $ 4.500.000','Imagenes/bibliotecas/biblioteca3.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('biblioteca4','Biblioteca Obsidina ejecutiva','N/A','Desde $ 5.200.000','Imagenes/bibliotecas/biblioteca4.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('biblioteca5','Biblioteca clasic beige','N/A','Desde $ 2.800.000','Imagenes/bibliotecas/biblioteca5.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('biblioteca6','Biblioteca Cerezo a la medida','N/A','Desde $ 6.700.000','Imagenes/bibliotecas/biblioteca6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('biblioteca7','Biblioteca Nogal dos partes L','N/A','Desde $ 2.100.000','Imagenes/bibliotecas/biblioteca7.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('biblioteca8','Biblioteca Alaska','N/A','Desde $ 3.900.000','Imagenes/bibliotecas/biblioteca8.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('biblioteca9','Biblioteca Burgues Clasic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('biblioteca10','Biblioteca Rustic clasic','N/A','Desde $ 3.100.000','Imagenes/bibliotecas/biblioteca10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('biblioteca11','Bibloteca a medida en L flotante Fresno','N/A','Desde $ 3.500.000','Imagenes/bibliotecas/biblioteca11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('biblioteca12','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca12.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('biblioteca13','Bibloteca Ice contemporanea a la medida','N/A','Desde $ 4.100.000','Imagenes/bibliotecas/biblioteca13.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('biblioteca14','Biblioteca Space gray','N/A','Desde $ 4.400.000','Imagenes/bibliotecas/biblioteca14.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
-    <t>('biblioteca15','Biblioteca circular Olivo','N/A','Desde $ 5.700.000','Imagenes/bibliotecas/biblioteca15.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</t>
-  </si>
-  <si>
     <t>CREATE TABLE alta_carpinteria (</t>
   </si>
   <si>
-    <t>INSERT INTO alta_carpinteria (codigo, nombre, descripcion, precio, url_imagen, colores, materiales)</t>
+    <t>('salas1','Sofá Ámsterdam','N/A','$ 3.250.000','Imagenes/salas/salas1.png'),</t>
+  </si>
+  <si>
+    <t>('salas2','Sillón Berlín','N/A','$ 1.800.000','Imagenes/salas/salas2.png'),</t>
+  </si>
+  <si>
+    <t>('salas3','Sofá Bruselas','N/A','$ 2.700.000','Imagenes/salas/salas3.png'),</t>
+  </si>
+  <si>
+    <t>('salas4','Sofá Capri','N/A','$ 3.850.000','Imagenes/salas/salas4.png'),</t>
+  </si>
+  <si>
+    <t>('salas5','Sofá París','N/A','$ 2.750.000','Imagenes/salas/salas5.png'),</t>
+  </si>
+  <si>
+    <t>('salas7','Sofá Nórdico','N/A','$ 3.550.000','Imagenes/salas/salas7.png'),</t>
+  </si>
+  <si>
+    <t>('salas9','Sillón Dublín','N/A','$ 2.250.000','Imagenes/salas/salas9.png'),</t>
+  </si>
+  <si>
+    <t>('salas10','Sillón Oxford','N/A','$ 2.960.000','Imagenes/salas/salas10.png'),</t>
+  </si>
+  <si>
+    <t>('salas11','Sillón Toulouse','N/A','$ 4.340.000','Imagenes/salas/salas11.png'),</t>
+  </si>
+  <si>
+    <t>('salas13','Sofá Chicago','N/A','$ 4.250.000','Imagenes/salas/salas13.png'),</t>
+  </si>
+  <si>
+    <t>('salas14','Sofá Florencia','N/A','$ 3.440.000','Imagenes/salas/salas14.png'),</t>
+  </si>
+  <si>
+    <t>('salas15','Sillón Londres','N/A','$ 2.450.000','Imagenes/salas/salas15.png'),</t>
+  </si>
+  <si>
+    <t>('salas17','Sofá Sevilla','N/A','$ 3.990.000','Imagenes/salas/salas17.png'),</t>
+  </si>
+  <si>
+    <t>('salas19','Sillón Savoy','N/A','$ 2.750.000','Imagenes/salas/salas19.png'),</t>
+  </si>
+  <si>
+    <t>('salas20','Sillón Marsella','N/A','$ 1.970.000','Imagenes/salas/salas20.png'),</t>
+  </si>
+  <si>
+    <t>url_imagen LONGBLOB</t>
+  </si>
+  <si>
+    <t>('comedores1','Comedor 6 puestos Alaska','N/A','$ 3.330.000','Imagenes/comedores/comedores1.png'),</t>
+  </si>
+  <si>
+    <t>('comedores2','Comedor 6 puestos Sevilla','N/A','$ 2.830.000','Imagenes/comedores/comedores2.png'),</t>
+  </si>
+  <si>
+    <t>('comedores3','Comedor 6 puestos Underground','N/A','$ 2.350.000','Imagenes/comedores/comedores3.png'),</t>
+  </si>
+  <si>
+    <t>('comedores4','Comedor 4 puestos Marsella','N/A','$ 3.550.000','Imagenes/comedores/comedores4.png'),</t>
+  </si>
+  <si>
+    <t>('comedores5','Comedor 6 puestos Valenciano','N/A','$ 4.250.000','Imagenes/comedores/comedores5.png'),</t>
+  </si>
+  <si>
+    <t>('comedores6','Comedor 4 puestos Suburbios','N/A','$ 2.650.000','Imagenes/comedores/comedores6.png'),</t>
+  </si>
+  <si>
+    <t>('comedores7','Comedor 6 puestos Manchester','N/A','$ 3.350.000','Imagenes/comedores/comedores7.png'),</t>
+  </si>
+  <si>
+    <t>('comedores8','Comedor 4 puestos Mediterraneo','N/A','$ 2.240.000','Imagenes/comedores/comedores8.png'),</t>
+  </si>
+  <si>
+    <t>('comedores9','Comedor 4 puestos New York','N/A','$ 2.640.000','Imagenes/comedores/comedores9.png'),</t>
+  </si>
+  <si>
+    <t>('comedores10','Comedor 4 puestos Simple','N/A','$ 1.750.000','Imagenes/comedores/comedores10.png'),</t>
+  </si>
+  <si>
+    <t>('comedores11','Comedor 4 puestos Ceniza','N/A','$ 2.040.000','Imagenes/comedores/comedores11.png'),</t>
+  </si>
+  <si>
+    <t>('comedores12','Comedor 6 puestos Europeo','N/A','$ 3.150.000','Imagenes/comedores/comedores12.png'),</t>
+  </si>
+  <si>
+    <t>('comedores13','Comedor 8 puestos Industrial','N/A','$ 4.990.000','Imagenes/comedores/comedores13.png'),</t>
+  </si>
+  <si>
+    <t>('comedores14','Comedor 6 puestos Minimalista','N/A','$ 2.750.000','Imagenes/comedores/comedores14.png'),</t>
+  </si>
+  <si>
+    <t>('comedores15','Comedor 6 puestos Valenciano plus','N/A','$ 4.250.000','Imagenes/comedores/comedores15.png'),</t>
+  </si>
+  <si>
+    <t>INSERT INTO salas (codigo, nombre, descripcion, precio, url_imagen)</t>
+  </si>
+  <si>
+    <t>INSERT INTO comedores (codigo, nombre, descripcion, precio, url_imagen)</t>
+  </si>
+  <si>
+    <t>INSERT INTO alcobas (codigo, nombre, descripcion, precio, url_imagen)</t>
+  </si>
+  <si>
+    <t>INSERT INTO cocinas (codigo, nombre, descripcion, precio, url_imagen)</t>
+  </si>
+  <si>
+    <t>('alcobas1','Juego alcoba Osaka','N/A','$ 4.750.000','Imagenes/alcobas/alcobas1.png'),</t>
+  </si>
+  <si>
+    <t>('alcobas2','Juego alcoba Brooklyn','N/A','$ 2.990.000','Imagenes/alcobas/alcobas2.png'),</t>
+  </si>
+  <si>
+    <t>('alcobas3','Juego alcoba Quebec','N/A','$ 2.650.000','Imagenes/alcobas/alcobas3.png'),</t>
+  </si>
+  <si>
+    <t>('alcobas4','Juego alcoba Yakutsk','N/A','$ 3.160.000','Imagenes/alcobas/alcobas4.png'),</t>
+  </si>
+  <si>
+    <t>('alcobas5','Juego alcoba Obsidiana','N/A','$ 4.660.000','Imagenes/alcobas/alcobas5.png'),</t>
+  </si>
+  <si>
+    <t>('alcobas6','Juego alcoba Sahara','N/A','$ 3.560.000','Imagenes/alcobas/alcobas6.png'),</t>
+  </si>
+  <si>
+    <t>('alcobas7','Juego alcoba Midas','N/A','$ 3.450.000','Imagenes/alcobas/alcobas7.png'),</t>
+  </si>
+  <si>
+    <t>('alcobas8','Juego alcoba Vegas','N/A','$ 2.990.000','Imagenes/alcobas/alcobas8.png'),</t>
+  </si>
+  <si>
+    <t>('alcobas9','Juego alcoba Beijing','N/A','$ 3.100.000','Imagenes/alcobas/alcobas9.png'),</t>
+  </si>
+  <si>
+    <t>('alcobas10','Juego alcoba Bloomsbury','N/A','$ 2.750.000','Imagenes/alcobas/alcobas10.png'),</t>
+  </si>
+  <si>
+    <t>('alcobas11','Juego alcoba Terracota','N/A','$ 4.040.000','Imagenes/alcobas/alcobas11.png'),</t>
+  </si>
+  <si>
+    <t>('alcobas12','Juego alcoba Tebas','N/A','$ 4.890.000','Imagenes/alcobas/alcobas12.png'),</t>
+  </si>
+  <si>
+    <t>('alcobas13','Juego alcoba Cairo','N/A','$ 4.690.000','Imagenes/alcobas/alcobas13.png'),</t>
+  </si>
+  <si>
+    <t>('alcobas14','Juego alcoba Salonica','N/A','$ 4.290.000','Imagenes/alcobas/alcobas14.png'),</t>
+  </si>
+  <si>
+    <t>('alcobas15','Juego alcoba Opera','N/A','$ 3.450.000','Imagenes/alcobas/alcobas15.png'),</t>
+  </si>
+  <si>
+    <t>('cocina1','Cocina basic beige en L dos mubles','N/A','Desde $ 4.500.000','Imagenes/cocinas/cocina1.png'),</t>
+  </si>
+  <si>
+    <t>('cocina2','Cocina Nevada en L','N/A','Desde $ 6.500.000','Imagenes/cocinas/cocina2.png'),</t>
+  </si>
+  <si>
+    <t>('cocina3','Cocina sombra con isla comedor','N/A','Desde $5.500.000','Imagenes/cocinas/cocina3.png'),</t>
+  </si>
+  <si>
+    <t>('cocina4','Cocina minimalista white 2 fases','N/A','Desde $6.500.000','Imagenes/cocinas/cocina4.png'),</t>
+  </si>
+  <si>
+    <t>('cocina5','Cocina Basic white','N/A','Desde $4.500.000','Imagenes/cocinas/cocina5.png'),</t>
+  </si>
+  <si>
+    <t>('cocina6','Cocina Celeste clasica','N/A','Desde $4.000.000','Imagenes/cocinas/cocina6.png'),</t>
+  </si>
+  <si>
+    <t>('cocina7','Cocina Volcanica 2 fases','N/A','Desde $7.000.000','Imagenes/cocinas/cocina7.png'),</t>
+  </si>
+  <si>
+    <t>('cocina8','Cocina Meditarrenea 2 fases','N/A','Desde $5.500.000','Imagenes/cocinas/cocina8.png'),</t>
+  </si>
+  <si>
+    <t>('cocina9','Cocina Natural con isla','N/A','Desde $4.500.000','Imagenes/cocinas/cocina9.png'),</t>
+  </si>
+  <si>
+    <t>('cocina10','Cocina Artiko en L','N/A','Desde $7.500.000','Imagenes/cocinas/cocina10.png'),</t>
+  </si>
+  <si>
+    <t>('cocina11','Cocina 90´s Madera','N/A','Desde $7.500.000','Imagenes/cocinas/cocina11.png'),</t>
+  </si>
+  <si>
+    <t>('cocina12','Cocina Cobrizo con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina12.png'),</t>
+  </si>
+  <si>
+    <t>('cocina13','Cocina Vintage con bar','N/A','Desde $6.000.000','Imagenes/cocinas/cocina13.png'),</t>
+  </si>
+  <si>
+    <t>('cocina14','Cocina Basic muebles inferior','N/A','Desde $4.000.000','Imagenes/cocinas/cocina14.png'),</t>
+  </si>
+  <si>
+    <t>('cocina15','Cocina Duna con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina15.png'),</t>
+  </si>
+  <si>
+    <t>('estudio1','Escritorio Caoba ejecutivo','N/A','Desde $ 2.000.000','Imagenes/cuartos_de_estudio/estudio1.png'),</t>
+  </si>
+  <si>
+    <t>('estudio2','Escritorio empotrado y mueble superior Alaska','N/A','Desde $ 3.500.000','Imagenes/cuartos_de_estudio/estudio2.png'),</t>
+  </si>
+  <si>
+    <t>('estudio3','Escritorio y silla Fresno Sencillo','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio3.png'),</t>
+  </si>
+  <si>
+    <t>('estudio4','Escritorio Ejecutivo Obsidiana y muebles auxiliar','N/A','Desde $ 3.900.000','Imagenes/cuartos_de_estudio/estudio4.png'),</t>
+  </si>
+  <si>
+    <t>('estudio5','Escritorio Basic lineal Abedul','N/A','Desde $ 3.200.000','Imagenes/cuartos_de_estudio/estudio5.png'),</t>
+  </si>
+  <si>
+    <t>('estudio6','Escritorio y estanteria Spring Basic','N/A','Desde $ 3.800.000','Imagenes/cuartos_de_estudio/estudio6.png'),</t>
+  </si>
+  <si>
+    <t>('estudio7','Escritorio lineal Roble claro','N/A','Desde $ 1.800.000','Imagenes/cuartos_de_estudio/estudio7.png'),</t>
+  </si>
+  <si>
+    <t>('estudio8','Escritorio lineal White flotante','N/A','Desde $ 1.300.000','Imagenes/cuartos_de_estudio/estudio8.png'),</t>
+  </si>
+  <si>
+    <t>('estudio9','Escritorio sencillo Vintage','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio9.png'),</t>
+  </si>
+  <si>
+    <t>('estudio10','Escritorio y silla Industry Roble Rojo','N/A','Desde $ 2.100.000','Imagenes/cuartos_de_estudio/estudio10.png'),</t>
+  </si>
+  <si>
+    <t>('estudio11','Escritorio double Ceniza','N/A','Desde $ 4.500.000','Imagenes/cuartos_de_estudio/estudio11.png'),</t>
+  </si>
+  <si>
+    <t>('estudio12','Escritorio Mediterraneo ','N/A','Desde $ 3.500.000','Imagenes/cuartos_de_estudio/estudio12.png'),</t>
+  </si>
+  <si>
+    <t>('estudio13','Escritorio small float','N/A','Desde $ 1.000.000','Imagenes/cuartos_de_estudio/estudio13.png'),</t>
+  </si>
+  <si>
+    <t>('estudio14','Escritorio y biblioteca individual bone','N/A','Desde $ 2.400.000','Imagenes/cuartos_de_estudio/estudio14.png'),</t>
+  </si>
+  <si>
+    <t>('estudio15','Escritorio double ejecutivo Jatoba','N/A','Desde $ 4.700.000','Imagenes/cuartos_de_estudio/estudio15.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca1','Biblioteca espiral white','N/A','Desde $ 4.700.000','Imagenes/bibliotecas/biblioteca1.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca2','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca2.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca3','Biblioteca en L pino flotante','N/A','Desde $ 4.500.000','Imagenes/bibliotecas/biblioteca3.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca4','Biblioteca Obsidina ejecutiva','N/A','Desde $ 5.200.000','Imagenes/bibliotecas/biblioteca4.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca5','Biblioteca clasic beige','N/A','Desde $ 2.800.000','Imagenes/bibliotecas/biblioteca5.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca6','Biblioteca Cerezo a la medida','N/A','Desde $ 6.700.000','Imagenes/bibliotecas/biblioteca6.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca7','Biblioteca Nogal dos partes L','N/A','Desde $ 2.100.000','Imagenes/bibliotecas/biblioteca7.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca8','Biblioteca Alaska','N/A','Desde $ 3.900.000','Imagenes/bibliotecas/biblioteca8.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca9','Biblioteca Burgues Clasic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca9.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca10','Biblioteca Rustic clasic','N/A','Desde $ 3.100.000','Imagenes/bibliotecas/biblioteca10.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca11','Bibloteca a medida en L flotante Fresno','N/A','Desde $ 3.500.000','Imagenes/bibliotecas/biblioteca11.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca12','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca12.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca13','Bibloteca Ice contemporanea a la medida','N/A','Desde $ 4.100.000','Imagenes/bibliotecas/biblioteca13.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca14','Biblioteca Space gray','N/A','Desde $ 4.400.000','Imagenes/bibliotecas/biblioteca14.png'),</t>
+  </si>
+  <si>
+    <t>('biblioteca15','Biblioteca circular Olivo','N/A','Desde $ 5.700.000','Imagenes/bibliotecas/biblioteca15.png'),</t>
+  </si>
+  <si>
+    <t>INSERT INTO cuartos_estudios (codigo, nombre, descripcion, precio, url_imagen)</t>
+  </si>
+  <si>
+    <t>INSERT INTO bibliotecas (codigo, nombre, descripcion, precio, url_imagen)</t>
+  </si>
+  <si>
+    <t>INSERT INTO alta_carpinteria (codigo, nombre, descripcion, precio, url_imagen)</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -2035,6 +2047,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3030,92 +3043,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA30AA2-9880-4D41-820C-F91482830A46}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="67.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>580</v>
+      </c>
+      <c r="H17" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" ref="M18" si="0">+"('"&amp;A18&amp;"'"&amp;$L$20&amp;"'"&amp;B18&amp;"'"&amp;$L$20&amp;"'"&amp;C18&amp;"'"&amp;$L$20&amp;"'"&amp;D18&amp;"'"&amp;$L$20&amp;"'"&amp;E18&amp;"'"&amp;$L$20&amp;"'"&amp;F18&amp;"'"&amp;$L$20&amp;"'"&amp;G18&amp;"'),"</f>
+        <v>('VALUES','','','','','',''),</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>175</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3141,10 +3160,10 @@
         <v>106</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3155,10 +3174,10 @@
         <v>161</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>176</v>
@@ -3183,15 +3202,15 @@
         <v>Imagenes/salas/salas1.png</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" ref="L21:L30" si="0">+$H$21&amp;I21</f>
+        <f t="shared" ref="L21:L30" si="1">+$H$21&amp;I21</f>
         <v>salas1</v>
       </c>
       <c r="M21" t="str">
-        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
-        <v>('salas1','Sofá Ámsterdam','N/A','$ 3.250.000','Imagenes/salas/salas1.png','Beige , Azul , Gris','Madera , Espuma de alta densidad '),</v>
+        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'),"</f>
+        <v>('salas1','Sofá Ámsterdam','N/A','$ 3.250.000','Imagenes/salas/salas1.png'),</v>
       </c>
       <c r="N21" t="s">
-        <v>237</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3202,10 +3221,10 @@
         <v>162</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>177</v>
@@ -3220,19 +3239,19 @@
         <v>2</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" ref="K22:K30" si="1">$H$19&amp;$H$21&amp;I22&amp;$J$21</f>
+        <f t="shared" ref="K22:K30" si="2">$H$19&amp;$H$21&amp;I22&amp;$J$21</f>
         <v>Imagenes/salas/salas2.png</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>salas2</v>
       </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" ref="M22:M35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
-        <v>('salas2','Sillón Berlín','N/A','$ 1.800.000','Imagenes/salas/salas2.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</v>
+      <c r="M22" t="str">
+        <f t="shared" ref="M22:N35" si="3">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
+        <v>('salas2','Sillón Berlín','N/A','$ 1.800.000','Imagenes/salas/salas2.png'),</v>
       </c>
       <c r="N22" t="s">
-        <v>238</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3243,10 +3262,10 @@
         <v>163</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>178</v>
@@ -3261,19 +3280,19 @@
         <v>3</v>
       </c>
       <c r="K23" t="str">
+        <f t="shared" si="2"/>
+        <v>Imagenes/salas/salas3.png</v>
+      </c>
+      <c r="L23" t="str">
         <f t="shared" si="1"/>
-        <v>Imagenes/salas/salas3.png</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
         <v>salas3</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="2"/>
-        <v>('salas3','Sofá Bruselas','N/A','$ 2.700.000','Imagenes/salas/salas3.png','Beige  , Gris , Blanco , Caoba','Madera , Espuma de alta densidad '),</v>
+        <f t="shared" si="3"/>
+        <v>('salas3','Sofá Bruselas','N/A','$ 2.700.000','Imagenes/salas/salas3.png'),</v>
       </c>
       <c r="N23" t="s">
-        <v>239</v>
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -3284,10 +3303,10 @@
         <v>164</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>179</v>
@@ -3302,19 +3321,19 @@
         <v>4</v>
       </c>
       <c r="K24" t="str">
+        <f t="shared" si="2"/>
+        <v>Imagenes/salas/salas4.png</v>
+      </c>
+      <c r="L24" t="str">
         <f t="shared" si="1"/>
-        <v>Imagenes/salas/salas4.png</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
         <v>salas4</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="2"/>
-        <v>('salas4','Sofá Capri','N/A','$ 3.850.000','Imagenes/salas/salas4.png','Wengue , Caoba','Madera , Espuma de alta densidad '),</v>
+        <f t="shared" si="3"/>
+        <v>('salas4','Sofá Capri','N/A','$ 3.850.000','Imagenes/salas/salas4.png'),</v>
       </c>
       <c r="N24" t="s">
-        <v>240</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -3325,10 +3344,10 @@
         <v>165</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>180</v>
@@ -3343,19 +3362,19 @@
         <v>5</v>
       </c>
       <c r="K25" t="str">
+        <f t="shared" si="2"/>
+        <v>Imagenes/salas/salas5.png</v>
+      </c>
+      <c r="L25" t="str">
         <f t="shared" si="1"/>
-        <v>Imagenes/salas/salas5.png</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
         <v>salas5</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="2"/>
-        <v>('salas5','Sofá París','N/A','$ 2.750.000','Imagenes/salas/salas5.png','Gris , Blanco , Beige','Madera , Espuma de alta densidad '),</v>
+        <f t="shared" si="3"/>
+        <v>('salas5','Sofá París','N/A','$ 2.750.000','Imagenes/salas/salas5.png'),</v>
       </c>
       <c r="N25" t="s">
-        <v>241</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3366,10 +3385,10 @@
         <v>148</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>181</v>
@@ -3384,19 +3403,19 @@
         <v>7</v>
       </c>
       <c r="K26" t="str">
+        <f t="shared" si="2"/>
+        <v>Imagenes/salas/salas7.png</v>
+      </c>
+      <c r="L26" t="str">
         <f t="shared" si="1"/>
-        <v>Imagenes/salas/salas7.png</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
         <v>salas7</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="2"/>
-        <v>('salas7','Sofá Nórdico','N/A','$ 3.550.000','Imagenes/salas/salas7.png','Plata , Blanco ','Madera , Espuma de alta densidad '),</v>
+        <f t="shared" si="3"/>
+        <v>('salas7','Sofá Nórdico','N/A','$ 3.550.000','Imagenes/salas/salas7.png'),</v>
       </c>
       <c r="N26" t="s">
-        <v>242</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -3407,10 +3426,10 @@
         <v>166</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>182</v>
@@ -3425,19 +3444,19 @@
         <v>9</v>
       </c>
       <c r="K27" t="str">
+        <f t="shared" si="2"/>
+        <v>Imagenes/salas/salas9.png</v>
+      </c>
+      <c r="L27" t="str">
         <f t="shared" si="1"/>
-        <v>Imagenes/salas/salas9.png</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
         <v>salas9</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="2"/>
-        <v>('salas9','Sillón Dublín','N/A','$ 2.250.000','Imagenes/salas/salas9.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</v>
+        <f t="shared" si="3"/>
+        <v>('salas9','Sillón Dublín','N/A','$ 2.250.000','Imagenes/salas/salas9.png'),</v>
       </c>
       <c r="N27" t="s">
-        <v>243</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3448,10 +3467,10 @@
         <v>167</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>183</v>
@@ -3466,19 +3485,19 @@
         <v>10</v>
       </c>
       <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v>Imagenes/salas/salas10.png</v>
+      </c>
+      <c r="L28" t="str">
         <f t="shared" si="1"/>
-        <v>Imagenes/salas/salas10.png</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
         <v>salas10</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="2"/>
-        <v>('salas10','Sillón Oxford','N/A','$ 2.960.000','Imagenes/salas/salas10.png','Wengue , Caoba','Madera , Espuma de alta densidad '),</v>
+        <f t="shared" si="3"/>
+        <v>('salas10','Sillón Oxford','N/A','$ 2.960.000','Imagenes/salas/salas10.png'),</v>
       </c>
       <c r="N28" t="s">
-        <v>244</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3489,10 +3508,10 @@
         <v>168</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>184</v>
@@ -3507,19 +3526,19 @@
         <v>11</v>
       </c>
       <c r="K29" t="str">
+        <f t="shared" si="2"/>
+        <v>Imagenes/salas/salas11.png</v>
+      </c>
+      <c r="L29" t="str">
         <f t="shared" si="1"/>
-        <v>Imagenes/salas/salas11.png</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
         <v>salas11</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="2"/>
-        <v>('salas11','Sillón Toulouse','N/A','$ 4.340.000','Imagenes/salas/salas11.png','Beige , Blanco , Gris ','Madera , Espuma de alta densidad '),</v>
+        <f t="shared" si="3"/>
+        <v>('salas11','Sillón Toulouse','N/A','$ 4.340.000','Imagenes/salas/salas11.png'),</v>
       </c>
       <c r="N29" t="s">
-        <v>245</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -3530,10 +3549,10 @@
         <v>169</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>185</v>
@@ -3548,19 +3567,19 @@
         <v>13</v>
       </c>
       <c r="K30" t="str">
+        <f t="shared" si="2"/>
+        <v>Imagenes/salas/salas13.png</v>
+      </c>
+      <c r="L30" t="str">
         <f t="shared" si="1"/>
-        <v>Imagenes/salas/salas13.png</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="0"/>
         <v>salas13</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="2"/>
-        <v>('salas13','Sofá Chicago','N/A','$ 4.250.000','Imagenes/salas/salas13.png','Beige , Blanco , Gris ','Madera , Espuma de alta densidad '),</v>
+        <f t="shared" si="3"/>
+        <v>('salas13','Sofá Chicago','N/A','$ 4.250.000','Imagenes/salas/salas13.png'),</v>
       </c>
       <c r="N30" t="s">
-        <v>246</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3571,10 +3590,10 @@
         <v>170</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>186</v>
@@ -3597,11 +3616,11 @@
         <v>salas14</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="2"/>
-        <v>('salas14','Sofá Florencia','N/A','$ 3.440.000','Imagenes/salas/salas14.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</v>
+        <f t="shared" si="3"/>
+        <v>('salas14','Sofá Florencia','N/A','$ 3.440.000','Imagenes/salas/salas14.png'),</v>
       </c>
       <c r="N31" t="s">
-        <v>247</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -3612,10 +3631,10 @@
         <v>171</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>187</v>
@@ -3638,11 +3657,11 @@
         <v>salas15</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="2"/>
-        <v>('salas15','Sillón Londres','N/A','$ 2.450.000','Imagenes/salas/salas15.png','Gris , Blanco , Beige','Madera , Espuma de alta densidad '),</v>
+        <f t="shared" si="3"/>
+        <v>('salas15','Sillón Londres','N/A','$ 2.450.000','Imagenes/salas/salas15.png'),</v>
       </c>
       <c r="N32" t="s">
-        <v>248</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -3653,10 +3672,10 @@
         <v>172</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>188</v>
@@ -3679,11 +3698,11 @@
         <v>salas17</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="2"/>
-        <v>('salas17','Sofá Sevilla','N/A','$ 3.990.000','Imagenes/salas/salas17.png','Blanco , Gris ','Madera , Espuma de alta densidad '),</v>
+        <f t="shared" si="3"/>
+        <v>('salas17','Sofá Sevilla','N/A','$ 3.990.000','Imagenes/salas/salas17.png'),</v>
       </c>
       <c r="N33" t="s">
-        <v>249</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -3694,10 +3713,10 @@
         <v>173</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>189</v>
@@ -3720,11 +3739,11 @@
         <v>salas19</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="2"/>
-        <v>('salas19','Sillón Savoy','N/A','$ 2.750.000','Imagenes/salas/salas19.png','Beige , Azul , Gris , Blanco','Madera , Espuma de alta densidad '),</v>
+        <f t="shared" si="3"/>
+        <v>('salas19','Sillón Savoy','N/A','$ 2.750.000','Imagenes/salas/salas19.png'),</v>
       </c>
       <c r="N34" t="s">
-        <v>250</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -3735,10 +3754,10 @@
         <v>174</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>190</v>
@@ -3761,11 +3780,11 @@
         <v>salas20</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="2"/>
-        <v>('salas20','Sillón Marsella','N/A','$ 1.970.000','Imagenes/salas/salas20.png','Beige , Azul , Gris','Madera , Espuma de alta densidad '),</v>
+        <f t="shared" si="3"/>
+        <v>('salas20','Sillón Marsella','N/A','$ 1.970.000','Imagenes/salas/salas20.png'),</v>
       </c>
       <c r="N35" t="s">
-        <v>251</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3788,7 +3807,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3799,7 +3818,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3810,7 +3829,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3821,7 +3840,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3832,7 +3851,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3901,11 +3920,11 @@
         <v>156</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E75" si="3">+LEN(D47)</f>
+        <f t="shared" ref="E47:E75" si="4">+LEN(D47)</f>
         <v>0</v>
       </c>
       <c r="F47" t="e">
-        <f t="shared" ref="F47:F75" si="4">+RIGHT(D47,(E47-3))</f>
+        <f t="shared" ref="F47:F75" si="5">+RIGHT(D47,(E47-3))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3914,21 +3933,21 @@
         <v>157</v>
       </c>
       <c r="E48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F48" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F49" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3937,41 +3956,41 @@
         <v>160</v>
       </c>
       <c r="E50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F50" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F51" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F53" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3980,11 +3999,11 @@
         <v>154</v>
       </c>
       <c r="E54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F54" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3996,11 +4015,11 @@
         <v>124</v>
       </c>
       <c r="E55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sofá Capri</v>
       </c>
     </row>
@@ -4009,11 +4028,11 @@
         <v>125</v>
       </c>
       <c r="E56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sillón Victoria</v>
       </c>
     </row>
@@ -4025,11 +4044,11 @@
         <v>126</v>
       </c>
       <c r="E57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sofá Valencia</v>
       </c>
     </row>
@@ -4038,11 +4057,11 @@
         <v>127</v>
       </c>
       <c r="E58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sillón Dublín</v>
       </c>
     </row>
@@ -4051,11 +4070,11 @@
         <v>128</v>
       </c>
       <c r="E59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sofá Chicago</v>
       </c>
     </row>
@@ -4064,11 +4083,11 @@
         <v>129</v>
       </c>
       <c r="E60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sillón Berlín</v>
       </c>
     </row>
@@ -4077,11 +4096,11 @@
         <v>130</v>
       </c>
       <c r="E61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sofá Venecia</v>
       </c>
     </row>
@@ -4090,11 +4109,11 @@
         <v>131</v>
       </c>
       <c r="E62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sillón Savoy</v>
       </c>
     </row>
@@ -4103,11 +4122,11 @@
         <v>132</v>
       </c>
       <c r="E63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sofá París</v>
       </c>
     </row>
@@ -4116,11 +4135,11 @@
         <v>133</v>
       </c>
       <c r="E64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sillón Duke</v>
       </c>
     </row>
@@ -4132,11 +4151,11 @@
         <v>134</v>
       </c>
       <c r="E65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sofá Florencia</v>
       </c>
     </row>
@@ -4145,11 +4164,11 @@
         <v>135</v>
       </c>
       <c r="E66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sillón Oxford</v>
       </c>
     </row>
@@ -4161,11 +4180,11 @@
         <v>136</v>
       </c>
       <c r="E67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sofá Barcelona</v>
       </c>
     </row>
@@ -4177,11 +4196,11 @@
         <v>137</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sillón Marsella</v>
       </c>
     </row>
@@ -4193,11 +4212,11 @@
         <v>138</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sofá Londres</v>
       </c>
     </row>
@@ -4209,11 +4228,11 @@
         <v>139</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sillón Zurich</v>
       </c>
     </row>
@@ -4225,11 +4244,11 @@
         <v>140</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sofá Sevilla</v>
       </c>
     </row>
@@ -4241,11 +4260,11 @@
         <v>141</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sillón Toulouse</v>
       </c>
     </row>
@@ -4254,11 +4273,11 @@
         <v>142</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sofá Bruselas</v>
       </c>
     </row>
@@ -4270,11 +4289,11 @@
         <v>143</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sillón Mónaco</v>
       </c>
     </row>
@@ -4286,11 +4305,11 @@
         <v>144</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> Sofá Ámsterdam</v>
       </c>
     </row>
@@ -4361,79 +4380,82 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21:N35"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="100.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>581</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -4443,10 +4465,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -4472,36 +4494,36 @@
         <v>106</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B21" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="H21" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -4518,34 +4540,34 @@
         <v>comedores1</v>
       </c>
       <c r="M21" t="str">
-        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
-        <v>('comedores1','Comedor 6 puestos Alaska','N/A','$ 3.330.000','Imagenes/comedores/comedores1.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'),"</f>
+        <v>('comedores1','Comedor 6 puestos Alaska','N/A','$ 3.330.000','Imagenes/comedores/comedores1.png'),</v>
       </c>
       <c r="N21" t="s">
-        <v>321</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -4558,35 +4580,35 @@
         <f t="shared" si="0"/>
         <v>comedores2</v>
       </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" ref="M22:M35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
-        <v>('comedores2','Comedor 6 puestos Sevilla','N/A','$ 2.830.000','Imagenes/comedores/comedores2.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+      <c r="M22" t="str">
+        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
+        <v>('comedores2','Comedor 6 puestos Sevilla','N/A','$ 2.830.000','Imagenes/comedores/comedores2.png'),</v>
       </c>
       <c r="N22" t="s">
-        <v>322</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -4601,33 +4623,33 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="2"/>
-        <v>('comedores3','Comedor 6 puestos Underground','N/A','$ 2.350.000','Imagenes/comedores/comedores3.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+        <v>('comedores3','Comedor 6 puestos Underground','N/A','$ 2.350.000','Imagenes/comedores/comedores3.png'),</v>
       </c>
       <c r="N23" t="s">
-        <v>323</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -4642,33 +4664,33 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="2"/>
-        <v>('comedores4','Comedor 4 puestos Marsella','N/A','$ 3.550.000','Imagenes/comedores/comedores4.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+        <v>('comedores4','Comedor 4 puestos Marsella','N/A','$ 3.550.000','Imagenes/comedores/comedores4.png'),</v>
       </c>
       <c r="N24" t="s">
-        <v>324</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I25">
         <v>5</v>
@@ -4683,33 +4705,33 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="2"/>
-        <v>('comedores5','Comedor 6 puestos Valenciano','N/A','$ 4.250.000','Imagenes/comedores/comedores5.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+        <v>('comedores5','Comedor 6 puestos Valenciano','N/A','$ 4.250.000','Imagenes/comedores/comedores5.png'),</v>
       </c>
       <c r="N25" t="s">
-        <v>325</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I26">
         <v>6</v>
@@ -4724,33 +4746,33 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="2"/>
-        <v>('comedores6','Comedor 4 puestos Suburbios','N/A','$ 2.650.000','Imagenes/comedores/comedores6.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+        <v>('comedores6','Comedor 4 puestos Suburbios','N/A','$ 2.650.000','Imagenes/comedores/comedores6.png'),</v>
       </c>
       <c r="N26" t="s">
-        <v>326</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I27">
         <v>7</v>
@@ -4765,33 +4787,33 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="2"/>
-        <v>('comedores7','Comedor 6 puestos Manchester','N/A','$ 3.350.000','Imagenes/comedores/comedores7.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+        <v>('comedores7','Comedor 6 puestos Manchester','N/A','$ 3.350.000','Imagenes/comedores/comedores7.png'),</v>
       </c>
       <c r="N27" t="s">
-        <v>327</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -4806,33 +4828,33 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="2"/>
-        <v>('comedores8','Comedor 4 puestos Mediterraneo','N/A','$ 2.240.000','Imagenes/comedores/comedores8.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+        <v>('comedores8','Comedor 4 puestos Mediterraneo','N/A','$ 2.240.000','Imagenes/comedores/comedores8.png'),</v>
       </c>
       <c r="N28" t="s">
-        <v>328</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -4847,33 +4869,33 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="2"/>
-        <v>('comedores9','Comedor 4 puestos New York','N/A','$ 2.640.000','Imagenes/comedores/comedores9.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+        <v>('comedores9','Comedor 4 puestos New York','N/A','$ 2.640.000','Imagenes/comedores/comedores9.png'),</v>
       </c>
       <c r="N29" t="s">
-        <v>329</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I30">
         <v>10</v>
@@ -4888,33 +4910,33 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="2"/>
-        <v>('comedores10','Comedor 4 puestos Simple','N/A','$ 1.750.000','Imagenes/comedores/comedores10.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+        <v>('comedores10','Comedor 4 puestos Simple','N/A','$ 1.750.000','Imagenes/comedores/comedores10.png'),</v>
       </c>
       <c r="N30" t="s">
-        <v>330</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I31">
         <v>11</v>
@@ -4929,33 +4951,33 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="2"/>
-        <v>('comedores11','Comedor 4 puestos Ceniza','N/A','$ 2.040.000','Imagenes/comedores/comedores11.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+        <v>('comedores11','Comedor 4 puestos Ceniza','N/A','$ 2.040.000','Imagenes/comedores/comedores11.png'),</v>
       </c>
       <c r="N31" t="s">
-        <v>331</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I32">
         <v>12</v>
@@ -4970,33 +4992,33 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="2"/>
-        <v>('comedores12','Comedor 6 puestos Europeo','N/A','$ 3.150.000','Imagenes/comedores/comedores12.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+        <v>('comedores12','Comedor 6 puestos Europeo','N/A','$ 3.150.000','Imagenes/comedores/comedores12.png'),</v>
       </c>
       <c r="N32" t="s">
-        <v>332</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I33">
         <v>13</v>
@@ -5011,33 +5033,33 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="2"/>
-        <v>('comedores13','Comedor 8 puestos Industrial','N/A','$ 4.990.000','Imagenes/comedores/comedores13.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+        <v>('comedores13','Comedor 8 puestos Industrial','N/A','$ 4.990.000','Imagenes/comedores/comedores13.png'),</v>
       </c>
       <c r="N33" t="s">
-        <v>333</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I34">
         <v>14</v>
@@ -5052,33 +5074,33 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="2"/>
-        <v>('comedores14','Comedor 6 puestos Minimalista','N/A','$ 2.750.000','Imagenes/comedores/comedores14.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+        <v>('comedores14','Comedor 6 puestos Minimalista','N/A','$ 2.750.000','Imagenes/comedores/comedores14.png'),</v>
       </c>
       <c r="N34" t="s">
-        <v>334</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I35">
         <v>15</v>
@@ -5093,10 +5115,10 @@
       </c>
       <c r="M35" t="str">
         <f t="shared" si="2"/>
-        <v>('comedores15','Comedor 6 puestos Valenciano plus','N/A','$ 4.250.000','Imagenes/comedores/comedores15.png',' Natural , Wengue ,  Caoba',' Madera , Vidrio , Metal '),</v>
+        <v>('comedores15','Comedor 6 puestos Valenciano plus','N/A','$ 4.250.000','Imagenes/comedores/comedores15.png'),</v>
       </c>
       <c r="N35" t="s">
-        <v>335</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -5123,7 +5145,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5138,7 +5160,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5153,7 +5175,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5168,7 +5190,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5183,7 +5205,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5745,8 +5767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC58163A-2559-4EE5-A9EC-0003788318F2}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5755,72 +5777,74 @@
     <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>411</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -5830,10 +5854,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -5859,36 +5883,36 @@
         <v>106</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="B21" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="H21" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -5905,34 +5929,34 @@
         <v>alcobas1</v>
       </c>
       <c r="M21" t="str">
-        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
-        <v>('alcobas1','Juego alcoba Osaka','N/A','$ 4.750.000','Imagenes/alcobas/alcobas1.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'),"</f>
+        <v>('alcobas1','Juego alcoba Osaka','N/A','$ 4.750.000','Imagenes/alcobas/alcobas1.png'),</v>
       </c>
       <c r="N21" t="s">
-        <v>395</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="B22" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -5945,35 +5969,35 @@
         <f t="shared" si="0"/>
         <v>alcobas2</v>
       </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" ref="M22:M35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
-        <v>('alcobas2','Juego alcoba Brooklyn','N/A','$ 2.990.000','Imagenes/alcobas/alcobas2.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+      <c r="M22" t="str">
+        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
+        <v>('alcobas2','Juego alcoba Brooklyn','N/A','$ 2.990.000','Imagenes/alcobas/alcobas2.png'),</v>
       </c>
       <c r="N22" t="s">
-        <v>396</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="B23" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -5988,33 +6012,33 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="2"/>
-        <v>('alcobas3','Juego alcoba Quebec','N/A','$ 2.650.000','Imagenes/alcobas/alcobas3.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+        <v>('alcobas3','Juego alcoba Quebec','N/A','$ 2.650.000','Imagenes/alcobas/alcobas3.png'),</v>
       </c>
       <c r="N23" t="s">
-        <v>397</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="B24" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -6029,33 +6053,33 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="2"/>
-        <v>('alcobas4','Juego alcoba Yakutsk','N/A','$ 3.160.000','Imagenes/alcobas/alcobas4.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+        <v>('alcobas4','Juego alcoba Yakutsk','N/A','$ 3.160.000','Imagenes/alcobas/alcobas4.png'),</v>
       </c>
       <c r="N24" t="s">
-        <v>398</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="B25" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="I25">
         <v>5</v>
@@ -6070,33 +6094,33 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="2"/>
-        <v>('alcobas5','Juego alcoba Obsidiana','N/A','$ 4.660.000','Imagenes/alcobas/alcobas5.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+        <v>('alcobas5','Juego alcoba Obsidiana','N/A','$ 4.660.000','Imagenes/alcobas/alcobas5.png'),</v>
       </c>
       <c r="N25" t="s">
-        <v>399</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="B26" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="I26">
         <v>6</v>
@@ -6111,33 +6135,33 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="2"/>
-        <v>('alcobas6','Juego alcoba Sahara','N/A','$ 3.560.000','Imagenes/alcobas/alcobas6.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+        <v>('alcobas6','Juego alcoba Sahara','N/A','$ 3.560.000','Imagenes/alcobas/alcobas6.png'),</v>
       </c>
       <c r="N26" t="s">
-        <v>400</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="B27" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="I27">
         <v>7</v>
@@ -6152,33 +6176,33 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="2"/>
-        <v>('alcobas7','Juego alcoba Midas','N/A','$ 3.450.000','Imagenes/alcobas/alcobas7.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+        <v>('alcobas7','Juego alcoba Midas','N/A','$ 3.450.000','Imagenes/alcobas/alcobas7.png'),</v>
       </c>
       <c r="N27" t="s">
-        <v>401</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="B28" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -6193,33 +6217,33 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="2"/>
-        <v>('alcobas8','Juego alcoba Vegas','N/A','$ 2.990.000','Imagenes/alcobas/alcobas8.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+        <v>('alcobas8','Juego alcoba Vegas','N/A','$ 2.990.000','Imagenes/alcobas/alcobas8.png'),</v>
       </c>
       <c r="N28" t="s">
-        <v>402</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -6234,33 +6258,33 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="2"/>
-        <v>('alcobas9','Juego alcoba Beijing','N/A','$ 3.100.000','Imagenes/alcobas/alcobas9.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+        <v>('alcobas9','Juego alcoba Beijing','N/A','$ 3.100.000','Imagenes/alcobas/alcobas9.png'),</v>
       </c>
       <c r="N29" t="s">
-        <v>403</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="B30" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="I30">
         <v>10</v>
@@ -6275,33 +6299,33 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="2"/>
-        <v>('alcobas10','Juego alcoba Bloomsbury','N/A','$ 2.750.000','Imagenes/alcobas/alcobas10.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+        <v>('alcobas10','Juego alcoba Bloomsbury','N/A','$ 2.750.000','Imagenes/alcobas/alcobas10.png'),</v>
       </c>
       <c r="N30" t="s">
-        <v>404</v>
+        <v>593</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="B31" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="I31">
         <v>11</v>
@@ -6316,33 +6340,33 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="2"/>
-        <v>('alcobas11','Juego alcoba Terracota','N/A','$ 4.040.000','Imagenes/alcobas/alcobas11.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+        <v>('alcobas11','Juego alcoba Terracota','N/A','$ 4.040.000','Imagenes/alcobas/alcobas11.png'),</v>
       </c>
       <c r="N31" t="s">
-        <v>405</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="I32">
         <v>12</v>
@@ -6357,33 +6381,33 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="2"/>
-        <v>('alcobas12','Juego alcoba Tebas','N/A','$ 4.890.000','Imagenes/alcobas/alcobas12.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+        <v>('alcobas12','Juego alcoba Tebas','N/A','$ 4.890.000','Imagenes/alcobas/alcobas12.png'),</v>
       </c>
       <c r="N32" t="s">
-        <v>406</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="I33">
         <v>13</v>
@@ -6398,33 +6422,33 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="2"/>
-        <v>('alcobas13','Juego alcoba Cairo','N/A','$ 4.690.000','Imagenes/alcobas/alcobas13.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+        <v>('alcobas13','Juego alcoba Cairo','N/A','$ 4.690.000','Imagenes/alcobas/alcobas13.png'),</v>
       </c>
       <c r="N33" t="s">
-        <v>407</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="I34">
         <v>14</v>
@@ -6439,33 +6463,33 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="2"/>
-        <v>('alcobas14','Juego alcoba Salonica','N/A','$ 4.290.000','Imagenes/alcobas/alcobas14.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+        <v>('alcobas14','Juego alcoba Salonica','N/A','$ 4.290.000','Imagenes/alcobas/alcobas14.png'),</v>
       </c>
       <c r="N34" t="s">
-        <v>408</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="I35">
         <v>15</v>
@@ -6480,10 +6504,10 @@
       </c>
       <c r="M35" t="str">
         <f t="shared" si="2"/>
-        <v>('alcobas15','Juego alcoba Opera','N/A','$ 3.450.000','Imagenes/alcobas/alcobas15.png',' Natural , Wengue , Caoba ',' Madera , Espuma de alta densidad'),</v>
+        <v>('alcobas15','Juego alcoba Opera','N/A','$ 3.450.000','Imagenes/alcobas/alcobas15.png'),</v>
       </c>
       <c r="N35" t="s">
-        <v>409</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -6510,7 +6534,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -6525,7 +6549,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6540,7 +6564,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -6555,7 +6579,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -6570,7 +6594,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -6736,8 +6760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D2AFDE-052B-4313-BBBF-C2DEBDB7D439}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6747,73 +6771,78 @@
     <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>475</v>
+        <v>583</v>
+      </c>
+      <c r="F17" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -6823,10 +6852,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -6852,36 +6881,36 @@
         <v>106</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="H21" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -6898,34 +6927,34 @@
         <v>cocina1</v>
       </c>
       <c r="M21" t="str">
-        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
-        <v>('cocina1','Cocina basic beige en L dos mubles','N/A','Desde $ 4.500.000','Imagenes/cocinas/cocina1.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'),"</f>
+        <v>('cocina1','Cocina basic beige en L dos mubles','N/A','Desde $ 4.500.000','Imagenes/cocinas/cocina1.png'),</v>
       </c>
       <c r="N21" t="s">
-        <v>477</v>
+        <v>599</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="B22" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -6938,35 +6967,35 @@
         <f t="shared" si="0"/>
         <v>cocina2</v>
       </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" ref="M22:M34" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
-        <v>('cocina2','Cocina Nevada en L','N/A','Desde $ 6.500.000','Imagenes/cocinas/cocina2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+      <c r="M22" t="str">
+        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
+        <v>('cocina2','Cocina Nevada en L','N/A','Desde $ 6.500.000','Imagenes/cocinas/cocina2.png'),</v>
       </c>
       <c r="N22" t="s">
-        <v>478</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -6981,33 +7010,33 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina3','Cocina sombra con isla comedor','N/A','Desde $5.500.000','Imagenes/cocinas/cocina3.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina3','Cocina sombra con isla comedor','N/A','Desde $5.500.000','Imagenes/cocinas/cocina3.png'),</v>
       </c>
       <c r="N23" t="s">
-        <v>479</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="B24" t="s">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -7022,33 +7051,33 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina4','Cocina minimalista white 2 fases','N/A','Desde $6.500.000','Imagenes/cocinas/cocina4.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina4','Cocina minimalista white 2 fases','N/A','Desde $6.500.000','Imagenes/cocinas/cocina4.png'),</v>
       </c>
       <c r="N24" t="s">
-        <v>480</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="B25" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I25">
         <v>5</v>
@@ -7063,33 +7092,33 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina5','Cocina Basic white','N/A','Desde $4.500.000','Imagenes/cocinas/cocina5.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina5','Cocina Basic white','N/A','Desde $4.500.000','Imagenes/cocinas/cocina5.png'),</v>
       </c>
       <c r="N25" t="s">
-        <v>481</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="B26" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I26">
         <v>6</v>
@@ -7104,33 +7133,33 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina6','Cocina Celeste clasica','N/A','Desde $4.000.000','Imagenes/cocinas/cocina6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina6','Cocina Celeste clasica','N/A','Desde $4.000.000','Imagenes/cocinas/cocina6.png'),</v>
       </c>
       <c r="N26" t="s">
-        <v>482</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="B27" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I27">
         <v>7</v>
@@ -7145,33 +7174,33 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina7','Cocina Volcanica 2 fases','N/A','Desde $7.000.000','Imagenes/cocinas/cocina7.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina7','Cocina Volcanica 2 fases','N/A','Desde $7.000.000','Imagenes/cocinas/cocina7.png'),</v>
       </c>
       <c r="N27" t="s">
-        <v>483</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="B28" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -7186,33 +7215,33 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina8','Cocina Meditarrenea 2 fases','N/A','Desde $5.500.000','Imagenes/cocinas/cocina8.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina8','Cocina Meditarrenea 2 fases','N/A','Desde $5.500.000','Imagenes/cocinas/cocina8.png'),</v>
       </c>
       <c r="N28" t="s">
-        <v>484</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="B29" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -7227,33 +7256,33 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina9','Cocina Natural con isla','N/A','Desde $4.500.000','Imagenes/cocinas/cocina9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina9','Cocina Natural con isla','N/A','Desde $4.500.000','Imagenes/cocinas/cocina9.png'),</v>
       </c>
       <c r="N29" t="s">
-        <v>485</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B30" t="s">
+        <v>402</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B30" t="s">
-        <v>448</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I30">
         <v>10</v>
@@ -7268,33 +7297,33 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina10','Cocina Artiko en L','N/A','Desde $7.500.000','Imagenes/cocinas/cocina10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina10','Cocina Artiko en L','N/A','Desde $7.500.000','Imagenes/cocinas/cocina10.png'),</v>
       </c>
       <c r="N30" t="s">
-        <v>486</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="B31" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I31">
         <v>11</v>
@@ -7309,33 +7338,33 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina11','Cocina 90´s Madera','N/A','Desde $7.500.000','Imagenes/cocinas/cocina11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina11','Cocina 90´s Madera','N/A','Desde $7.500.000','Imagenes/cocinas/cocina11.png'),</v>
       </c>
       <c r="N31" t="s">
-        <v>487</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="B32" t="s">
-        <v>440</v>
+        <v>394</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I32">
         <v>12</v>
@@ -7350,33 +7379,33 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina12','Cocina Cobrizo con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina12.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina12','Cocina Cobrizo con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina12.png'),</v>
       </c>
       <c r="N32" t="s">
-        <v>488</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="B33" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>464</v>
+        <v>418</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I33">
         <v>13</v>
@@ -7391,33 +7420,33 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina13','Cocina Vintage con bar','N/A','Desde $6.000.000','Imagenes/cocinas/cocina13.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina13','Cocina Vintage con bar','N/A','Desde $6.000.000','Imagenes/cocinas/cocina13.png'),</v>
       </c>
       <c r="N33" t="s">
-        <v>489</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="B34" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I34">
         <v>14</v>
@@ -7432,33 +7461,33 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina14','Cocina Basic muebles inferior','N/A','Desde $4.000.000','Imagenes/cocinas/cocina14.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina14','Cocina Basic muebles inferior','N/A','Desde $4.000.000','Imagenes/cocinas/cocina14.png'),</v>
       </c>
       <c r="N34" t="s">
-        <v>490</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="B35" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I35">
         <v>15</v>
@@ -7472,11 +7501,11 @@
         <v>cocina15</v>
       </c>
       <c r="M35" t="str">
-        <f>+"('"&amp;A35&amp;"'"&amp;$L$20&amp;"'"&amp;B35&amp;"'"&amp;$L$20&amp;"'"&amp;C35&amp;"'"&amp;$L$20&amp;"'"&amp;D35&amp;"'"&amp;$L$20&amp;"'"&amp;E35&amp;"'"&amp;$L$20&amp;"'"&amp;F35&amp;"'"&amp;$L$20&amp;"'"&amp;G35&amp;"'),"</f>
-        <v>('cocina15','Cocina Duna con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina15.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <f t="shared" si="2"/>
+        <v>('cocina15','Cocina Duna con isla','N/A','Desde $6.500.000','Imagenes/cocinas/cocina15.png'),</v>
       </c>
       <c r="N35" t="s">
-        <v>491</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -7501,12 +7530,12 @@
         <v>cocina1</v>
       </c>
       <c r="N37" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -7521,7 +7550,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -7536,7 +7565,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -7551,7 +7580,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -7566,7 +7595,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -7733,7 +7762,7 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:G30"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7742,74 +7771,75 @@
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -7819,10 +7849,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>492</v>
+        <v>431</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -7848,36 +7878,36 @@
         <v>106</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>494</v>
+        <v>433</v>
       </c>
       <c r="B21" t="s">
-        <v>509</v>
+        <v>448</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="H21" t="s">
-        <v>493</v>
+        <v>432</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -7894,34 +7924,34 @@
         <v>estudio1</v>
       </c>
       <c r="M21" t="str">
-        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
-        <v>('estudio1','Escritorio Caoba ejecutivo','N/A','Desde $ 2.000.000','Imagenes/cuartos_de_estudio/estudio1.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'),"</f>
+        <v>('estudio1','Escritorio Caoba ejecutivo','N/A','Desde $ 2.000.000','Imagenes/cuartos_de_estudio/estudio1.png'),</v>
       </c>
       <c r="N21" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>495</v>
+        <v>434</v>
       </c>
       <c r="B22" t="s">
-        <v>515</v>
+        <v>453</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -7934,35 +7964,35 @@
         <f t="shared" si="0"/>
         <v>estudio2</v>
       </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" ref="M22:M34" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
-        <v>('estudio2','Escritorio empotrado y mueble superior Alaska','N/A','Desde $ 3.500.000','Imagenes/cuartos_de_estudio/estudio2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      <c r="M22" t="str">
+        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
+        <v>('estudio2','Escritorio empotrado y mueble superior Alaska','N/A','Desde $ 3.500.000','Imagenes/cuartos_de_estudio/estudio2.png'),</v>
       </c>
       <c r="N22" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>496</v>
+        <v>435</v>
       </c>
       <c r="B23" t="s">
-        <v>532</v>
+        <v>470</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>519</v>
+        <v>457</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -7977,33 +8007,33 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="2"/>
-        <v>('estudio3','Escritorio y silla Fresno Sencillo','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio3.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('estudio3','Escritorio y silla Fresno Sencillo','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio3.png'),</v>
       </c>
       <c r="N23" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>497</v>
+        <v>436</v>
       </c>
       <c r="B24" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>520</v>
+        <v>458</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -8018,33 +8048,33 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="2"/>
-        <v>('estudio4','Escritorio Ejecutivo Obsidiana y muebles auxiliar','N/A','Desde $ 3.900.000','Imagenes/cuartos_de_estudio/estudio4.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('estudio4','Escritorio Ejecutivo Obsidiana y muebles auxiliar','N/A','Desde $ 3.900.000','Imagenes/cuartos_de_estudio/estudio4.png'),</v>
       </c>
       <c r="N24" t="s">
-        <v>559</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>498</v>
+        <v>437</v>
       </c>
       <c r="B25" t="s">
-        <v>536</v>
+        <v>474</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>521</v>
+        <v>459</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I25">
         <v>5</v>
@@ -8059,33 +8089,33 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="2"/>
-        <v>('estudio5','Escritorio Basic lineal Abedul','N/A','Desde $ 3.200.000','Imagenes/cuartos_de_estudio/estudio5.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('estudio5','Escritorio Basic lineal Abedul','N/A','Desde $ 3.200.000','Imagenes/cuartos_de_estudio/estudio5.png'),</v>
       </c>
       <c r="N25" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>499</v>
+        <v>438</v>
       </c>
       <c r="B26" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>538</v>
+        <v>476</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>522</v>
+        <v>460</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I26">
         <v>6</v>
@@ -8100,33 +8130,33 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="2"/>
-        <v>('estudio6','Escritorio y estanteria Spring Basic','N/A','Desde $ 3.800.000','Imagenes/cuartos_de_estudio/estudio6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('estudio6','Escritorio y estanteria Spring Basic','N/A','Desde $ 3.800.000','Imagenes/cuartos_de_estudio/estudio6.png'),</v>
       </c>
       <c r="N26" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>500</v>
+        <v>439</v>
       </c>
       <c r="B27" t="s">
-        <v>541</v>
+        <v>479</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>545</v>
+        <v>483</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>523</v>
+        <v>461</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I27">
         <v>7</v>
@@ -8141,33 +8171,33 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="2"/>
-        <v>('estudio7','Escritorio lineal Roble claro','N/A','Desde $ 1.800.000','Imagenes/cuartos_de_estudio/estudio7.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('estudio7','Escritorio lineal Roble claro','N/A','Desde $ 1.800.000','Imagenes/cuartos_de_estudio/estudio7.png'),</v>
       </c>
       <c r="N27" t="s">
-        <v>562</v>
+        <v>620</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>501</v>
+        <v>440</v>
       </c>
       <c r="B28" t="s">
-        <v>542</v>
+        <v>480</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>544</v>
+        <v>482</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>524</v>
+        <v>462</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -8182,33 +8212,33 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="2"/>
-        <v>('estudio8','Escritorio lineal White flotante','N/A','Desde $ 1.300.000','Imagenes/cuartos_de_estudio/estudio8.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('estudio8','Escritorio lineal White flotante','N/A','Desde $ 1.300.000','Imagenes/cuartos_de_estudio/estudio8.png'),</v>
       </c>
       <c r="N28" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>502</v>
+        <v>441</v>
       </c>
       <c r="B29" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -8223,33 +8253,33 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="2"/>
-        <v>('estudio9','Escritorio sencillo Vintage','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('estudio9','Escritorio sencillo Vintage','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio9.png'),</v>
       </c>
       <c r="N29" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>503</v>
+        <v>442</v>
       </c>
       <c r="B30" t="s">
-        <v>546</v>
+        <v>484</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>548</v>
+        <v>486</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I30">
         <v>10</v>
@@ -8264,33 +8294,33 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="2"/>
-        <v>('estudio10','Escritorio y silla Industry Roble Rojo','N/A','Desde $ 2.100.000','Imagenes/cuartos_de_estudio/estudio10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('estudio10','Escritorio y silla Industry Roble Rojo','N/A','Desde $ 2.100.000','Imagenes/cuartos_de_estudio/estudio10.png'),</v>
       </c>
       <c r="N30" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>504</v>
+        <v>443</v>
       </c>
       <c r="B31" t="s">
-        <v>547</v>
+        <v>485</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>527</v>
+        <v>465</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I31">
         <v>11</v>
@@ -8305,33 +8335,33 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="2"/>
-        <v>('estudio11','Escritorio double Ceniza','N/A','Desde $ 4.500.000','Imagenes/cuartos_de_estudio/estudio11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('estudio11','Escritorio double Ceniza','N/A','Desde $ 4.500.000','Imagenes/cuartos_de_estudio/estudio11.png'),</v>
       </c>
       <c r="N31" t="s">
-        <v>566</v>
+        <v>624</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>505</v>
+        <v>444</v>
       </c>
       <c r="B32" t="s">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>528</v>
+        <v>466</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I32">
         <v>12</v>
@@ -8346,33 +8376,33 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="2"/>
-        <v>('estudio12','Escritorio Mediterraneo ','N/A','Desde $ 3.500.000','Imagenes/cuartos_de_estudio/estudio12.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('estudio12','Escritorio Mediterraneo ','N/A','Desde $ 3.500.000','Imagenes/cuartos_de_estudio/estudio12.png'),</v>
       </c>
       <c r="N32" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>506</v>
+        <v>445</v>
       </c>
       <c r="B33" t="s">
-        <v>550</v>
+        <v>488</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>551</v>
+        <v>489</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>529</v>
+        <v>467</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I33">
         <v>13</v>
@@ -8387,33 +8417,33 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="2"/>
-        <v>('estudio13','Escritorio small float','N/A','Desde $ 1.000.000','Imagenes/cuartos_de_estudio/estudio13.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('estudio13','Escritorio small float','N/A','Desde $ 1.000.000','Imagenes/cuartos_de_estudio/estudio13.png'),</v>
       </c>
       <c r="N33" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>507</v>
+        <v>446</v>
       </c>
       <c r="B34" t="s">
-        <v>552</v>
+        <v>490</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>553</v>
+        <v>491</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>530</v>
+        <v>468</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I34">
         <v>14</v>
@@ -8428,33 +8458,33 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="2"/>
-        <v>('estudio14','Escritorio y biblioteca individual bone','N/A','Desde $ 2.400.000','Imagenes/cuartos_de_estudio/estudio14.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('estudio14','Escritorio y biblioteca individual bone','N/A','Desde $ 2.400.000','Imagenes/cuartos_de_estudio/estudio14.png'),</v>
       </c>
       <c r="N34" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>508</v>
+        <v>447</v>
       </c>
       <c r="B35" t="s">
-        <v>554</v>
+        <v>492</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>555</v>
+        <v>493</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>531</v>
+        <v>469</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I35">
         <v>15</v>
@@ -8468,11 +8498,11 @@
         <v>estudio15</v>
       </c>
       <c r="M35" t="str">
-        <f>+"('"&amp;A35&amp;"'"&amp;$L$20&amp;"'"&amp;B35&amp;"'"&amp;$L$20&amp;"'"&amp;C35&amp;"'"&amp;$L$20&amp;"'"&amp;D35&amp;"'"&amp;$L$20&amp;"'"&amp;E35&amp;"'"&amp;$L$20&amp;"'"&amp;F35&amp;"'"&amp;$L$20&amp;"'"&amp;G35&amp;"'),"</f>
-        <v>('estudio15','Escritorio double ejecutivo Jatoba','N/A','Desde $ 4.700.000','Imagenes/cuartos_de_estudio/estudio15.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <f t="shared" si="2"/>
+        <v>('estudio15','Escritorio double ejecutivo Jatoba','N/A','Desde $ 4.700.000','Imagenes/cuartos_de_estudio/estudio15.png'),</v>
       </c>
       <c r="N35" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -8497,12 +8527,12 @@
         <v>estudio1</v>
       </c>
       <c r="N37" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8517,7 +8547,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8532,7 +8562,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8547,7 +8577,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8562,7 +8592,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8729,7 +8759,7 @@
   <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:G34"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8737,88 +8767,89 @@
     <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="48.140625" customWidth="1"/>
-    <col min="6" max="6" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="112.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>589</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>587</v>
+        <v>510</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -8844,36 +8875,36 @@
         <v>106</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>572</v>
+        <v>495</v>
       </c>
       <c r="B21" t="s">
-        <v>590</v>
+        <v>512</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>555</v>
+        <v>493</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="H21" t="s">
-        <v>571</v>
+        <v>494</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -8890,34 +8921,34 @@
         <v>biblioteca1</v>
       </c>
       <c r="M21" t="str">
-        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
-        <v>('biblioteca1','Biblioteca espiral white','N/A','Desde $ 4.700.000','Imagenes/bibliotecas/biblioteca1.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'),"</f>
+        <v>('biblioteca1','Biblioteca espiral white','N/A','Desde $ 4.700.000','Imagenes/bibliotecas/biblioteca1.png'),</v>
       </c>
       <c r="N21" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>573</v>
+        <v>496</v>
       </c>
       <c r="B22" t="s">
-        <v>591</v>
+        <v>513</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>612</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -8930,35 +8961,35 @@
         <f t="shared" si="0"/>
         <v>biblioteca2</v>
       </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" ref="M22:M34" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
-        <v>('biblioteca2','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      <c r="M22" t="str">
+        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
+        <v>('biblioteca2','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca2.png'),</v>
       </c>
       <c r="N22" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>574</v>
+        <v>497</v>
       </c>
       <c r="B23" t="s">
-        <v>592</v>
+        <v>514</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>613</v>
+        <v>535</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -8973,33 +9004,33 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca3','Biblioteca en L pino flotante','N/A','Desde $ 4.500.000','Imagenes/bibliotecas/biblioteca3.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca3','Biblioteca en L pino flotante','N/A','Desde $ 4.500.000','Imagenes/bibliotecas/biblioteca3.png'),</v>
       </c>
       <c r="N23" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>575</v>
+        <v>498</v>
       </c>
       <c r="B24" t="s">
-        <v>593</v>
+        <v>515</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>594</v>
+        <v>516</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>614</v>
+        <v>536</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -9014,33 +9045,33 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca4','Biblioteca Obsidina ejecutiva','N/A','Desde $ 5.200.000','Imagenes/bibliotecas/biblioteca4.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca4','Biblioteca Obsidina ejecutiva','N/A','Desde $ 5.200.000','Imagenes/bibliotecas/biblioteca4.png'),</v>
       </c>
       <c r="N24" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>576</v>
+        <v>499</v>
       </c>
       <c r="B25" t="s">
-        <v>595</v>
+        <v>517</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>596</v>
+        <v>518</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>615</v>
+        <v>537</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I25">
         <v>5</v>
@@ -9055,33 +9086,33 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca5','Biblioteca clasic beige','N/A','Desde $ 2.800.000','Imagenes/bibliotecas/biblioteca5.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca5','Biblioteca clasic beige','N/A','Desde $ 2.800.000','Imagenes/bibliotecas/biblioteca5.png'),</v>
       </c>
       <c r="N25" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>577</v>
+        <v>500</v>
       </c>
       <c r="B26" t="s">
-        <v>597</v>
+        <v>519</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>598</v>
+        <v>520</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>616</v>
+        <v>538</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I26">
         <v>6</v>
@@ -9096,33 +9127,33 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca6','Biblioteca Cerezo a la medida','N/A','Desde $ 6.700.000','Imagenes/bibliotecas/biblioteca6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca6','Biblioteca Cerezo a la medida','N/A','Desde $ 6.700.000','Imagenes/bibliotecas/biblioteca6.png'),</v>
       </c>
       <c r="N26" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>578</v>
+        <v>501</v>
       </c>
       <c r="B27" t="s">
-        <v>599</v>
+        <v>521</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>548</v>
+        <v>486</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>617</v>
+        <v>539</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I27">
         <v>7</v>
@@ -9137,33 +9168,33 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca7','Biblioteca Nogal dos partes L','N/A','Desde $ 2.100.000','Imagenes/bibliotecas/biblioteca7.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca7','Biblioteca Nogal dos partes L','N/A','Desde $ 2.100.000','Imagenes/bibliotecas/biblioteca7.png'),</v>
       </c>
       <c r="N27" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>579</v>
+        <v>502</v>
       </c>
       <c r="B28" t="s">
-        <v>600</v>
+        <v>522</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>618</v>
+        <v>540</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -9178,33 +9209,33 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca8','Biblioteca Alaska','N/A','Desde $ 3.900.000','Imagenes/bibliotecas/biblioteca8.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca8','Biblioteca Alaska','N/A','Desde $ 3.900.000','Imagenes/bibliotecas/biblioteca8.png'),</v>
       </c>
       <c r="N28" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>580</v>
+        <v>503</v>
       </c>
       <c r="B29" t="s">
-        <v>602</v>
+        <v>524</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>619</v>
+        <v>541</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -9219,33 +9250,33 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca9','Biblioteca Burgues Clasic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca9','Biblioteca Burgues Clasic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca9.png'),</v>
       </c>
       <c r="N29" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>581</v>
+        <v>504</v>
       </c>
       <c r="B30" t="s">
-        <v>603</v>
+        <v>525</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>604</v>
+        <v>526</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>620</v>
+        <v>542</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I30">
         <v>10</v>
@@ -9260,33 +9291,33 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca10','Biblioteca Rustic clasic','N/A','Desde $ 3.100.000','Imagenes/bibliotecas/biblioteca10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca10','Biblioteca Rustic clasic','N/A','Desde $ 3.100.000','Imagenes/bibliotecas/biblioteca10.png'),</v>
       </c>
       <c r="N30" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>582</v>
+        <v>505</v>
       </c>
       <c r="B31" t="s">
-        <v>605</v>
+        <v>527</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>621</v>
+        <v>543</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I31">
         <v>11</v>
@@ -9301,33 +9332,33 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca11','Bibloteca a medida en L flotante Fresno','N/A','Desde $ 3.500.000','Imagenes/bibliotecas/biblioteca11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca11','Bibloteca a medida en L flotante Fresno','N/A','Desde $ 3.500.000','Imagenes/bibliotecas/biblioteca11.png'),</v>
       </c>
       <c r="N31" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>583</v>
+        <v>506</v>
       </c>
       <c r="B32" t="s">
-        <v>591</v>
+        <v>513</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>622</v>
+        <v>544</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I32">
         <v>12</v>
@@ -9342,33 +9373,33 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca12','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca12.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca12','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca12.png'),</v>
       </c>
       <c r="N32" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>584</v>
+        <v>507</v>
       </c>
       <c r="B33" t="s">
-        <v>606</v>
+        <v>528</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>601</v>
+        <v>523</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>623</v>
+        <v>545</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I33">
         <v>13</v>
@@ -9383,33 +9414,33 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca13','Bibloteca Ice contemporanea a la medida','N/A','Desde $ 4.100.000','Imagenes/bibliotecas/biblioteca13.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca13','Bibloteca Ice contemporanea a la medida','N/A','Desde $ 4.100.000','Imagenes/bibliotecas/biblioteca13.png'),</v>
       </c>
       <c r="N33" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>585</v>
+        <v>508</v>
       </c>
       <c r="B34" t="s">
-        <v>609</v>
+        <v>531</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>610</v>
+        <v>532</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>624</v>
+        <v>546</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I34">
         <v>14</v>
@@ -9424,33 +9455,33 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca14','Biblioteca Space gray','N/A','Desde $ 4.400.000','Imagenes/bibliotecas/biblioteca14.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca14','Biblioteca Space gray','N/A','Desde $ 4.400.000','Imagenes/bibliotecas/biblioteca14.png'),</v>
       </c>
       <c r="N34" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>586</v>
+        <v>509</v>
       </c>
       <c r="B35" t="s">
-        <v>607</v>
+        <v>529</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>608</v>
+        <v>530</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>625</v>
+        <v>547</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I35">
         <v>15</v>
@@ -9464,11 +9495,11 @@
         <v>biblioteca15</v>
       </c>
       <c r="M35" t="str">
-        <f>+"('"&amp;A35&amp;"'"&amp;$L$20&amp;"'"&amp;B35&amp;"'"&amp;$L$20&amp;"'"&amp;C35&amp;"'"&amp;$L$20&amp;"'"&amp;D35&amp;"'"&amp;$L$20&amp;"'"&amp;E35&amp;"'"&amp;$L$20&amp;"'"&amp;F35&amp;"'"&amp;$L$20&amp;"'"&amp;G35&amp;"'),"</f>
-        <v>('biblioteca15','Biblioteca circular Olivo','N/A','Desde $ 5.700.000','Imagenes/bibliotecas/biblioteca15.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <f t="shared" si="2"/>
+        <v>('biblioteca15','Biblioteca circular Olivo','N/A','Desde $ 5.700.000','Imagenes/bibliotecas/biblioteca15.png'),</v>
       </c>
       <c r="N35" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -9493,12 +9524,12 @@
         <v>biblioteca1</v>
       </c>
       <c r="N37" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -9513,7 +9544,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -9528,7 +9559,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -9543,7 +9574,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -9558,7 +9589,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -9724,84 +9755,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698C7D6-D365-46C9-A959-8B3DAC310AB3}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="48.140625" customWidth="1"/>
-    <col min="6" max="6" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
     <col min="11" max="11" width="35.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="108.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -9811,10 +9842,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>587</v>
+        <v>510</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -9840,36 +9871,36 @@
         <v>106</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>577</v>
+        <v>500</v>
       </c>
       <c r="B21" t="s">
-        <v>597</v>
+        <v>519</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>598</v>
+        <v>520</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>616</v>
+        <v>538</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="H21" t="s">
-        <v>571</v>
+        <v>494</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -9886,34 +9917,34 @@
         <v>biblioteca1</v>
       </c>
       <c r="M21" t="str">
-        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'"&amp;$L$20&amp;"'"&amp;F21&amp;"'"&amp;$L$20&amp;"'"&amp;G21&amp;"'),"</f>
-        <v>('biblioteca6','Biblioteca Cerezo a la medida','N/A','Desde $ 6.700.000','Imagenes/bibliotecas/biblioteca6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <f>+"('"&amp;A21&amp;"'"&amp;$L$20&amp;"'"&amp;B21&amp;"'"&amp;$L$20&amp;"'"&amp;C21&amp;"'"&amp;$L$20&amp;"'"&amp;D21&amp;"'"&amp;$L$20&amp;"'"&amp;E21&amp;"'),"</f>
+        <v>('biblioteca6','Biblioteca Cerezo a la medida','N/A','Desde $ 6.700.000','Imagenes/bibliotecas/biblioteca6.png'),</v>
       </c>
       <c r="N21" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>502</v>
+        <v>441</v>
       </c>
       <c r="B22" t="s">
-        <v>543</v>
+        <v>481</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -9926,35 +9957,35 @@
         <f t="shared" si="0"/>
         <v>biblioteca2</v>
       </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" ref="M22:M34" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'"&amp;$L$20&amp;"'"&amp;F22&amp;"'"&amp;$L$20&amp;"'"&amp;G22&amp;"'),"</f>
-        <v>('estudio9','Escritorio sencillo Vintage','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+      <c r="M22" t="str">
+        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
+        <v>('estudio9','Escritorio sencillo Vintage','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio9.png'),</v>
       </c>
       <c r="N22" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="B23" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -9969,33 +10000,33 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina6','Cocina Celeste clasica','N/A','Desde $4.000.000','Imagenes/cocinas/cocina6.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina6','Cocina Celeste clasica','N/A','Desde $4.000.000','Imagenes/cocinas/cocina6.png'),</v>
       </c>
       <c r="N23" t="s">
-        <v>482</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>580</v>
+        <v>503</v>
       </c>
       <c r="B24" t="s">
-        <v>602</v>
+        <v>524</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>619</v>
+        <v>541</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I24">
         <v>4</v>
@@ -10010,33 +10041,33 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca9','Biblioteca Burgues Clasic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca9.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca9','Biblioteca Burgues Clasic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca9.png'),</v>
       </c>
       <c r="N24" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>572</v>
+        <v>495</v>
       </c>
       <c r="B25" t="s">
-        <v>590</v>
+        <v>512</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>555</v>
+        <v>493</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I25">
         <v>5</v>
@@ -10051,33 +10082,33 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca1','Biblioteca espiral white','N/A','Desde $ 4.700.000','Imagenes/bibliotecas/biblioteca1.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca1','Biblioteca espiral white','N/A','Desde $ 4.700.000','Imagenes/bibliotecas/biblioteca1.png'),</v>
       </c>
       <c r="N25" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>503</v>
+        <v>442</v>
       </c>
       <c r="B26" t="s">
-        <v>546</v>
+        <v>484</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>548</v>
+        <v>486</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I26">
         <v>6</v>
@@ -10092,33 +10123,33 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="2"/>
-        <v>('estudio10','Escritorio y silla Industry Roble Rojo','N/A','Desde $ 2.100.000','Imagenes/cuartos_de_estudio/estudio10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('estudio10','Escritorio y silla Industry Roble Rojo','N/A','Desde $ 2.100.000','Imagenes/cuartos_de_estudio/estudio10.png'),</v>
       </c>
       <c r="N26" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>575</v>
+        <v>498</v>
       </c>
       <c r="B27" t="s">
-        <v>593</v>
+        <v>515</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>594</v>
+        <v>516</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>614</v>
+        <v>536</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I27">
         <v>7</v>
@@ -10133,33 +10164,33 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca4','Biblioteca Obsidina ejecutiva','N/A','Desde $ 5.200.000','Imagenes/bibliotecas/biblioteca4.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca4','Biblioteca Obsidina ejecutiva','N/A','Desde $ 5.200.000','Imagenes/bibliotecas/biblioteca4.png'),</v>
       </c>
       <c r="N27" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>582</v>
+        <v>505</v>
       </c>
       <c r="B28" t="s">
-        <v>605</v>
+        <v>527</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>621</v>
+        <v>543</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -10174,33 +10205,33 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca11','Bibloteca a medida en L flotante Fresno','N/A','Desde $ 3.500.000','Imagenes/bibliotecas/biblioteca11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca11','Bibloteca a medida en L flotante Fresno','N/A','Desde $ 3.500.000','Imagenes/bibliotecas/biblioteca11.png'),</v>
       </c>
       <c r="N28" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B29" t="s">
+        <v>402</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B29" t="s">
-        <v>448</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -10215,33 +10246,33 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina10','Cocina Artiko en L','N/A','Desde $7.500.000','Imagenes/cocinas/cocina10.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina10','Cocina Artiko en L','N/A','Desde $7.500.000','Imagenes/cocinas/cocina10.png'),</v>
       </c>
       <c r="N29" t="s">
-        <v>486</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>574</v>
+        <v>497</v>
       </c>
       <c r="B30" t="s">
-        <v>592</v>
+        <v>514</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>613</v>
+        <v>535</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I30">
         <v>10</v>
@@ -10256,33 +10287,33 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca3','Biblioteca en L pino flotante','N/A','Desde $ 4.500.000','Imagenes/bibliotecas/biblioteca3.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca3','Biblioteca en L pino flotante','N/A','Desde $ 4.500.000','Imagenes/bibliotecas/biblioteca3.png'),</v>
       </c>
       <c r="N30" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>585</v>
+        <v>508</v>
       </c>
       <c r="B31" t="s">
-        <v>609</v>
+        <v>531</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>610</v>
+        <v>532</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>624</v>
+        <v>546</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I31">
         <v>11</v>
@@ -10297,33 +10328,33 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca14','Biblioteca Space gray','N/A','Desde $ 4.400.000','Imagenes/bibliotecas/biblioteca14.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca14','Biblioteca Space gray','N/A','Desde $ 4.400.000','Imagenes/bibliotecas/biblioteca14.png'),</v>
       </c>
       <c r="N31" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>573</v>
+        <v>496</v>
       </c>
       <c r="B32" t="s">
-        <v>591</v>
+        <v>513</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>612</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I32">
         <v>12</v>
@@ -10338,33 +10369,33 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca2','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca2.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca2','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca2.png'),</v>
       </c>
       <c r="N32" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>579</v>
+        <v>502</v>
       </c>
       <c r="B33" t="s">
-        <v>600</v>
+        <v>522</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>535</v>
+        <v>473</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>618</v>
+        <v>540</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I33">
         <v>13</v>
@@ -10379,33 +10410,33 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="2"/>
-        <v>('biblioteca8','Biblioteca Alaska','N/A','Desde $ 3.900.000','Imagenes/bibliotecas/biblioteca8.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <v>('biblioteca8','Biblioteca Alaska','N/A','Desde $ 3.900.000','Imagenes/bibliotecas/biblioteca8.png'),</v>
       </c>
       <c r="N33" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="B34" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="I34">
         <v>14</v>
@@ -10420,33 +10451,33 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="2"/>
-        <v>('cocina11','Cocina 90´s Madera','N/A','Desde $7.500.000','Imagenes/cocinas/cocina11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF , Diferentes tipos de mesones'),</v>
+        <v>('cocina11','Cocina 90´s Madera','N/A','Desde $7.500.000','Imagenes/cocinas/cocina11.png'),</v>
       </c>
       <c r="N34" t="s">
-        <v>487</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>504</v>
+        <v>443</v>
       </c>
       <c r="B35" t="s">
-        <v>547</v>
+        <v>485</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>527</v>
+        <v>465</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="I35">
         <v>15</v>
@@ -10460,11 +10491,11 @@
         <v>biblioteca15</v>
       </c>
       <c r="M35" t="str">
-        <f>+"('"&amp;A35&amp;"'"&amp;$L$20&amp;"'"&amp;B35&amp;"'"&amp;$L$20&amp;"'"&amp;C35&amp;"'"&amp;$L$20&amp;"'"&amp;D35&amp;"'"&amp;$L$20&amp;"'"&amp;E35&amp;"'"&amp;$L$20&amp;"'"&amp;F35&amp;"'"&amp;$L$20&amp;"'"&amp;G35&amp;"'),"</f>
-        <v>('estudio11','Escritorio double Ceniza','N/A','Desde $ 4.500.000','Imagenes/cuartos_de_estudio/estudio11.png',' Natural , Wengue , Caoba ,  Diferentes estilos prediseñados',' Madera , MDF '),</v>
+        <f t="shared" si="2"/>
+        <v>('estudio11','Escritorio double Ceniza','N/A','Desde $ 4.500.000','Imagenes/cuartos_de_estudio/estudio11.png'),</v>
       </c>
       <c r="N35" t="s">
-        <v>566</v>
+        <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -10489,12 +10520,12 @@
         <v>biblioteca1</v>
       </c>
       <c r="N37" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -10509,7 +10540,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -10524,7 +10555,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -10539,7 +10570,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -10554,7 +10585,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>

--- a/Query Base de datos.xlsx
+++ b/Query Base de datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\unificacion_proyecto_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A499E8DD-41D5-4743-8BD5-CBA84F6F1A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71250615-23C5-417B-A064-97ED94C3EA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{2A26BEC3-3C8D-473A-BF84-89C24DF24433}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2A26BEC3-3C8D-473A-BF84-89C24DF24433}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1990,7 +1990,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2037,7 +2037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -2047,7 +2047,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2368,7 +2367,7 @@
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -2382,27 +2381,27 @@
     <col min="10" max="10" width="194.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="H5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +2424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2458,7 +2457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2491,7 +2490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2524,7 +2523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2557,23 +2556,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>53</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="C21" t="s">
         <v>47</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="C22" t="s">
         <v>48</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="C23" t="s">
         <v>49</v>
       </c>
@@ -2624,12 +2623,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2645,7 +2644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -2661,72 +2660,72 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -2741,7 +2740,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
         <v>75</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
         <v>76</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
         <v>77</v>
       </c>
@@ -2777,17 +2776,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2810,7 +2809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>('PRU_009','Pru alta carpinteria 2','Descripcion prueba alta carpineteria',1000000.00,'Imagenes/seccionAlcobas2 - copia.png','Azul,Blanco,Negro','Material3,Material4,Material5')</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -2864,7 +2863,7 @@
         <v>('PRU_006','Pru Alcobas 2','Descripcion prueba alta carpinteria',1500000.00,'Imagenes/seccion alta carpinteria - copia.png','Azul,Blanco','Material1,Material2,Material4,Material5')</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -2891,7 +2890,7 @@
         <v>('PRU_007','Pru Comedor 2','Descripcion prueba comedor',2100000.00,'Imagenes/seccionComedor - copia.png','Rojo,Blanco,Negro','Material1,Material3,Material4')</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -2918,7 +2917,7 @@
         <v>('PRU_008','Pru Salas 2','Descripcion prueba salas',1800000.00,'Imagenes/SeccionSalas - copia.png','Rojo,Azul,Blanco,Negro','Material2,Material3,Material5')</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="6" t="s">
         <v>0</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
         <v>9</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
@@ -3043,58 +3042,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA30AA2-9880-4D41-820C-F91482830A46}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21:N35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="67.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -3102,17 +3101,17 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="F10" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>580</v>
       </c>
@@ -3120,7 +3119,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>('VALUES','','','','','',''),</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="H19" t="s">
         <v>175</v>
       </c>
@@ -3137,7 +3136,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>109</v>
       </c>
@@ -3213,7 +3212,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>110</v>
       </c>
@@ -3247,14 +3246,14 @@
         <v>salas2</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ref="M22:N35" si="3">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
+        <f t="shared" ref="M22:M35" si="3">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
         <v>('salas2','Sillón Berlín','N/A','$ 1.800.000','Imagenes/salas/salas2.png'),</v>
       </c>
       <c r="N22" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>111</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>112</v>
       </c>
@@ -3336,7 +3335,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>113</v>
       </c>
@@ -3377,7 +3376,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>114</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
         <v>117</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>118</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>119</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>120</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>122</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -3787,7 +3786,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3796,7 +3795,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3805,7 +3804,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>236</v>
       </c>
@@ -3816,7 +3815,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -3827,7 +3826,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -3838,7 +3837,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -3849,7 +3848,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>240</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -3894,7 +3893,7 @@
         <v>BeigeAzulWengueGrisCaobaBlancoPlata</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3902,10 +3901,10 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="E46">
         <f>+LEN(D46)</f>
         <v>0</v>
@@ -3915,7 +3914,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -3928,7 +3927,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -3941,7 +3940,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="E49">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3951,7 +3950,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>160</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="E51">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3974,7 +3973,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="E52">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3984,7 +3983,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="E53">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3994,7 +3993,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -4007,7 +4006,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v xml:space="preserve"> Sofá Capri</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="D56" t="s">
         <v>125</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v xml:space="preserve"> Sillón Victoria</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -4052,7 +4051,7 @@
         <v xml:space="preserve"> Sofá Valencia</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="D58" t="s">
         <v>127</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v xml:space="preserve"> Sillón Dublín</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="D59" t="s">
         <v>128</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v xml:space="preserve"> Sofá Chicago</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="D60" t="s">
         <v>129</v>
       </c>
@@ -4091,7 +4090,7 @@
         <v xml:space="preserve"> Sillón Berlín</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="D61" t="s">
         <v>130</v>
       </c>
@@ -4104,7 +4103,7 @@
         <v xml:space="preserve"> Sofá Venecia</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="D62" t="s">
         <v>131</v>
       </c>
@@ -4117,7 +4116,7 @@
         <v xml:space="preserve"> Sillón Savoy</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="D63" t="s">
         <v>132</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v xml:space="preserve"> Sofá París</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="D64" t="s">
         <v>133</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v xml:space="preserve"> Sillón Duke</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>155</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v xml:space="preserve"> Sofá Florencia</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="D66" t="s">
         <v>135</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v xml:space="preserve"> Sillón Oxford</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>151</v>
       </c>
@@ -4188,7 +4187,7 @@
         <v xml:space="preserve"> Sofá Barcelona</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v xml:space="preserve"> Sillón Marsella</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -4220,7 +4219,7 @@
         <v xml:space="preserve"> Sofá Londres</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -4236,7 +4235,7 @@
         <v xml:space="preserve"> Sillón Zurich</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -4252,7 +4251,7 @@
         <v xml:space="preserve"> Sofá Sevilla</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -4268,7 +4267,7 @@
         <v xml:space="preserve"> Sillón Toulouse</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="D73" t="s">
         <v>142</v>
       </c>
@@ -4281,7 +4280,7 @@
         <v xml:space="preserve"> Sofá Bruselas</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -4297,7 +4296,7 @@
         <v xml:space="preserve"> Sillón Mónaco</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>150</v>
       </c>
@@ -4313,19 +4312,19 @@
         <v xml:space="preserve"> Sofá Ámsterdam</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="D79" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -4334,7 +4333,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -4342,7 +4341,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4350,7 +4349,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4358,7 +4357,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4383,7 +4382,7 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
@@ -4392,47 +4391,47 @@
     <col min="13" max="13" width="100.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -4440,17 +4439,17 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="E10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>581</v>
       </c>
@@ -4458,12 +4457,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="H19" t="s">
         <v>244</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
@@ -4500,7 +4499,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>251</v>
       </c>
@@ -4547,7 +4546,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>252</v>
       </c>
@@ -4581,14 +4580,14 @@
         <v>comedores2</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
+        <f t="shared" ref="M22:M35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
         <v>('comedores2','Comedor 6 puestos Sevilla','N/A','$ 2.830.000','Imagenes/comedores/comedores2.png'),</v>
       </c>
       <c r="N22" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>253</v>
       </c>
@@ -4629,7 +4628,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>254</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>255</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>256</v>
       </c>
@@ -4752,7 +4751,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>257</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>258</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
         <v>259</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>260</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>261</v>
       </c>
@@ -4957,7 +4956,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>262</v>
       </c>
@@ -4998,7 +4997,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>263</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>264</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>265</v>
       </c>
@@ -5121,7 +5120,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5130,7 +5129,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5143,7 +5142,7 @@
         <v>comedores1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>236</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>comedores2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -5173,7 +5172,7 @@
         <v>comedores3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>comedores4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -5203,7 +5202,7 @@
         <v>comedores5</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>240</v>
       </c>
@@ -5234,7 +5233,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -5253,7 +5252,7 @@
         <v>BeigeAzulWengueGrisCaobacomedores6Plata</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5265,14 +5264,14 @@
         <v>comedores8</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="D45" s="1"/>
       <c r="K45" t="str">
         <f t="shared" si="3"/>
         <v>comedores9</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="E46">
         <f>+LEN(D46)</f>
         <v>0</v>
@@ -5286,7 +5285,7 @@
         <v>comedores10</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -5303,7 +5302,7 @@
         <v>comedores11</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -5320,7 +5319,7 @@
         <v>comedores12</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="E49">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5334,7 +5333,7 @@
         <v>comedores13</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>160</v>
       </c>
@@ -5351,7 +5350,7 @@
         <v>comedores14</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="E51">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5365,7 +5364,7 @@
         <v>comedores15</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="E52">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5375,7 +5374,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="E53">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5385,7 +5384,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -5398,7 +5397,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v xml:space="preserve"> Sofá Capri</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="D56" t="s">
         <v>125</v>
       </c>
@@ -5427,7 +5426,7 @@
         <v xml:space="preserve"> Sillón Victoria</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -5443,7 +5442,7 @@
         <v xml:space="preserve"> Sofá Valencia</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="D58" t="s">
         <v>127</v>
       </c>
@@ -5456,7 +5455,7 @@
         <v xml:space="preserve"> Sillón Dublín</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="D59" t="s">
         <v>128</v>
       </c>
@@ -5469,7 +5468,7 @@
         <v xml:space="preserve"> Sofá Chicago</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="D60" t="s">
         <v>129</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v xml:space="preserve"> Sillón Berlín</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="D61" t="s">
         <v>130</v>
       </c>
@@ -5495,7 +5494,7 @@
         <v xml:space="preserve"> Sofá Venecia</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="D62" t="s">
         <v>131</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v xml:space="preserve"> Sillón Savoy</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="D63" t="s">
         <v>132</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v xml:space="preserve"> Sofá París</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="D64" t="s">
         <v>133</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v xml:space="preserve"> Sillón Duke</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>155</v>
       </c>
@@ -5550,7 +5549,7 @@
         <v xml:space="preserve"> Sofá Florencia</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="D66" t="s">
         <v>135</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v xml:space="preserve"> Sillón Oxford</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>151</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v xml:space="preserve"> Sofá Barcelona</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v xml:space="preserve"> Sillón Marsella</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v xml:space="preserve"> Sofá Londres</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v xml:space="preserve"> Sillón Zurich</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -5643,7 +5642,7 @@
         <v xml:space="preserve"> Sofá Sevilla</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -5659,7 +5658,7 @@
         <v xml:space="preserve"> Sillón Toulouse</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="D73" t="s">
         <v>142</v>
       </c>
@@ -5672,7 +5671,7 @@
         <v xml:space="preserve"> Sofá Bruselas</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -5688,7 +5687,7 @@
         <v xml:space="preserve"> Sillón Mónaco</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>150</v>
       </c>
@@ -5704,19 +5703,19 @@
         <v xml:space="preserve"> Sofá Ámsterdam</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="D79" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -5725,7 +5724,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -5733,7 +5732,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5741,7 +5740,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5749,7 +5748,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5771,7 +5770,7 @@
       <selection activeCell="N21" sqref="N21:N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
@@ -5784,47 +5783,47 @@
     <col min="13" max="13" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -5832,27 +5831,27 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="E10" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="H19" t="s">
         <v>322</v>
       </c>
@@ -5860,7 +5859,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
@@ -5889,7 +5888,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>307</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>308</v>
       </c>
@@ -5970,14 +5969,14 @@
         <v>alcobas2</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
+        <f t="shared" ref="M22:M35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
         <v>('alcobas2','Juego alcoba Brooklyn','N/A','$ 2.990.000','Imagenes/alcobas/alcobas2.png'),</v>
       </c>
       <c r="N22" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>309</v>
       </c>
@@ -6018,7 +6017,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>310</v>
       </c>
@@ -6059,7 +6058,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>311</v>
       </c>
@@ -6100,7 +6099,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>312</v>
       </c>
@@ -6141,7 +6140,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>313</v>
       </c>
@@ -6182,7 +6181,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>314</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
         <v>315</v>
       </c>
@@ -6264,7 +6263,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>316</v>
       </c>
@@ -6305,7 +6304,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>317</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>318</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>319</v>
       </c>
@@ -6428,7 +6427,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>320</v>
       </c>
@@ -6469,7 +6468,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>321</v>
       </c>
@@ -6510,7 +6509,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6519,7 +6518,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6532,7 +6531,7 @@
         <v>alcobas1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>236</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>alcobas2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>alcobas3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -6577,7 +6576,7 @@
         <v>alcobas4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -6592,7 +6591,7 @@
         <v>alcobas5</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>240</v>
       </c>
@@ -6623,7 +6622,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -6642,7 +6641,7 @@
         <v>BeigeAzulWengueGrisCaobaalcobas6Plata</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -6654,62 +6653,62 @@
         <v>alcobas8</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="D45" s="1"/>
       <c r="K45" t="str">
         <f t="shared" si="3"/>
         <v>alcobas9</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="K46" t="str">
         <f t="shared" si="3"/>
         <v>alcobas10</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="K47" t="str">
         <f t="shared" si="3"/>
         <v>alcobas11</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="K48" t="str">
         <f t="shared" si="3"/>
         <v>alcobas12</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:11">
       <c r="K49" t="str">
         <f t="shared" si="3"/>
         <v>alcobas13</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:11">
       <c r="K50" t="str">
         <f t="shared" si="3"/>
         <v>alcobas14</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:11">
       <c r="K51" t="str">
         <f t="shared" si="3"/>
         <v>alcobas15</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4">
       <c r="D79" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -6718,7 +6717,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -6726,7 +6725,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6734,7 +6733,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6742,7 +6741,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6764,7 +6763,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
@@ -6779,47 +6778,47 @@
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -6827,17 +6826,17 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="F10" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>583</v>
       </c>
@@ -6845,12 +6844,12 @@
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="H19" t="s">
         <v>373</v>
       </c>
@@ -6858,7 +6857,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>375</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>376</v>
       </c>
@@ -6968,14 +6967,14 @@
         <v>cocina2</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
+        <f t="shared" ref="M22:M35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
         <v>('cocina2','Cocina Nevada en L','N/A','Desde $ 6.500.000','Imagenes/cocinas/cocina2.png'),</v>
       </c>
       <c r="N22" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>377</v>
       </c>
@@ -7016,7 +7015,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>378</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>379</v>
       </c>
@@ -7098,7 +7097,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>380</v>
       </c>
@@ -7139,7 +7138,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>381</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>382</v>
       </c>
@@ -7221,7 +7220,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
         <v>383</v>
       </c>
@@ -7262,7 +7261,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>384</v>
       </c>
@@ -7303,7 +7302,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>385</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>386</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>387</v>
       </c>
@@ -7426,7 +7425,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>388</v>
       </c>
@@ -7467,7 +7466,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>389</v>
       </c>
@@ -7508,7 +7507,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -7517,7 +7516,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -7533,7 +7532,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>236</v>
       </c>
@@ -7548,7 +7547,7 @@
         <v>cocina2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -7563,7 +7562,7 @@
         <v>cocina3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -7578,7 +7577,7 @@
         <v>cocina4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -7593,7 +7592,7 @@
         <v>cocina5</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>240</v>
       </c>
@@ -7624,7 +7623,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -7643,7 +7642,7 @@
         <v>BeigeAzulWengueGrisCaobacocina6Plata</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -7655,62 +7654,62 @@
         <v>cocina8</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="D45" s="1"/>
       <c r="K45" t="str">
         <f t="shared" si="3"/>
         <v>cocina9</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="K46" t="str">
         <f t="shared" si="3"/>
         <v>cocina10</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="K47" t="str">
         <f t="shared" si="3"/>
         <v>cocina11</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="K48" t="str">
         <f t="shared" si="3"/>
         <v>cocina12</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:11">
       <c r="K49" t="str">
         <f t="shared" si="3"/>
         <v>cocina13</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:11">
       <c r="K50" t="str">
         <f t="shared" si="3"/>
         <v>cocina14</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:11">
       <c r="K51" t="str">
         <f t="shared" si="3"/>
         <v>cocina15</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4">
       <c r="D79" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -7719,7 +7718,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -7727,7 +7726,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -7735,7 +7734,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7743,7 +7742,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7765,7 +7764,7 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
@@ -7779,47 +7778,47 @@
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -7827,27 +7826,27 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="E10" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="H19" t="s">
         <v>431</v>
       </c>
@@ -7855,7 +7854,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
@@ -7884,7 +7883,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>433</v>
       </c>
@@ -7931,7 +7930,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>434</v>
       </c>
@@ -7965,14 +7964,14 @@
         <v>estudio2</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
+        <f t="shared" ref="M22:M35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
         <v>('estudio2','Escritorio empotrado y mueble superior Alaska','N/A','Desde $ 3.500.000','Imagenes/cuartos_de_estudio/estudio2.png'),</v>
       </c>
       <c r="N22" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>435</v>
       </c>
@@ -8013,7 +8012,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>436</v>
       </c>
@@ -8054,7 +8053,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>437</v>
       </c>
@@ -8095,7 +8094,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>438</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>439</v>
       </c>
@@ -8177,7 +8176,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>440</v>
       </c>
@@ -8218,7 +8217,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
         <v>441</v>
       </c>
@@ -8259,7 +8258,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>442</v>
       </c>
@@ -8300,7 +8299,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>443</v>
       </c>
@@ -8341,7 +8340,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>444</v>
       </c>
@@ -8382,7 +8381,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>445</v>
       </c>
@@ -8423,7 +8422,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>446</v>
       </c>
@@ -8464,7 +8463,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>447</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8514,7 +8513,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8530,7 +8529,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>236</v>
       </c>
@@ -8545,7 +8544,7 @@
         <v>estudio2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -8560,7 +8559,7 @@
         <v>estudio3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -8575,7 +8574,7 @@
         <v>estudio4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -8590,7 +8589,7 @@
         <v>estudio5</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>240</v>
       </c>
@@ -8621,7 +8620,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -8640,7 +8639,7 @@
         <v>BeigeAzulWengueGrisCaobaestudio6Plata</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -8652,62 +8651,62 @@
         <v>estudio8</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="D45" s="1"/>
       <c r="K45" t="str">
         <f t="shared" si="3"/>
         <v>estudio9</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="K46" t="str">
         <f t="shared" si="3"/>
         <v>estudio10</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="K47" t="str">
         <f t="shared" si="3"/>
         <v>estudio11</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="K48" t="str">
         <f t="shared" si="3"/>
         <v>estudio12</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:11">
       <c r="K49" t="str">
         <f t="shared" si="3"/>
         <v>estudio13</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:11">
       <c r="K50" t="str">
         <f t="shared" si="3"/>
         <v>estudio14</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:11">
       <c r="K51" t="str">
         <f t="shared" si="3"/>
         <v>estudio15</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4">
       <c r="D79" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -8716,7 +8715,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -8724,7 +8723,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -8732,7 +8731,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -8740,7 +8739,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -8762,7 +8761,7 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
@@ -8776,47 +8775,47 @@
     <col min="13" max="13" width="112.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -8824,27 +8823,27 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="E10" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="H19" t="s">
         <v>510</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
@@ -8881,7 +8880,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>495</v>
       </c>
@@ -8928,7 +8927,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>496</v>
       </c>
@@ -8962,14 +8961,14 @@
         <v>biblioteca2</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
+        <f t="shared" ref="M22:M35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
         <v>('biblioteca2','Biblioteca Ceniza Basic','N/A','Desde $ 3.700.000','Imagenes/bibliotecas/biblioteca2.png'),</v>
       </c>
       <c r="N22" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>497</v>
       </c>
@@ -9010,7 +9009,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>498</v>
       </c>
@@ -9051,7 +9050,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>499</v>
       </c>
@@ -9092,7 +9091,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>500</v>
       </c>
@@ -9133,7 +9132,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>501</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>502</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="8" t="s">
         <v>503</v>
       </c>
@@ -9256,7 +9255,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>504</v>
       </c>
@@ -9297,7 +9296,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>505</v>
       </c>
@@ -9338,7 +9337,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>506</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>507</v>
       </c>
@@ -9420,7 +9419,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>508</v>
       </c>
@@ -9461,7 +9460,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>509</v>
       </c>
@@ -9502,7 +9501,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -9511,7 +9510,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -9527,7 +9526,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>236</v>
       </c>
@@ -9542,7 +9541,7 @@
         <v>biblioteca2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -9557,7 +9556,7 @@
         <v>biblioteca3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -9572,7 +9571,7 @@
         <v>biblioteca4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -9587,7 +9586,7 @@
         <v>biblioteca5</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>240</v>
       </c>
@@ -9618,7 +9617,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -9637,7 +9636,7 @@
         <v>BeigeAzulWengueGrisCaobabiblioteca6Plata</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -9649,62 +9648,62 @@
         <v>biblioteca8</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="D45" s="1"/>
       <c r="K45" t="str">
         <f t="shared" si="3"/>
         <v>biblioteca9</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="K46" t="str">
         <f t="shared" si="3"/>
         <v>biblioteca10</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="K47" t="str">
         <f t="shared" si="3"/>
         <v>biblioteca11</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="K48" t="str">
         <f t="shared" si="3"/>
         <v>biblioteca12</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:11">
       <c r="K49" t="str">
         <f t="shared" si="3"/>
         <v>biblioteca13</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:11">
       <c r="K50" t="str">
         <f t="shared" si="3"/>
         <v>biblioteca14</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:11">
       <c r="K51" t="str">
         <f t="shared" si="3"/>
         <v>biblioteca15</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4">
       <c r="D79" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -9713,7 +9712,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -9721,7 +9720,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -9729,7 +9728,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -9737,7 +9736,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -9755,11 +9754,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3698C7D6-D365-46C9-A959-8B3DAC310AB3}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21:N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
@@ -9772,47 +9771,47 @@
     <col min="13" max="13" width="108.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -9820,27 +9819,27 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="E10" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="H19" t="s">
         <v>510</v>
       </c>
@@ -9848,7 +9847,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
@@ -9877,7 +9876,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>500</v>
       </c>
@@ -9924,7 +9923,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="8" t="s">
         <v>441</v>
       </c>
@@ -9958,14 +9957,14 @@
         <v>biblioteca2</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ref="M22:N35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
+        <f t="shared" ref="M22:M35" si="2">+"('"&amp;A22&amp;"'"&amp;$L$20&amp;"'"&amp;B22&amp;"'"&amp;$L$20&amp;"'"&amp;C22&amp;"'"&amp;$L$20&amp;"'"&amp;D22&amp;"'"&amp;$L$20&amp;"'"&amp;E22&amp;"'),"</f>
         <v>('estudio9','Escritorio sencillo Vintage','N/A','Desde $ 1.500.000','Imagenes/cuartos_de_estudio/estudio9.png'),</v>
       </c>
       <c r="N22" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>380</v>
       </c>
@@ -10006,7 +10005,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
         <v>503</v>
       </c>
@@ -10047,7 +10046,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>495</v>
       </c>
@@ -10088,7 +10087,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>442</v>
       </c>
@@ -10129,7 +10128,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>498</v>
       </c>
@@ -10170,7 +10169,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>505</v>
       </c>
@@ -10211,7 +10210,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>384</v>
       </c>
@@ -10252,7 +10251,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>497</v>
       </c>
@@ -10293,7 +10292,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>508</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>496</v>
       </c>
@@ -10375,7 +10374,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>502</v>
       </c>
@@ -10416,7 +10415,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>385</v>
       </c>
@@ -10457,7 +10456,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>443</v>
       </c>
@@ -10498,7 +10497,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -10507,7 +10506,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -10523,7 +10522,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>236</v>
       </c>
@@ -10538,7 +10537,7 @@
         <v>biblioteca2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -10553,7 +10552,7 @@
         <v>biblioteca3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -10568,7 +10567,7 @@
         <v>biblioteca4</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -10583,7 +10582,7 @@
         <v>biblioteca5</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>240</v>
       </c>
@@ -10614,7 +10613,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -10633,7 +10632,7 @@
         <v>BeigeAzulWengueGrisCaobabiblioteca6Plata</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -10645,62 +10644,62 @@
         <v>biblioteca8</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="D45" s="1"/>
       <c r="K45" t="str">
         <f t="shared" si="3"/>
         <v>biblioteca9</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="K46" t="str">
         <f t="shared" si="3"/>
         <v>biblioteca10</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="K47" t="str">
         <f t="shared" si="3"/>
         <v>biblioteca11</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="K48" t="str">
         <f t="shared" si="3"/>
         <v>biblioteca12</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:11">
       <c r="K49" t="str">
         <f t="shared" si="3"/>
         <v>biblioteca13</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:11">
       <c r="K50" t="str">
         <f t="shared" si="3"/>
         <v>biblioteca14</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:11">
       <c r="K51" t="str">
         <f t="shared" si="3"/>
         <v>biblioteca15</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4">
       <c r="D79" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -10709,7 +10708,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -10717,7 +10716,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -10725,7 +10724,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -10733,7 +10732,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
